--- a/Stats coronavirus-20200517.xlsx
+++ b/Stats coronavirus-20200517.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlois\Documents\github\covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CABEF628-52AD-428B-9F28-53BA18164E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0FD442-AB68-4913-8A11-6C7AF97F018D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="576" windowWidth="23040" windowHeight="10536" tabRatio="870" activeTab="1" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536" tabRatio="870" activeTab="1" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaux nationaux bruts" sheetId="29" r:id="rId1"/>
-    <sheet name="évolution nationale" sheetId="11" r:id="rId2"/>
-    <sheet name="Population 2020" sheetId="19" r:id="rId3"/>
-    <sheet name="Régions nvx" sheetId="13" state="hidden" r:id="rId4"/>
-    <sheet name="sources ARS" sheetId="12" state="hidden" r:id="rId5"/>
-    <sheet name="Vidéos des points du Ministère" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="évol_nationale" sheetId="30" r:id="rId2"/>
+    <sheet name="évolution nationale" sheetId="11" r:id="rId3"/>
+    <sheet name="Population 2020" sheetId="19" r:id="rId4"/>
+    <sheet name="Régions nvx" sheetId="13" state="hidden" r:id="rId5"/>
+    <sheet name="sources ARS" sheetId="12" state="hidden" r:id="rId6"/>
+    <sheet name="Vidéos des points du Ministère" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
   <si>
     <t>Auvergne-Rhône-Alpes</t>
   </si>
@@ -413,6 +414,9 @@
   </si>
   <si>
     <t>Guérisons</t>
+  </si>
+  <si>
+    <t>ligne csv</t>
   </si>
 </sst>
 </file>
@@ -910,7 +914,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -986,14 +990,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1007,7 +1004,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,6 +1013,27 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1337,1296 +1354,1299 @@
   <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I116" sqref="A112:I116"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.19921875" style="10"/>
-    <col min="2" max="2" width="9.09765625" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.3984375" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.09765625" style="56" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.19921875" style="10"/>
+    <col min="2" max="2" width="9.09765625" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" style="67" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="86.8984375" style="74" customWidth="1"/>
+    <col min="11" max="16384" width="11.19921875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="63" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" s="58" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="62"/>
+      <c r="J1" s="73" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>43854</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="64">
         <v>3</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>43855</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43856</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43857</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43858</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="64">
         <v>4</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="59">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66">
         <v>1</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43859</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="64">
         <v>5</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="59">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66">
         <v>2</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43860</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="64">
         <v>6</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43861</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43862</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43863</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="59">
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66">
         <v>1</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43864</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43865</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43866</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43867</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43868</v>
       </c>
-      <c r="B16" s="59">
+      <c r="B16" s="66">
         <v>11</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43869</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43870</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43871</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43872</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43873</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="52">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="64">
         <v>2</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43874</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="52">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="64">
         <v>3</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43875</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="52">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="64">
         <v>1</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="64">
         <v>1</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43876</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="64">
         <v>12</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="66">
         <v>7</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="64">
         <v>4</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="52">
+      <c r="E24" s="65"/>
+      <c r="F24" s="64">
         <v>1</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43877</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="52">
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="64">
         <v>1</v>
       </c>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43878</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="52">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="64">
         <v>1</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43879</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="52">
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="64">
         <v>1</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43880</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="59">
+      <c r="B28" s="65"/>
+      <c r="C28" s="66">
         <v>4</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="64">
         <v>7</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="52">
+      <c r="E28" s="65"/>
+      <c r="F28" s="64">
         <v>1</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43881</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="59">
+      <c r="B29" s="65"/>
+      <c r="C29" s="66">
         <v>11</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="52">
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="64">
         <v>1</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43882</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="59">
+      <c r="B30" s="65"/>
+      <c r="C30" s="66">
         <v>1</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="67">
         <v>10</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="52">
+      <c r="E30" s="65"/>
+      <c r="F30" s="64">
         <v>1</v>
       </c>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43883</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="52">
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="64">
         <v>1</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43884</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="59">
+      <c r="B32" s="65"/>
+      <c r="C32" s="66">
         <v>1</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="52">
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="64">
         <v>1</v>
       </c>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43885</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="52">
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="64">
         <v>1</v>
       </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43886</v>
       </c>
-      <c r="B34" s="52">
+      <c r="B34" s="64">
         <v>14</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="66">
         <v>2</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="52">
+      <c r="D34" s="65"/>
+      <c r="E34" s="64">
         <v>2</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="64">
         <v>1</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43887</v>
       </c>
-      <c r="B35" s="52">
+      <c r="B35" s="64">
         <v>18</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="66">
         <v>4</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D35" s="64">
         <v>12</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="52">
+      <c r="E35" s="65"/>
+      <c r="F35" s="64">
         <v>2</v>
       </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>43888</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="64">
         <v>38</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="66">
         <v>24</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="52">
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="64">
         <v>2</v>
       </c>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>43889</v>
       </c>
-      <c r="B37" s="52">
+      <c r="B37" s="64">
         <v>57</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="52">
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="64">
         <v>2</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>43890</v>
       </c>
-      <c r="B38" s="52">
+      <c r="B38" s="64">
         <v>100</v>
       </c>
-      <c r="C38" s="59">
+      <c r="C38" s="66">
         <v>86</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="52">
+      <c r="D38" s="65"/>
+      <c r="E38" s="64">
         <v>9</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="64">
         <v>2</v>
       </c>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>43891</v>
       </c>
-      <c r="B39" s="52">
+      <c r="B39" s="64">
         <v>130</v>
       </c>
-      <c r="C39" s="59">
+      <c r="C39" s="66">
         <v>116</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="52">
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="64">
         <v>2</v>
       </c>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>43892</v>
       </c>
-      <c r="B40" s="52">
+      <c r="B40" s="64">
         <v>191</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="59">
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66">
         <v>3</v>
       </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>43893</v>
       </c>
-      <c r="B41" s="52">
+      <c r="B41" s="64">
         <v>212</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="52">
+      <c r="C41" s="65"/>
+      <c r="D41" s="64">
         <v>12</v>
       </c>
-      <c r="E41" s="57"/>
-      <c r="F41" s="52">
+      <c r="E41" s="65"/>
+      <c r="F41" s="64">
         <v>4</v>
       </c>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>43894</v>
       </c>
-      <c r="B42" s="52">
+      <c r="B42" s="64">
         <v>285</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="52">
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="64">
         <v>15</v>
       </c>
-      <c r="F42" s="59">
+      <c r="F42" s="66">
         <v>4</v>
       </c>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>43895</v>
       </c>
-      <c r="B43" s="52">
+      <c r="B43" s="64">
         <v>423</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="52">
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="64">
         <v>23</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="64">
         <v>7</v>
       </c>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>43896</v>
       </c>
-      <c r="B44" s="52">
+      <c r="B44" s="64">
         <v>613</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="52">
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="64">
         <v>39</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="64">
         <v>9</v>
       </c>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>43897</v>
       </c>
-      <c r="B45" s="52">
+      <c r="B45" s="64">
         <v>949</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="52">
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="64">
         <v>45</v>
       </c>
-      <c r="F45" s="52">
+      <c r="F45" s="64">
         <v>16</v>
       </c>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>43898</v>
       </c>
-      <c r="B46" s="52">
+      <c r="B46" s="64">
         <v>1126</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="52">
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="64">
         <v>19</v>
       </c>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>43899</v>
       </c>
-      <c r="B47" s="52">
+      <c r="B47" s="64">
         <v>1412</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="52">
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="64">
         <v>66</v>
       </c>
-      <c r="F47" s="52">
+      <c r="F47" s="64">
         <v>25</v>
       </c>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>43900</v>
       </c>
-      <c r="B48" s="52">
+      <c r="B48" s="64">
         <v>1784</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="52">
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="64">
         <v>86</v>
       </c>
-      <c r="F48" s="52">
+      <c r="F48" s="64">
         <v>33</v>
       </c>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>43901</v>
       </c>
-      <c r="B49" s="52">
+      <c r="B49" s="64">
         <v>2281</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="52">
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="64">
         <v>105</v>
       </c>
-      <c r="F49" s="52">
+      <c r="F49" s="64">
         <v>48</v>
       </c>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>43902</v>
       </c>
-      <c r="B50" s="52">
+      <c r="B50" s="64">
         <v>2876</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="52">
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="64">
         <v>129</v>
       </c>
-      <c r="F50" s="52">
+      <c r="F50" s="64">
         <v>61</v>
       </c>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>43903</v>
       </c>
-      <c r="B51" s="52">
+      <c r="B51" s="64">
         <v>3661</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="52">
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="64">
         <v>154</v>
       </c>
-      <c r="F51" s="52">
+      <c r="F51" s="64">
         <v>79</v>
       </c>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>43904</v>
       </c>
-      <c r="B52" s="52">
+      <c r="B52" s="64">
         <v>4500</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="52">
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="64">
         <v>300</v>
       </c>
-      <c r="F52" s="52">
+      <c r="F52" s="64">
         <v>91</v>
       </c>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>43905</v>
       </c>
-      <c r="B53" s="52">
+      <c r="B53" s="64">
         <v>6378</v>
       </c>
-      <c r="C53" s="52">
+      <c r="C53" s="64">
         <v>285</v>
       </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="52">
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="64">
         <v>161</v>
       </c>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>43906</v>
       </c>
-      <c r="B54" s="52">
+      <c r="B54" s="64">
         <v>6633</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="52">
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="64">
         <v>148</v>
       </c>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>43907</v>
       </c>
-      <c r="B55" s="52">
+      <c r="B55" s="64">
         <v>7730</v>
       </c>
-      <c r="C55" s="52">
+      <c r="C55" s="64">
         <v>2579</v>
       </c>
-      <c r="D55" s="52">
+      <c r="D55" s="64">
         <v>602</v>
       </c>
-      <c r="E55" s="52">
+      <c r="E55" s="64">
         <v>699</v>
       </c>
-      <c r="F55" s="52">
+      <c r="F55" s="64">
         <v>175</v>
       </c>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>43908</v>
       </c>
-      <c r="B56" s="52">
+      <c r="B56" s="64">
         <v>9134</v>
       </c>
-      <c r="C56" s="52">
+      <c r="C56" s="64">
         <v>3626</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="64">
         <v>1000</v>
       </c>
-      <c r="E56" s="52">
+      <c r="E56" s="64">
         <v>931</v>
       </c>
-      <c r="F56" s="52">
+      <c r="F56" s="64">
         <v>264</v>
       </c>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>43909</v>
       </c>
-      <c r="B57" s="52">
+      <c r="B57" s="64">
         <v>10995</v>
       </c>
-      <c r="C57" s="52">
+      <c r="C57" s="64">
         <v>4461</v>
       </c>
-      <c r="D57" s="52">
+      <c r="D57" s="64">
         <v>1300</v>
       </c>
-      <c r="E57" s="52">
+      <c r="E57" s="64">
         <v>1122</v>
       </c>
-      <c r="F57" s="52">
+      <c r="F57" s="64">
         <v>372</v>
       </c>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>43910</v>
       </c>
-      <c r="B58" s="52">
+      <c r="B58" s="64">
         <v>12612</v>
       </c>
-      <c r="C58" s="52">
+      <c r="C58" s="64">
         <v>5226</v>
       </c>
-      <c r="D58" s="52">
+      <c r="D58" s="64">
         <v>1587</v>
       </c>
-      <c r="E58" s="52">
+      <c r="E58" s="64">
         <v>1297</v>
       </c>
-      <c r="F58" s="52">
+      <c r="F58" s="64">
         <v>450</v>
       </c>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>43911</v>
       </c>
-      <c r="B59" s="52">
+      <c r="B59" s="64">
         <v>14459</v>
       </c>
-      <c r="C59" s="52">
+      <c r="C59" s="64">
         <v>6172</v>
       </c>
-      <c r="D59" s="52">
+      <c r="D59" s="64">
         <v>1811</v>
       </c>
-      <c r="E59" s="52">
+      <c r="E59" s="64">
         <v>1525</v>
       </c>
-      <c r="F59" s="52">
+      <c r="F59" s="64">
         <v>562</v>
       </c>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>43912</v>
       </c>
-      <c r="B60" s="52">
+      <c r="B60" s="64">
         <v>16689</v>
       </c>
-      <c r="C60" s="52">
+      <c r="C60" s="64">
         <v>7240</v>
       </c>
-      <c r="D60" s="52">
+      <c r="D60" s="64">
         <v>2200</v>
       </c>
-      <c r="E60" s="52">
+      <c r="E60" s="64">
         <v>1746</v>
       </c>
-      <c r="F60" s="52">
+      <c r="F60" s="64">
         <v>674</v>
       </c>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>43913</v>
       </c>
-      <c r="B61" s="53">
+      <c r="B61" s="68">
         <v>19856</v>
       </c>
-      <c r="C61" s="52">
+      <c r="C61" s="64">
         <v>8675</v>
       </c>
-      <c r="D61" s="52">
+      <c r="D61" s="64">
         <v>2567</v>
       </c>
-      <c r="E61" s="52">
+      <c r="E61" s="64">
         <v>2082</v>
       </c>
-      <c r="F61" s="52">
+      <c r="F61" s="64">
         <v>860</v>
       </c>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>43914</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="64">
         <v>22302</v>
       </c>
-      <c r="C62" s="52">
+      <c r="C62" s="64">
         <v>10176</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="64">
         <v>3281</v>
       </c>
-      <c r="E62" s="54">
+      <c r="E62" s="69">
         <v>2516</v>
       </c>
-      <c r="F62" s="52">
+      <c r="F62" s="64">
         <v>1100</v>
       </c>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>43915</v>
       </c>
-      <c r="B63" s="52">
+      <c r="B63" s="64">
         <v>25233</v>
       </c>
-      <c r="C63" s="52">
+      <c r="C63" s="64">
         <v>11539</v>
       </c>
-      <c r="D63" s="52">
+      <c r="D63" s="64">
         <v>3900</v>
       </c>
-      <c r="E63" s="52">
+      <c r="E63" s="64">
         <v>2827</v>
       </c>
-      <c r="F63" s="52">
+      <c r="F63" s="64">
         <v>1331</v>
       </c>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>43916</v>
       </c>
-      <c r="B64" s="55">
+      <c r="B64" s="70">
         <v>29155</v>
       </c>
-      <c r="C64" s="55">
+      <c r="C64" s="70">
         <v>13904</v>
       </c>
-      <c r="D64" s="56">
+      <c r="D64" s="67">
         <v>4948</v>
       </c>
-      <c r="E64" s="55">
+      <c r="E64" s="70">
         <v>3375</v>
       </c>
-      <c r="F64" s="55">
+      <c r="F64" s="70">
         <v>1696</v>
       </c>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>43917</v>
       </c>
-      <c r="B65" s="52">
+      <c r="B65" s="64">
         <v>32964</v>
       </c>
-      <c r="C65" s="52">
+      <c r="C65" s="64">
         <v>15732</v>
       </c>
-      <c r="D65" s="52">
+      <c r="D65" s="64">
         <v>5698</v>
       </c>
-      <c r="E65" s="52">
+      <c r="E65" s="64">
         <v>3787</v>
       </c>
-      <c r="F65" s="52">
+      <c r="F65" s="64">
         <v>1995</v>
       </c>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>43918</v>
       </c>
-      <c r="B66" s="52">
+      <c r="B66" s="64">
         <v>37575</v>
       </c>
-      <c r="C66" s="52">
+      <c r="C66" s="64">
         <v>17620</v>
       </c>
-      <c r="D66" s="52">
+      <c r="D66" s="64">
         <v>6624</v>
       </c>
-      <c r="E66" s="52">
+      <c r="E66" s="64">
         <v>4273</v>
       </c>
-      <c r="F66" s="52">
+      <c r="F66" s="64">
         <v>2314</v>
       </c>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>43919</v>
       </c>
-      <c r="B67" s="52">
+      <c r="B67" s="64">
         <v>40174</v>
       </c>
-      <c r="C67" s="52">
+      <c r="C67" s="64">
         <v>19354</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="64">
         <v>7131</v>
       </c>
-      <c r="E67" s="52">
+      <c r="E67" s="64">
         <v>4632</v>
       </c>
-      <c r="F67" s="52">
+      <c r="F67" s="64">
         <v>2606</v>
       </c>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>43920</v>
       </c>
-      <c r="B68" s="52">
+      <c r="B68" s="64">
         <v>44550</v>
       </c>
-      <c r="C68" s="52">
+      <c r="C68" s="64">
         <v>21008</v>
       </c>
-      <c r="D68" s="52">
+      <c r="D68" s="64">
         <v>7924</v>
       </c>
-      <c r="E68" s="52">
+      <c r="E68" s="64">
         <v>5107</v>
       </c>
-      <c r="F68" s="52">
+      <c r="F68" s="64">
         <v>3024</v>
       </c>
-      <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="57"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>43921</v>
       </c>
-      <c r="B69" s="52">
+      <c r="B69" s="64">
         <v>52128</v>
       </c>
-      <c r="C69" s="52">
+      <c r="C69" s="64">
         <v>22757</v>
       </c>
-      <c r="D69" s="52">
+      <c r="D69" s="64">
         <v>9444</v>
       </c>
-      <c r="E69" s="52">
+      <c r="E69" s="64">
         <v>5565</v>
       </c>
-      <c r="F69" s="52">
+      <c r="F69" s="64">
         <v>3523</v>
       </c>
-      <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>43922</v>
       </c>
-      <c r="B70" s="52">
+      <c r="B70" s="64">
         <v>56989</v>
       </c>
-      <c r="C70" s="52">
+      <c r="C70" s="64">
         <v>24639</v>
       </c>
-      <c r="D70" s="52">
+      <c r="D70" s="64">
         <v>10935</v>
       </c>
-      <c r="E70" s="52">
+      <c r="E70" s="64">
         <v>6017</v>
       </c>
-      <c r="F70" s="52">
+      <c r="F70" s="64">
         <v>4032</v>
       </c>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="52">
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="64">
         <v>371</v>
       </c>
     </row>
@@ -2634,24 +2654,24 @@
       <c r="A71" s="12">
         <v>43923</v>
       </c>
-      <c r="B71" s="52">
+      <c r="B71" s="64">
         <v>59105</v>
       </c>
-      <c r="C71" s="52">
+      <c r="C71" s="64">
         <v>26246</v>
       </c>
-      <c r="D71" s="52">
+      <c r="D71" s="64">
         <v>12428</v>
       </c>
-      <c r="E71" s="52">
+      <c r="E71" s="64">
         <v>6399</v>
       </c>
-      <c r="F71" s="52">
+      <c r="F71" s="64">
         <v>4503</v>
       </c>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="52">
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="64">
         <v>884</v>
       </c>
     </row>
@@ -2659,24 +2679,24 @@
       <c r="A72" s="12">
         <v>43924</v>
       </c>
-      <c r="B72" s="52">
+      <c r="B72" s="64">
         <v>64338</v>
       </c>
-      <c r="C72" s="52">
+      <c r="C72" s="64">
         <v>27432</v>
       </c>
-      <c r="D72" s="52">
+      <c r="D72" s="64">
         <v>14008</v>
       </c>
-      <c r="E72" s="52">
+      <c r="E72" s="64">
         <v>6662</v>
       </c>
-      <c r="F72" s="52">
+      <c r="F72" s="64">
         <v>5091</v>
       </c>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="52">
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="64">
         <v>1416</v>
       </c>
     </row>
@@ -2684,24 +2704,24 @@
       <c r="A73" s="12">
         <v>43925</v>
       </c>
-      <c r="B73" s="52">
+      <c r="B73" s="64">
         <v>68605</v>
       </c>
-      <c r="C73" s="52">
+      <c r="C73" s="64">
         <v>28143</v>
       </c>
-      <c r="D73" s="52">
+      <c r="D73" s="64">
         <v>15438</v>
       </c>
-      <c r="E73" s="52">
+      <c r="E73" s="64">
         <v>6838</v>
       </c>
-      <c r="F73" s="52">
+      <c r="F73" s="64">
         <v>5532</v>
       </c>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="52">
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="64">
         <v>2028</v>
       </c>
     </row>
@@ -2709,24 +2729,24 @@
       <c r="A74" s="12">
         <v>43926</v>
       </c>
-      <c r="B74" s="52">
+      <c r="B74" s="64">
         <v>70478</v>
       </c>
-      <c r="C74" s="52">
+      <c r="C74" s="64">
         <v>28891</v>
       </c>
-      <c r="D74" s="52">
+      <c r="D74" s="64">
         <v>16183</v>
       </c>
-      <c r="E74" s="52">
+      <c r="E74" s="64">
         <v>6978</v>
       </c>
-      <c r="F74" s="52">
+      <c r="F74" s="64">
         <v>5889</v>
       </c>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="52">
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="64">
         <v>2189</v>
       </c>
     </row>
@@ -2734,24 +2754,24 @@
       <c r="A75" s="12">
         <v>43927</v>
       </c>
-      <c r="B75" s="52">
+      <c r="B75" s="64">
         <v>74390</v>
       </c>
-      <c r="C75" s="52">
+      <c r="C75" s="64">
         <v>29722</v>
       </c>
-      <c r="D75" s="52">
+      <c r="D75" s="64">
         <v>17250</v>
       </c>
-      <c r="E75" s="52">
+      <c r="E75" s="64">
         <v>7072</v>
       </c>
-      <c r="F75" s="52">
+      <c r="F75" s="64">
         <v>6494</v>
       </c>
-      <c r="G75" s="57"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="52">
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="64">
         <v>2417</v>
       </c>
     </row>
@@ -2759,24 +2779,24 @@
       <c r="A76" s="12">
         <v>43928</v>
       </c>
-      <c r="B76" s="52">
+      <c r="B76" s="64">
         <v>78167</v>
       </c>
-      <c r="C76" s="52">
+      <c r="C76" s="64">
         <v>30027</v>
       </c>
-      <c r="D76" s="52">
+      <c r="D76" s="64">
         <v>19337</v>
       </c>
-      <c r="E76" s="52">
+      <c r="E76" s="64">
         <v>7131</v>
       </c>
-      <c r="F76" s="52">
+      <c r="F76" s="64">
         <v>7091</v>
       </c>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="52">
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="64">
         <v>3237</v>
       </c>
     </row>
@@ -2784,24 +2804,24 @@
       <c r="A77" s="12">
         <v>43929</v>
       </c>
-      <c r="B77" s="52">
+      <c r="B77" s="64">
         <v>82048</v>
       </c>
-      <c r="C77" s="52">
+      <c r="C77" s="64">
         <v>30375</v>
       </c>
-      <c r="D77" s="52">
+      <c r="D77" s="64">
         <v>21254</v>
       </c>
-      <c r="E77" s="52">
+      <c r="E77" s="64">
         <v>7148</v>
       </c>
-      <c r="F77" s="52">
+      <c r="F77" s="64">
         <v>7632</v>
       </c>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="52">
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="64">
         <v>3237</v>
       </c>
     </row>
@@ -2809,24 +2829,24 @@
       <c r="A78" s="12">
         <v>43930</v>
       </c>
-      <c r="B78" s="52">
+      <c r="B78" s="64">
         <v>86334</v>
       </c>
-      <c r="C78" s="52">
+      <c r="C78" s="64">
         <v>30767</v>
       </c>
-      <c r="D78" s="52">
+      <c r="D78" s="64">
         <v>23206</v>
       </c>
-      <c r="E78" s="52">
+      <c r="E78" s="64">
         <v>7066</v>
       </c>
-      <c r="F78" s="52">
+      <c r="F78" s="64">
         <v>8044</v>
       </c>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="52">
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="64">
         <v>4166</v>
       </c>
     </row>
@@ -2834,24 +2854,24 @@
       <c r="A79" s="12">
         <v>43931</v>
       </c>
-      <c r="B79" s="52">
+      <c r="B79" s="64">
         <v>90676</v>
       </c>
-      <c r="C79" s="52">
+      <c r="C79" s="64">
         <v>31267</v>
       </c>
-      <c r="D79" s="52">
+      <c r="D79" s="64">
         <v>24932</v>
       </c>
-      <c r="E79" s="52">
+      <c r="E79" s="64">
         <v>7004</v>
       </c>
-      <c r="F79" s="52">
+      <c r="F79" s="64">
         <v>8598</v>
       </c>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="52">
+      <c r="G79" s="65"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="64">
         <v>4599</v>
       </c>
     </row>
@@ -2859,24 +2879,24 @@
       <c r="A80" s="12">
         <v>43932</v>
       </c>
-      <c r="B80" s="52">
+      <c r="B80" s="64">
         <v>93790</v>
       </c>
-      <c r="C80" s="52">
+      <c r="C80" s="64">
         <v>31320</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D80" s="64">
         <v>26931</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E80" s="64">
         <v>6883</v>
       </c>
-      <c r="F80" s="52">
+      <c r="F80" s="64">
         <v>8943</v>
       </c>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="52">
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="64">
         <v>4889</v>
       </c>
     </row>
@@ -2884,28 +2904,28 @@
       <c r="A81" s="12">
         <v>43933</v>
       </c>
-      <c r="B81" s="52">
+      <c r="B81" s="64">
         <v>95403</v>
       </c>
-      <c r="C81" s="52">
+      <c r="C81" s="64">
         <v>31826</v>
       </c>
-      <c r="D81" s="52">
+      <c r="D81" s="64">
         <v>27186</v>
       </c>
-      <c r="E81" s="52">
+      <c r="E81" s="64">
         <v>6845</v>
       </c>
-      <c r="F81" s="52">
+      <c r="F81" s="64">
         <v>9253</v>
       </c>
-      <c r="G81" s="52">
+      <c r="G81" s="64">
         <v>37188</v>
       </c>
-      <c r="H81" s="52">
+      <c r="H81" s="64">
         <v>11958</v>
       </c>
-      <c r="I81" s="52">
+      <c r="I81" s="64">
         <v>5140</v>
       </c>
     </row>
@@ -2913,28 +2933,28 @@
       <c r="A82" s="12">
         <v>43934</v>
       </c>
-      <c r="B82" s="52">
+      <c r="B82" s="64">
         <v>98076</v>
       </c>
-      <c r="C82" s="52">
+      <c r="C82" s="64">
         <v>32113</v>
       </c>
-      <c r="D82" s="52">
+      <c r="D82" s="64">
         <v>27718</v>
       </c>
-      <c r="E82" s="52">
+      <c r="E82" s="64">
         <v>6821</v>
       </c>
-      <c r="F82" s="52">
+      <c r="F82" s="64">
         <v>9588</v>
       </c>
-      <c r="G82" s="52">
+      <c r="G82" s="64">
         <v>38703</v>
       </c>
-      <c r="H82" s="52">
+      <c r="H82" s="64">
         <v>12481</v>
       </c>
-      <c r="I82" s="52">
+      <c r="I82" s="64">
         <v>5379</v>
       </c>
     </row>
@@ -2942,28 +2962,28 @@
       <c r="A83" s="12">
         <v>43935</v>
       </c>
-      <c r="B83" s="52">
+      <c r="B83" s="64">
         <v>103573</v>
       </c>
-      <c r="C83" s="52">
+      <c r="C83" s="64">
         <v>32292</v>
       </c>
-      <c r="D83" s="52">
+      <c r="D83" s="64">
         <v>28805</v>
       </c>
-      <c r="E83" s="52">
+      <c r="E83" s="64">
         <v>6730</v>
       </c>
-      <c r="F83" s="52">
+      <c r="F83" s="64">
         <v>10129</v>
       </c>
-      <c r="G83" s="52">
+      <c r="G83" s="64">
         <v>39730</v>
       </c>
-      <c r="H83" s="52">
+      <c r="H83" s="64">
         <v>13050</v>
       </c>
-      <c r="I83" s="52">
+      <c r="I83" s="64">
         <v>5600</v>
       </c>
     </row>
@@ -2971,28 +2991,28 @@
       <c r="A84" s="12">
         <v>43936</v>
       </c>
-      <c r="B84" s="52">
+      <c r="B84" s="64">
         <v>106206</v>
       </c>
-      <c r="C84" s="52">
+      <c r="C84" s="64">
         <v>31779</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="64">
         <v>30995</v>
       </c>
-      <c r="E84" s="52">
+      <c r="E84" s="64">
         <v>6457</v>
       </c>
-      <c r="F84" s="52">
+      <c r="F84" s="64">
         <v>10643</v>
       </c>
-      <c r="G84" s="52">
+      <c r="G84" s="64">
         <v>41657</v>
       </c>
-      <c r="H84" s="52">
+      <c r="H84" s="64">
         <v>14393</v>
       </c>
-      <c r="I84" s="52">
+      <c r="I84" s="64">
         <v>6524</v>
       </c>
     </row>
@@ -3000,28 +3020,28 @@
       <c r="A85" s="12">
         <v>43937</v>
       </c>
-      <c r="B85" s="52">
+      <c r="B85" s="64">
         <v>108847</v>
       </c>
-      <c r="C85" s="52">
+      <c r="C85" s="64">
         <v>31305</v>
       </c>
-      <c r="D85" s="52">
+      <c r="D85" s="64">
         <v>32812</v>
       </c>
-      <c r="E85" s="52">
+      <c r="E85" s="64">
         <v>6248</v>
       </c>
-      <c r="F85" s="52">
+      <c r="F85" s="64">
         <v>11060</v>
       </c>
-      <c r="G85" s="52">
+      <c r="G85" s="64">
         <v>56180</v>
       </c>
-      <c r="H85" s="52">
+      <c r="H85" s="64">
         <v>18967</v>
       </c>
-      <c r="I85" s="52">
+      <c r="I85" s="64">
         <v>6860</v>
       </c>
     </row>
@@ -3029,28 +3049,28 @@
       <c r="A86" s="12">
         <v>43938</v>
       </c>
-      <c r="B86" s="52">
+      <c r="B86" s="64">
         <v>109252</v>
       </c>
-      <c r="C86" s="52">
+      <c r="C86" s="64">
         <v>31190</v>
       </c>
-      <c r="D86" s="52">
+      <c r="D86" s="64">
         <v>34420</v>
       </c>
-      <c r="E86" s="52">
+      <c r="E86" s="64">
         <v>6027</v>
       </c>
-      <c r="F86" s="52">
+      <c r="F86" s="64">
         <v>11478</v>
       </c>
-      <c r="G86" s="52">
+      <c r="G86" s="64">
         <v>58989</v>
       </c>
-      <c r="H86" s="52">
+      <c r="H86" s="64">
         <v>20272</v>
       </c>
-      <c r="I86" s="52">
+      <c r="I86" s="64">
         <v>7203</v>
       </c>
     </row>
@@ -3058,28 +3078,28 @@
       <c r="A87" s="12">
         <v>43939</v>
       </c>
-      <c r="B87" s="52">
+      <c r="B87" s="64">
         <v>111821</v>
       </c>
-      <c r="C87" s="52">
+      <c r="C87" s="64">
         <v>30639</v>
       </c>
-      <c r="D87" s="52">
+      <c r="D87" s="64">
         <v>35983</v>
       </c>
-      <c r="E87" s="52">
+      <c r="E87" s="64">
         <v>5833</v>
       </c>
-      <c r="F87" s="52">
+      <c r="F87" s="64">
         <v>11842</v>
       </c>
-      <c r="G87" s="52">
+      <c r="G87" s="64">
         <v>62135</v>
       </c>
-      <c r="H87" s="52">
+      <c r="H87" s="64">
         <v>22163</v>
       </c>
-      <c r="I87" s="52">
+      <c r="I87" s="64">
         <v>7481</v>
       </c>
     </row>
@@ -3087,28 +3107,28 @@
       <c r="A88" s="12">
         <v>43940</v>
       </c>
-      <c r="B88" s="52">
+      <c r="B88" s="64">
         <v>112606</v>
       </c>
-      <c r="C88" s="52">
+      <c r="C88" s="64">
         <v>30610</v>
       </c>
-      <c r="D88" s="52">
+      <c r="D88" s="64">
         <v>36578</v>
       </c>
-      <c r="E88" s="52">
+      <c r="E88" s="64">
         <v>5744</v>
       </c>
-      <c r="F88" s="52">
+      <c r="F88" s="64">
         <v>12069</v>
       </c>
-      <c r="G88" s="52">
+      <c r="G88" s="64">
         <v>63336</v>
       </c>
-      <c r="H88" s="52">
+      <c r="H88" s="64">
         <v>23048</v>
       </c>
-      <c r="I88" s="52">
+      <c r="I88" s="64">
         <v>7649</v>
       </c>
     </row>
@@ -3116,28 +3136,28 @@
       <c r="A89" s="12">
         <v>43941</v>
       </c>
-      <c r="B89" s="52">
+      <c r="B89" s="64">
         <v>114657</v>
       </c>
-      <c r="C89" s="52">
+      <c r="C89" s="64">
         <v>30584</v>
       </c>
-      <c r="D89" s="52">
+      <c r="D89" s="64">
         <v>37409</v>
       </c>
-      <c r="E89" s="52">
+      <c r="E89" s="64">
         <v>5683</v>
       </c>
-      <c r="F89" s="52">
+      <c r="F89" s="64">
         <v>12513</v>
       </c>
-      <c r="G89" s="52">
+      <c r="G89" s="64">
         <v>64117</v>
       </c>
-      <c r="H89" s="52">
+      <c r="H89" s="64">
         <v>23668</v>
       </c>
-      <c r="I89" s="52">
+      <c r="I89" s="64">
         <v>7752</v>
       </c>
     </row>
@@ -3145,24 +3165,24 @@
       <c r="A90" s="12">
         <v>43942</v>
       </c>
-      <c r="B90" s="52">
+      <c r="B90" s="64">
         <v>117324</v>
       </c>
-      <c r="C90" s="52">
+      <c r="C90" s="64">
         <v>30106</v>
       </c>
-      <c r="D90" s="52">
+      <c r="D90" s="64">
         <v>39181</v>
       </c>
-      <c r="E90" s="52">
+      <c r="E90" s="64">
         <v>5433</v>
       </c>
-      <c r="F90" s="52">
+      <c r="F90" s="64">
         <v>12900</v>
       </c>
-      <c r="G90" s="64"/>
-      <c r="H90" s="57"/>
-      <c r="I90" s="52">
+      <c r="G90" s="72"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="64">
         <v>7896</v>
       </c>
     </row>
@@ -3170,26 +3190,26 @@
       <c r="A91" s="12">
         <v>43943</v>
       </c>
-      <c r="B91" s="52">
+      <c r="B91" s="64">
         <v>119151</v>
       </c>
-      <c r="C91" s="52">
+      <c r="C91" s="64">
         <v>29741</v>
       </c>
-      <c r="D91" s="52">
+      <c r="D91" s="64">
         <v>40657</v>
       </c>
-      <c r="E91" s="52">
+      <c r="E91" s="64">
         <v>5218</v>
       </c>
-      <c r="F91" s="52">
+      <c r="F91" s="64">
         <v>13236</v>
       </c>
-      <c r="G91" s="57"/>
-      <c r="H91" s="52">
+      <c r="G91" s="65"/>
+      <c r="H91" s="64">
         <v>25513</v>
       </c>
-      <c r="I91" s="52">
+      <c r="I91" s="64">
         <v>8104</v>
       </c>
     </row>
@@ -3197,28 +3217,28 @@
       <c r="A92" s="12">
         <v>43944</v>
       </c>
-      <c r="B92" s="52">
+      <c r="B92" s="64">
         <v>120804</v>
       </c>
-      <c r="C92" s="52">
+      <c r="C92" s="64">
         <v>29219</v>
       </c>
-      <c r="D92" s="52">
+      <c r="D92" s="64">
         <v>42088</v>
       </c>
-      <c r="E92" s="52">
+      <c r="E92" s="64">
         <v>5053</v>
       </c>
-      <c r="F92" s="52">
+      <c r="F92" s="64">
         <v>13547</v>
       </c>
-      <c r="G92" s="52">
+      <c r="G92" s="64">
         <v>64219</v>
       </c>
-      <c r="H92" s="52">
+      <c r="H92" s="64">
         <v>26840</v>
       </c>
-      <c r="I92" s="52">
+      <c r="I92" s="64">
         <v>8309</v>
       </c>
     </row>
@@ -3226,28 +3246,28 @@
       <c r="A93" s="12">
         <v>43945</v>
       </c>
-      <c r="B93" s="52">
+      <c r="B93" s="64">
         <v>122577</v>
       </c>
-      <c r="C93" s="52">
+      <c r="C93" s="64">
         <v>28658</v>
       </c>
-      <c r="D93" s="52">
+      <c r="D93" s="64">
         <v>43493</v>
       </c>
-      <c r="E93" s="52">
+      <c r="E93" s="64">
         <v>4870</v>
       </c>
-      <c r="F93" s="52">
+      <c r="F93" s="64">
         <v>13852</v>
       </c>
-      <c r="G93" s="52">
+      <c r="G93" s="64">
         <v>65131</v>
       </c>
-      <c r="H93" s="52">
+      <c r="H93" s="64">
         <v>27880</v>
       </c>
-      <c r="I93" s="52">
+      <c r="I93" s="64">
         <v>8393</v>
       </c>
     </row>
@@ -3255,28 +3275,28 @@
       <c r="A94" s="12">
         <v>43946</v>
       </c>
-      <c r="B94" s="52">
+      <c r="B94" s="64">
         <v>124114</v>
       </c>
-      <c r="C94" s="52">
+      <c r="C94" s="64">
         <v>28222</v>
       </c>
-      <c r="D94" s="52">
+      <c r="D94" s="64">
         <v>44594</v>
       </c>
-      <c r="E94" s="52">
+      <c r="E94" s="64">
         <v>4725</v>
       </c>
-      <c r="F94" s="52">
+      <c r="F94" s="64">
         <v>14050</v>
       </c>
-      <c r="G94" s="52">
+      <c r="G94" s="64">
         <v>66500</v>
       </c>
-      <c r="H94" s="52">
+      <c r="H94" s="64">
         <v>29126</v>
       </c>
-      <c r="I94" s="52">
+      <c r="I94" s="64">
         <v>8564</v>
       </c>
     </row>
@@ -3284,28 +3304,28 @@
       <c r="A95" s="12">
         <v>43947</v>
       </c>
-      <c r="B95" s="52">
+      <c r="B95" s="64">
         <v>124575</v>
       </c>
-      <c r="C95" s="52">
+      <c r="C95" s="64">
         <v>28217</v>
       </c>
-      <c r="D95" s="52">
+      <c r="D95" s="64">
         <v>44903</v>
       </c>
-      <c r="E95" s="52">
+      <c r="E95" s="64">
         <v>4682</v>
       </c>
-      <c r="F95" s="52">
+      <c r="F95" s="64">
         <v>14202</v>
       </c>
-      <c r="G95" s="52">
+      <c r="G95" s="64">
         <v>67168</v>
       </c>
-      <c r="H95" s="52">
+      <c r="H95" s="64">
         <v>29643</v>
       </c>
-      <c r="I95" s="52">
+      <c r="I95" s="64">
         <v>8654</v>
       </c>
     </row>
@@ -3313,28 +3333,28 @@
       <c r="A96" s="12">
         <v>43948</v>
       </c>
-      <c r="B96" s="52">
+      <c r="B96" s="64">
         <v>128339</v>
       </c>
-      <c r="C96" s="52">
+      <c r="C96" s="64">
         <v>28055</v>
       </c>
-      <c r="D96" s="52">
+      <c r="D96" s="64">
         <v>45513</v>
       </c>
-      <c r="E96" s="52">
+      <c r="E96" s="64">
         <v>4608</v>
       </c>
-      <c r="F96" s="52">
+      <c r="F96" s="64">
         <v>14497</v>
       </c>
-      <c r="G96" s="52">
+      <c r="G96" s="64">
         <v>67730</v>
       </c>
-      <c r="H96" s="52">
+      <c r="H96" s="64">
         <v>30227</v>
       </c>
-      <c r="I96" s="52">
+      <c r="I96" s="64">
         <v>8796</v>
       </c>
     </row>
@@ -3342,28 +3362,28 @@
       <c r="A97" s="12">
         <v>43949</v>
       </c>
-      <c r="B97" s="52">
+      <c r="B97" s="64">
         <v>129859</v>
       </c>
-      <c r="C97" s="52">
+      <c r="C97" s="64">
         <v>27484</v>
       </c>
-      <c r="D97" s="52">
+      <c r="D97" s="64">
         <v>46886</v>
       </c>
-      <c r="E97" s="52">
+      <c r="E97" s="64">
         <v>4387</v>
       </c>
-      <c r="F97" s="52">
+      <c r="F97" s="64">
         <v>14810</v>
       </c>
-      <c r="G97" s="52">
+      <c r="G97" s="64">
         <v>69893</v>
       </c>
-      <c r="H97" s="52">
+      <c r="H97" s="64">
         <v>30817</v>
       </c>
-      <c r="I97" s="52">
+      <c r="I97" s="64">
         <v>8850</v>
       </c>
     </row>
@@ -3371,28 +3391,28 @@
       <c r="A98" s="12">
         <v>43950</v>
       </c>
-      <c r="B98" s="52">
+      <c r="B98" s="64">
         <v>128442</v>
       </c>
-      <c r="C98" s="52">
+      <c r="C98" s="64">
         <v>26834</v>
       </c>
-      <c r="D98" s="52">
+      <c r="D98" s="64">
         <v>48228</v>
       </c>
-      <c r="E98" s="52">
+      <c r="E98" s="64">
         <v>4207</v>
       </c>
-      <c r="F98" s="52">
+      <c r="F98" s="64">
         <v>15053</v>
       </c>
-      <c r="G98" s="52">
+      <c r="G98" s="64">
         <v>69773</v>
       </c>
-      <c r="H98" s="52">
+      <c r="H98" s="64">
         <v>31795</v>
       </c>
-      <c r="I98" s="52">
+      <c r="I98" s="64">
         <v>9034</v>
       </c>
     </row>
@@ -3400,28 +3420,28 @@
       <c r="A99" s="12">
         <v>43951</v>
       </c>
-      <c r="B99" s="52">
+      <c r="B99" s="64">
         <v>129581</v>
       </c>
-      <c r="C99" s="52">
+      <c r="C99" s="64">
         <v>26283</v>
       </c>
-      <c r="D99" s="52">
+      <c r="D99" s="64">
         <v>49476</v>
       </c>
-      <c r="E99" s="52">
+      <c r="E99" s="64">
         <v>4019</v>
       </c>
-      <c r="F99" s="52">
+      <c r="F99" s="64">
         <v>15244</v>
       </c>
-      <c r="G99" s="52">
+      <c r="G99" s="64">
         <v>69952</v>
       </c>
-      <c r="H99" s="52">
+      <c r="H99" s="64">
         <v>32355</v>
       </c>
-      <c r="I99" s="52">
+      <c r="I99" s="64">
         <v>9132</v>
       </c>
     </row>
@@ -3429,28 +3449,28 @@
       <c r="A100" s="12">
         <v>43952</v>
       </c>
-      <c r="B100" s="52">
+      <c r="B100" s="64">
         <v>130185</v>
       </c>
-      <c r="C100" s="52">
+      <c r="C100" s="64">
         <v>25887</v>
       </c>
-      <c r="D100" s="52">
+      <c r="D100" s="64">
         <v>50212</v>
       </c>
-      <c r="E100" s="52">
+      <c r="E100" s="64">
         <v>3878</v>
       </c>
-      <c r="F100" s="52">
+      <c r="F100" s="64">
         <v>15369</v>
       </c>
-      <c r="G100" s="52">
+      <c r="G100" s="64">
         <v>69952</v>
       </c>
-      <c r="H100" s="52">
+      <c r="H100" s="64">
         <v>32791</v>
       </c>
-      <c r="I100" s="52">
+      <c r="I100" s="64">
         <v>9225</v>
       </c>
     </row>
@@ -3458,28 +3478,28 @@
       <c r="A101" s="12">
         <v>43953</v>
       </c>
-      <c r="B101" s="52">
+      <c r="B101" s="64">
         <v>130979</v>
       </c>
-      <c r="C101" s="52">
+      <c r="C101" s="64">
         <v>25827</v>
       </c>
-      <c r="D101" s="52">
+      <c r="D101" s="64">
         <v>50562</v>
       </c>
-      <c r="E101" s="52">
+      <c r="E101" s="64">
         <v>3827</v>
       </c>
-      <c r="F101" s="52">
+      <c r="F101" s="64">
         <v>15487</v>
       </c>
-      <c r="G101" s="52">
+      <c r="G101" s="64">
         <v>70688</v>
       </c>
-      <c r="H101" s="52">
+      <c r="H101" s="64">
         <v>33271</v>
       </c>
-      <c r="I101" s="52">
+      <c r="I101" s="64">
         <v>9273</v>
       </c>
     </row>
@@ -3487,28 +3507,28 @@
       <c r="A102" s="12">
         <v>43954</v>
       </c>
-      <c r="B102" s="52">
+      <c r="B102" s="64">
         <v>131287</v>
       </c>
-      <c r="C102" s="52">
+      <c r="C102" s="64">
         <v>25815</v>
       </c>
-      <c r="D102" s="52">
+      <c r="D102" s="64">
         <v>50784</v>
       </c>
-      <c r="E102" s="52">
+      <c r="E102" s="64">
         <v>3819</v>
       </c>
-      <c r="F102" s="52">
+      <c r="F102" s="64">
         <v>15583</v>
       </c>
-      <c r="G102" s="52">
+      <c r="G102" s="64">
         <v>70767</v>
       </c>
-      <c r="H102" s="52">
+      <c r="H102" s="64">
         <v>33361</v>
       </c>
-      <c r="I102" s="52">
+      <c r="I102" s="64">
         <v>9312</v>
       </c>
     </row>
@@ -3516,28 +3536,28 @@
       <c r="A103" s="12">
         <v>43955</v>
       </c>
-      <c r="B103" s="52">
+      <c r="B103" s="64">
         <v>131863</v>
       </c>
-      <c r="C103" s="52">
+      <c r="C103" s="64">
         <v>25548</v>
       </c>
-      <c r="D103" s="52">
+      <c r="D103" s="64">
         <v>51371</v>
       </c>
-      <c r="E103" s="52">
+      <c r="E103" s="64">
         <v>3696</v>
       </c>
-      <c r="F103" s="52">
+      <c r="F103" s="64">
         <v>15826</v>
       </c>
-      <c r="G103" s="52">
+      <c r="G103" s="64">
         <v>71390</v>
       </c>
-      <c r="H103" s="52">
+      <c r="H103" s="64">
         <v>33791</v>
       </c>
-      <c r="I103" s="52">
+      <c r="I103" s="64">
         <v>9375</v>
       </c>
     </row>
@@ -3545,28 +3565,28 @@
       <c r="A104" s="12">
         <v>43956</v>
       </c>
-      <c r="B104" s="52">
+      <c r="B104" s="64">
         <v>132967</v>
       </c>
-      <c r="C104" s="52">
+      <c r="C104" s="64">
         <v>24775</v>
       </c>
-      <c r="D104" s="52">
+      <c r="D104" s="64">
         <v>52736</v>
       </c>
-      <c r="E104" s="52">
+      <c r="E104" s="64">
         <v>3430</v>
       </c>
-      <c r="F104" s="52">
+      <c r="F104" s="64">
         <v>16060</v>
       </c>
-      <c r="G104" s="52">
+      <c r="G104" s="64">
         <v>71692</v>
       </c>
-      <c r="H104" s="52">
+      <c r="H104" s="64">
         <v>34108</v>
       </c>
-      <c r="I104" s="52">
+      <c r="I104" s="64">
         <v>9471</v>
       </c>
     </row>
@@ -3574,28 +3594,28 @@
       <c r="A105" s="12">
         <v>43957</v>
       </c>
-      <c r="B105" s="52">
+      <c r="B105" s="64">
         <v>137150</v>
       </c>
-      <c r="C105" s="52">
+      <c r="C105" s="64">
         <v>23983</v>
       </c>
-      <c r="D105" s="52">
+      <c r="D105" s="64">
         <v>53972</v>
       </c>
-      <c r="E105" s="52">
+      <c r="E105" s="64">
         <v>3147</v>
       </c>
-      <c r="F105" s="52">
+      <c r="F105" s="64">
         <v>16237</v>
       </c>
-      <c r="G105" s="52">
+      <c r="G105" s="64">
         <v>71548</v>
       </c>
-      <c r="H105" s="52">
+      <c r="H105" s="64">
         <v>34507</v>
       </c>
-      <c r="I105" s="52">
+      <c r="I105" s="64">
         <v>9572</v>
       </c>
     </row>
@@ -3603,28 +3623,28 @@
       <c r="A106" s="12">
         <v>43958</v>
       </c>
-      <c r="B106" s="52">
+      <c r="B106" s="64">
         <v>137779</v>
       </c>
-      <c r="C106" s="52">
+      <c r="C106" s="64">
         <v>23208</v>
       </c>
-      <c r="D106" s="52">
+      <c r="D106" s="64">
         <v>55027</v>
       </c>
-      <c r="E106" s="52">
+      <c r="E106" s="64">
         <v>2961</v>
       </c>
-      <c r="F106" s="52">
+      <c r="F106" s="64">
         <v>16386</v>
       </c>
-      <c r="G106" s="52">
+      <c r="G106" s="64">
         <v>71665</v>
       </c>
-      <c r="H106" s="52">
+      <c r="H106" s="64">
         <v>34653</v>
       </c>
-      <c r="I106" s="52">
+      <c r="I106" s="64">
         <v>9601</v>
       </c>
     </row>
@@ -3632,28 +3652,28 @@
       <c r="A107" s="12">
         <v>43959</v>
       </c>
-      <c r="B107" s="52">
+      <c r="B107" s="64">
         <v>138421</v>
       </c>
-      <c r="C107" s="52">
+      <c r="C107" s="64">
         <v>22724</v>
       </c>
-      <c r="D107" s="52">
+      <c r="D107" s="64">
         <v>55782</v>
       </c>
-      <c r="E107" s="52">
+      <c r="E107" s="64">
         <v>2868</v>
       </c>
-      <c r="F107" s="52">
+      <c r="F107" s="64">
         <v>16497</v>
       </c>
-      <c r="G107" s="52">
+      <c r="G107" s="64">
         <v>72548</v>
       </c>
-      <c r="H107" s="52">
+      <c r="H107" s="64">
         <v>34890</v>
       </c>
-      <c r="I107" s="52">
+      <c r="I107" s="64">
         <v>9733</v>
       </c>
     </row>
@@ -3661,28 +3681,28 @@
       <c r="A108" s="12">
         <v>43960</v>
       </c>
-      <c r="B108" s="52">
+      <c r="B108" s="64">
         <v>138854</v>
       </c>
-      <c r="C108" s="52">
+      <c r="C108" s="64">
         <v>22614</v>
       </c>
-      <c r="D108" s="52">
+      <c r="D108" s="64">
         <v>56038</v>
       </c>
-      <c r="E108" s="52">
+      <c r="E108" s="64">
         <v>2812</v>
       </c>
-      <c r="F108" s="52">
+      <c r="F108" s="64">
         <v>16573</v>
       </c>
-      <c r="G108" s="52">
+      <c r="G108" s="64">
         <v>72850</v>
       </c>
-      <c r="H108" s="52">
+      <c r="H108" s="64">
         <v>35046</v>
       </c>
-      <c r="I108" s="52">
+      <c r="I108" s="64">
         <v>9737</v>
       </c>
     </row>
@@ -3690,28 +3710,28 @@
       <c r="A109" s="12">
         <v>43961</v>
       </c>
-      <c r="B109" s="52">
+      <c r="B109" s="64">
         <v>139063</v>
       </c>
-      <c r="C109" s="52">
+      <c r="C109" s="64">
         <v>22569</v>
       </c>
-      <c r="D109" s="52">
+      <c r="D109" s="64">
         <v>56217</v>
       </c>
-      <c r="E109" s="52">
+      <c r="E109" s="64">
         <v>2776</v>
       </c>
-      <c r="F109" s="52">
+      <c r="F109" s="64">
         <v>16642</v>
       </c>
-      <c r="G109" s="52">
+      <c r="G109" s="64">
         <v>73143</v>
       </c>
-      <c r="H109" s="52">
+      <c r="H109" s="64">
         <v>35236</v>
       </c>
-      <c r="I109" s="52">
+      <c r="I109" s="64">
         <v>9738</v>
       </c>
     </row>
@@ -3719,28 +3739,28 @@
       <c r="A110" s="12">
         <v>43962</v>
       </c>
-      <c r="B110" s="52">
+      <c r="B110" s="64">
         <v>139519</v>
       </c>
-      <c r="C110" s="52">
+      <c r="C110" s="64">
         <v>22284</v>
       </c>
-      <c r="D110" s="52">
+      <c r="D110" s="64">
         <v>56724</v>
       </c>
-      <c r="E110" s="52">
+      <c r="E110" s="64">
         <v>2712</v>
       </c>
-      <c r="F110" s="52">
+      <c r="F110" s="64">
         <v>16820</v>
       </c>
-      <c r="G110" s="52">
+      <c r="G110" s="64">
         <v>73099</v>
       </c>
-      <c r="H110" s="52">
+      <c r="H110" s="64">
         <v>35195</v>
       </c>
-      <c r="I110" s="52">
+      <c r="I110" s="64">
         <v>9823</v>
       </c>
     </row>
@@ -3748,28 +3768,28 @@
       <c r="A111" s="12">
         <v>43963</v>
       </c>
-      <c r="B111" s="52">
+      <c r="B111" s="64">
         <v>140227</v>
       </c>
-      <c r="C111" s="52">
+      <c r="C111" s="64">
         <v>21595</v>
       </c>
-      <c r="D111" s="52">
+      <c r="D111" s="64">
         <v>57785</v>
       </c>
-      <c r="E111" s="52">
+      <c r="E111" s="64">
         <v>2542</v>
       </c>
-      <c r="F111" s="52">
+      <c r="F111" s="64">
         <v>17003</v>
       </c>
-      <c r="G111" s="52">
+      <c r="G111" s="64">
         <v>73435</v>
       </c>
-      <c r="H111" s="52">
+      <c r="H111" s="64">
         <v>35437</v>
       </c>
-      <c r="I111" s="52">
+      <c r="I111" s="64">
         <v>9988</v>
       </c>
     </row>
@@ -3777,341 +3797,345 @@
       <c r="A112" s="12">
         <v>43964</v>
       </c>
-      <c r="B112" s="52">
+      <c r="B112" s="64">
         <v>140734</v>
       </c>
-      <c r="C112" s="52">
+      <c r="C112" s="64">
         <v>21071</v>
       </c>
-      <c r="D112" s="52">
+      <c r="D112" s="64">
         <v>58673</v>
       </c>
-      <c r="E112" s="52">
+      <c r="E112" s="64">
         <v>2428</v>
       </c>
-      <c r="F112" s="52">
+      <c r="F112" s="64">
         <v>17101</v>
       </c>
-      <c r="G112" s="52">
+      <c r="G112" s="64">
         <v>72930</v>
       </c>
-      <c r="H112" s="52">
+      <c r="H112" s="64">
         <v>35604</v>
       </c>
-      <c r="I112" s="52">
+      <c r="I112" s="64">
         <v>9973</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>43965</v>
       </c>
-      <c r="B113" s="52">
+      <c r="B113" s="64">
         <v>141356</v>
       </c>
-      <c r="C113" s="52">
+      <c r="C113" s="64">
         <v>20463</v>
       </c>
-      <c r="D113" s="52">
+      <c r="D113" s="64">
         <v>59605</v>
       </c>
-      <c r="E113" s="52">
+      <c r="E113" s="64">
         <v>2299</v>
       </c>
-      <c r="F113" s="52">
+      <c r="F113" s="64">
         <v>17224</v>
       </c>
-      <c r="G113" s="52">
+      <c r="G113" s="64">
         <v>73334</v>
       </c>
-      <c r="H113" s="52">
+      <c r="H113" s="64">
         <v>35820</v>
       </c>
-      <c r="I113" s="52">
+      <c r="I113" s="64">
         <v>10201</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>43966</v>
       </c>
-      <c r="B114" s="52">
+      <c r="B114" s="64">
         <v>141919</v>
       </c>
-      <c r="C114" s="52">
+      <c r="C114" s="64">
         <v>19861</v>
       </c>
-      <c r="D114" s="52">
+      <c r="D114" s="64">
         <v>60448</v>
       </c>
-      <c r="E114" s="52">
+      <c r="E114" s="64">
         <v>2203</v>
       </c>
-      <c r="F114" s="52">
+      <c r="F114" s="64">
         <v>17342</v>
       </c>
-      <c r="G114" s="52">
+      <c r="G114" s="64">
         <v>73713</v>
       </c>
-      <c r="H114" s="52">
+      <c r="H114" s="64">
         <v>36126</v>
       </c>
-      <c r="I114" s="52">
+      <c r="I114" s="64">
         <v>10187</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <v>43967</v>
       </c>
-      <c r="B115" s="52">
+      <c r="B115" s="64">
         <v>142291</v>
       </c>
-      <c r="C115" s="52">
+      <c r="C115" s="64">
         <v>19432</v>
       </c>
-      <c r="D115" s="52">
+      <c r="D115" s="64">
         <v>61066</v>
       </c>
-      <c r="E115" s="52">
+      <c r="E115" s="64">
         <v>2132</v>
       </c>
-      <c r="F115" s="52">
+      <c r="F115" s="64">
         <v>17412</v>
       </c>
-      <c r="G115" s="52">
+      <c r="G115" s="64">
         <v>73249</v>
       </c>
-      <c r="H115" s="52">
+      <c r="H115" s="64">
         <v>36175</v>
       </c>
-      <c r="I115" s="52">
+      <c r="I115" s="64">
         <v>10213</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>43968</v>
       </c>
-      <c r="B116" s="52">
+      <c r="B116" s="64">
         <v>142411</v>
       </c>
-      <c r="C116" s="52">
+      <c r="C116" s="64">
         <v>19361</v>
       </c>
-      <c r="D116" s="52">
+      <c r="D116" s="64">
         <v>61213</v>
       </c>
-      <c r="E116" s="52">
+      <c r="E116" s="64">
         <v>2087</v>
       </c>
-      <c r="F116" s="52">
+      <c r="F116" s="64">
         <v>17466</v>
       </c>
-      <c r="G116" s="52">
+      <c r="G116" s="64">
         <v>73619</v>
       </c>
-      <c r="H116" s="52">
+      <c r="H116" s="64">
         <v>36461</v>
       </c>
-      <c r="I116" s="52">
+      <c r="I116" s="64">
         <v>10642</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="74" t="str">
+        <f>TEXT(A116,"jj/mm/aaaa")&amp;","&amp;B116&amp;","&amp;C116&amp;","&amp;D116&amp;","&amp;E116&amp;","&amp;F116&amp;","&amp;G116&amp;","&amp;H116&amp;","&amp;I116</f>
+        <v>17/05/2020,142411,19361,61213,2087,17466,73619,36461,10642</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <v>43969</v>
       </c>
-      <c r="B117" s="52"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="52"/>
-      <c r="E117" s="52"/>
-      <c r="F117" s="52"/>
-      <c r="G117" s="52"/>
-      <c r="H117" s="52"/>
-      <c r="I117" s="52"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="64"/>
+      <c r="F117" s="64"/>
+      <c r="G117" s="64"/>
+      <c r="H117" s="64"/>
+      <c r="I117" s="64"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>43970</v>
       </c>
-      <c r="B118" s="52"/>
-      <c r="C118" s="52"/>
-      <c r="D118" s="52"/>
-      <c r="E118" s="52"/>
-      <c r="F118" s="52"/>
-      <c r="G118" s="52"/>
-      <c r="H118" s="52"/>
-      <c r="I118" s="52"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="64"/>
+      <c r="H118" s="64"/>
+      <c r="I118" s="64"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <v>43971</v>
       </c>
-      <c r="B119" s="52"/>
-      <c r="C119" s="52"/>
-      <c r="D119" s="52"/>
-      <c r="E119" s="52"/>
-      <c r="F119" s="52"/>
-      <c r="G119" s="52"/>
-      <c r="H119" s="52"/>
-      <c r="I119" s="52"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="64"/>
+      <c r="G119" s="64"/>
+      <c r="H119" s="64"/>
+      <c r="I119" s="64"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>43972</v>
       </c>
-      <c r="B120" s="52"/>
-      <c r="C120" s="52"/>
-      <c r="D120" s="52"/>
-      <c r="E120" s="52"/>
-      <c r="F120" s="52"/>
-      <c r="G120" s="52"/>
-      <c r="H120" s="52"/>
-      <c r="I120" s="52"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="64"/>
+      <c r="H120" s="64"/>
+      <c r="I120" s="64"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
         <v>43973</v>
       </c>
-      <c r="B121" s="52"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="52"/>
-      <c r="E121" s="52"/>
-      <c r="F121" s="52"/>
-      <c r="G121" s="52"/>
-      <c r="H121" s="52"/>
-      <c r="I121" s="52"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="64"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="64"/>
+      <c r="F121" s="64"/>
+      <c r="G121" s="64"/>
+      <c r="H121" s="64"/>
+      <c r="I121" s="64"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>43974</v>
       </c>
-      <c r="B122" s="52"/>
-      <c r="C122" s="52"/>
-      <c r="D122" s="52"/>
-      <c r="E122" s="52"/>
-      <c r="F122" s="52"/>
-      <c r="G122" s="52"/>
-      <c r="H122" s="52"/>
-      <c r="I122" s="52"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="64"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>43975</v>
       </c>
-      <c r="B123" s="52"/>
-      <c r="C123" s="52"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="52"/>
-      <c r="F123" s="52"/>
-      <c r="G123" s="52"/>
-      <c r="H123" s="52"/>
-      <c r="I123" s="52"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="64"/>
+      <c r="F123" s="64"/>
+      <c r="G123" s="64"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="64"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>43976</v>
       </c>
-      <c r="B124" s="52"/>
-      <c r="C124" s="52"/>
-      <c r="D124" s="52"/>
-      <c r="E124" s="52"/>
-      <c r="F124" s="52"/>
-      <c r="G124" s="52"/>
-      <c r="H124" s="52"/>
-      <c r="I124" s="52"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="64"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="64"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="64"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>43977</v>
       </c>
-      <c r="B125" s="52"/>
-      <c r="C125" s="52"/>
-      <c r="D125" s="52"/>
-      <c r="E125" s="52"/>
-      <c r="F125" s="52"/>
-      <c r="G125" s="52"/>
-      <c r="H125" s="52"/>
-      <c r="I125" s="52"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="64"/>
+      <c r="E125" s="64"/>
+      <c r="F125" s="64"/>
+      <c r="G125" s="64"/>
+      <c r="H125" s="64"/>
+      <c r="I125" s="64"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <v>43978</v>
       </c>
-      <c r="B126" s="52"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="52"/>
-      <c r="E126" s="52"/>
-      <c r="F126" s="52"/>
-      <c r="G126" s="52"/>
-      <c r="H126" s="52"/>
-      <c r="I126" s="52"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="64"/>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="64"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <v>43979</v>
       </c>
-      <c r="B127" s="52"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="52"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="52"/>
-      <c r="G127" s="52"/>
-      <c r="H127" s="52"/>
-      <c r="I127" s="52"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="64"/>
+      <c r="F127" s="64"/>
+      <c r="G127" s="64"/>
+      <c r="H127" s="64"/>
+      <c r="I127" s="64"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <v>43980</v>
       </c>
-      <c r="B128" s="52"/>
-      <c r="C128" s="52"/>
-      <c r="D128" s="52"/>
-      <c r="E128" s="52"/>
-      <c r="F128" s="52"/>
-      <c r="G128" s="52"/>
-      <c r="H128" s="52"/>
-      <c r="I128" s="52"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="64"/>
+      <c r="D128" s="64"/>
+      <c r="E128" s="64"/>
+      <c r="F128" s="64"/>
+      <c r="G128" s="64"/>
+      <c r="H128" s="64"/>
+      <c r="I128" s="64"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>43981</v>
       </c>
-      <c r="B129" s="52"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="52"/>
-      <c r="E129" s="52"/>
-      <c r="F129" s="52"/>
-      <c r="G129" s="52"/>
-      <c r="H129" s="52"/>
-      <c r="I129" s="52"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="64"/>
+      <c r="E129" s="64"/>
+      <c r="F129" s="64"/>
+      <c r="G129" s="64"/>
+      <c r="H129" s="64"/>
+      <c r="I129" s="64"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>43982</v>
       </c>
-      <c r="B130" s="52"/>
-      <c r="C130" s="52"/>
-      <c r="D130" s="52"/>
-      <c r="E130" s="52"/>
-      <c r="F130" s="52"/>
-      <c r="G130" s="52"/>
-      <c r="H130" s="52"/>
-      <c r="I130" s="52"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="64"/>
+      <c r="F130" s="64"/>
+      <c r="G130" s="64"/>
+      <c r="H130" s="64"/>
+      <c r="I130" s="64"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <v>43983</v>
       </c>
-      <c r="B131" s="52"/>
-      <c r="C131" s="52"/>
-      <c r="D131" s="52"/>
-      <c r="E131" s="52"/>
-      <c r="F131" s="52"/>
-      <c r="G131" s="52"/>
-      <c r="H131" s="52"/>
-      <c r="I131" s="52"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="64"/>
+      <c r="F131" s="64"/>
+      <c r="G131" s="64"/>
+      <c r="H131" s="64"/>
+      <c r="I131" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4120,14 +4144,4992 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA7215B-27DF-41E9-BB32-C1F320A2C3AC}">
+  <dimension ref="A1:J131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <f>'Totaux nationaux bruts'!A2</f>
+        <v>43854</v>
+      </c>
+      <c r="B2" s="54">
+        <v>3</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <f>'Totaux nationaux bruts'!A3</f>
+        <v>43855</v>
+      </c>
+      <c r="B3" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B3),"",IF(ISBLANK('Totaux nationaux bruts'!B2),"",'Totaux nationaux bruts'!B3-'Totaux nationaux bruts'!B2))</f>
+        <v/>
+      </c>
+      <c r="C3" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C3),"",IF(ISBLANK('Totaux nationaux bruts'!C2),"",'Totaux nationaux bruts'!C3-'Totaux nationaux bruts'!C2))</f>
+        <v/>
+      </c>
+      <c r="D3" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D3),"",IF(ISBLANK('Totaux nationaux bruts'!D2),"",'Totaux nationaux bruts'!D3-'Totaux nationaux bruts'!D2))</f>
+        <v/>
+      </c>
+      <c r="E3" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E3),"",IF(ISBLANK('Totaux nationaux bruts'!E2),"",'Totaux nationaux bruts'!E3-'Totaux nationaux bruts'!E2))</f>
+        <v/>
+      </c>
+      <c r="F3" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F3),"",IF(ISBLANK('Totaux nationaux bruts'!F2),"",'Totaux nationaux bruts'!F3-'Totaux nationaux bruts'!F2))</f>
+        <v/>
+      </c>
+      <c r="G3" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G3),"",IF(ISBLANK('Totaux nationaux bruts'!G2),"",'Totaux nationaux bruts'!G3-'Totaux nationaux bruts'!G2))</f>
+        <v/>
+      </c>
+      <c r="H3" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H3),"",IF(ISBLANK('Totaux nationaux bruts'!H2),"",'Totaux nationaux bruts'!H3-'Totaux nationaux bruts'!H2))</f>
+        <v/>
+      </c>
+      <c r="I3" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I3),"",IF(ISBLANK('Totaux nationaux bruts'!I2),"",'Totaux nationaux bruts'!I3-'Totaux nationaux bruts'!I2))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <f>'Totaux nationaux bruts'!A4</f>
+        <v>43856</v>
+      </c>
+      <c r="B4" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B4),"",IF(ISBLANK('Totaux nationaux bruts'!B3),"",'Totaux nationaux bruts'!B4-'Totaux nationaux bruts'!B3))</f>
+        <v/>
+      </c>
+      <c r="C4" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C4),"",IF(ISBLANK('Totaux nationaux bruts'!C3),"",'Totaux nationaux bruts'!C4-'Totaux nationaux bruts'!C3))</f>
+        <v/>
+      </c>
+      <c r="D4" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D4),"",IF(ISBLANK('Totaux nationaux bruts'!D3),"",'Totaux nationaux bruts'!D4-'Totaux nationaux bruts'!D3))</f>
+        <v/>
+      </c>
+      <c r="E4" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E4),"",IF(ISBLANK('Totaux nationaux bruts'!E3),"",'Totaux nationaux bruts'!E4-'Totaux nationaux bruts'!E3))</f>
+        <v/>
+      </c>
+      <c r="F4" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F4),"",IF(ISBLANK('Totaux nationaux bruts'!F3),"",'Totaux nationaux bruts'!F4-'Totaux nationaux bruts'!F3))</f>
+        <v/>
+      </c>
+      <c r="G4" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G4),"",IF(ISBLANK('Totaux nationaux bruts'!G3),"",'Totaux nationaux bruts'!G4-'Totaux nationaux bruts'!G3))</f>
+        <v/>
+      </c>
+      <c r="H4" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H4),"",IF(ISBLANK('Totaux nationaux bruts'!H3),"",'Totaux nationaux bruts'!H4-'Totaux nationaux bruts'!H3))</f>
+        <v/>
+      </c>
+      <c r="I4" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I4),"",IF(ISBLANK('Totaux nationaux bruts'!I3),"",'Totaux nationaux bruts'!I4-'Totaux nationaux bruts'!I3))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <f>'Totaux nationaux bruts'!A5</f>
+        <v>43857</v>
+      </c>
+      <c r="B5" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B5),"",IF(ISBLANK('Totaux nationaux bruts'!B4),"",'Totaux nationaux bruts'!B5-'Totaux nationaux bruts'!B4))</f>
+        <v/>
+      </c>
+      <c r="C5" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C5),"",IF(ISBLANK('Totaux nationaux bruts'!C4),"",'Totaux nationaux bruts'!C5-'Totaux nationaux bruts'!C4))</f>
+        <v/>
+      </c>
+      <c r="D5" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D5),"",IF(ISBLANK('Totaux nationaux bruts'!D4),"",'Totaux nationaux bruts'!D5-'Totaux nationaux bruts'!D4))</f>
+        <v/>
+      </c>
+      <c r="E5" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E5),"",IF(ISBLANK('Totaux nationaux bruts'!E4),"",'Totaux nationaux bruts'!E5-'Totaux nationaux bruts'!E4))</f>
+        <v/>
+      </c>
+      <c r="F5" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F5),"",IF(ISBLANK('Totaux nationaux bruts'!F4),"",'Totaux nationaux bruts'!F5-'Totaux nationaux bruts'!F4))</f>
+        <v/>
+      </c>
+      <c r="G5" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G5),"",IF(ISBLANK('Totaux nationaux bruts'!G4),"",'Totaux nationaux bruts'!G5-'Totaux nationaux bruts'!G4))</f>
+        <v/>
+      </c>
+      <c r="H5" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H5),"",IF(ISBLANK('Totaux nationaux bruts'!H4),"",'Totaux nationaux bruts'!H5-'Totaux nationaux bruts'!H4))</f>
+        <v/>
+      </c>
+      <c r="I5" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I5),"",IF(ISBLANK('Totaux nationaux bruts'!I4),"",'Totaux nationaux bruts'!I5-'Totaux nationaux bruts'!I4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <f>'Totaux nationaux bruts'!A6</f>
+        <v>43858</v>
+      </c>
+      <c r="B6" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B6),"",IF(ISBLANK('Totaux nationaux bruts'!B5),"",'Totaux nationaux bruts'!B6-'Totaux nationaux bruts'!B5))</f>
+        <v/>
+      </c>
+      <c r="C6" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C6),"",IF(ISBLANK('Totaux nationaux bruts'!C5),"",'Totaux nationaux bruts'!C6-'Totaux nationaux bruts'!C5))</f>
+        <v/>
+      </c>
+      <c r="D6" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D6),"",IF(ISBLANK('Totaux nationaux bruts'!D5),"",'Totaux nationaux bruts'!D6-'Totaux nationaux bruts'!D5))</f>
+        <v/>
+      </c>
+      <c r="E6" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E6),"",IF(ISBLANK('Totaux nationaux bruts'!E5),"",'Totaux nationaux bruts'!E6-'Totaux nationaux bruts'!E5))</f>
+        <v/>
+      </c>
+      <c r="F6" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F6),"",IF(ISBLANK('Totaux nationaux bruts'!F5),"",'Totaux nationaux bruts'!F6-'Totaux nationaux bruts'!F5))</f>
+        <v/>
+      </c>
+      <c r="G6" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G6),"",IF(ISBLANK('Totaux nationaux bruts'!G5),"",'Totaux nationaux bruts'!G6-'Totaux nationaux bruts'!G5))</f>
+        <v/>
+      </c>
+      <c r="H6" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H6),"",IF(ISBLANK('Totaux nationaux bruts'!H5),"",'Totaux nationaux bruts'!H6-'Totaux nationaux bruts'!H5))</f>
+        <v/>
+      </c>
+      <c r="I6" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I6),"",IF(ISBLANK('Totaux nationaux bruts'!I5),"",'Totaux nationaux bruts'!I6-'Totaux nationaux bruts'!I5))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <f>'Totaux nationaux bruts'!A7</f>
+        <v>43859</v>
+      </c>
+      <c r="B7" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B7),"",IF(ISBLANK('Totaux nationaux bruts'!B6),"",'Totaux nationaux bruts'!B7-'Totaux nationaux bruts'!B6))</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C7),"",IF(ISBLANK('Totaux nationaux bruts'!C6),"",'Totaux nationaux bruts'!C7-'Totaux nationaux bruts'!C6))</f>
+        <v/>
+      </c>
+      <c r="D7" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D7),"",IF(ISBLANK('Totaux nationaux bruts'!D6),"",'Totaux nationaux bruts'!D7-'Totaux nationaux bruts'!D6))</f>
+        <v/>
+      </c>
+      <c r="E7" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E7),"",IF(ISBLANK('Totaux nationaux bruts'!E6),"",'Totaux nationaux bruts'!E7-'Totaux nationaux bruts'!E6))</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F7),"",IF(ISBLANK('Totaux nationaux bruts'!F6),"",'Totaux nationaux bruts'!F7-'Totaux nationaux bruts'!F6))</f>
+        <v/>
+      </c>
+      <c r="G7" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G7),"",IF(ISBLANK('Totaux nationaux bruts'!G6),"",'Totaux nationaux bruts'!G7-'Totaux nationaux bruts'!G6))</f>
+        <v/>
+      </c>
+      <c r="H7" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H7),"",IF(ISBLANK('Totaux nationaux bruts'!H6),"",'Totaux nationaux bruts'!H7-'Totaux nationaux bruts'!H6))</f>
+        <v/>
+      </c>
+      <c r="I7" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I7),"",IF(ISBLANK('Totaux nationaux bruts'!I6),"",'Totaux nationaux bruts'!I7-'Totaux nationaux bruts'!I6))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <f>'Totaux nationaux bruts'!A8</f>
+        <v>43860</v>
+      </c>
+      <c r="B8" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B8),"",IF(ISBLANK('Totaux nationaux bruts'!B7),"",'Totaux nationaux bruts'!B8-'Totaux nationaux bruts'!B7))</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C8),"",IF(ISBLANK('Totaux nationaux bruts'!C7),"",'Totaux nationaux bruts'!C8-'Totaux nationaux bruts'!C7))</f>
+        <v/>
+      </c>
+      <c r="D8" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D8),"",IF(ISBLANK('Totaux nationaux bruts'!D7),"",'Totaux nationaux bruts'!D8-'Totaux nationaux bruts'!D7))</f>
+        <v/>
+      </c>
+      <c r="E8" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E8),"",IF(ISBLANK('Totaux nationaux bruts'!E7),"",'Totaux nationaux bruts'!E8-'Totaux nationaux bruts'!E7))</f>
+        <v/>
+      </c>
+      <c r="F8" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F8),"",IF(ISBLANK('Totaux nationaux bruts'!F7),"",'Totaux nationaux bruts'!F8-'Totaux nationaux bruts'!F7))</f>
+        <v/>
+      </c>
+      <c r="G8" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G8),"",IF(ISBLANK('Totaux nationaux bruts'!G7),"",'Totaux nationaux bruts'!G8-'Totaux nationaux bruts'!G7))</f>
+        <v/>
+      </c>
+      <c r="H8" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H8),"",IF(ISBLANK('Totaux nationaux bruts'!H7),"",'Totaux nationaux bruts'!H8-'Totaux nationaux bruts'!H7))</f>
+        <v/>
+      </c>
+      <c r="I8" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I8),"",IF(ISBLANK('Totaux nationaux bruts'!I7),"",'Totaux nationaux bruts'!I8-'Totaux nationaux bruts'!I7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <f>'Totaux nationaux bruts'!A9</f>
+        <v>43861</v>
+      </c>
+      <c r="B9" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B9),"",IF(ISBLANK('Totaux nationaux bruts'!B8),"",'Totaux nationaux bruts'!B9-'Totaux nationaux bruts'!B8))</f>
+        <v/>
+      </c>
+      <c r="C9" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C9),"",IF(ISBLANK('Totaux nationaux bruts'!C8),"",'Totaux nationaux bruts'!C9-'Totaux nationaux bruts'!C8))</f>
+        <v/>
+      </c>
+      <c r="D9" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D9),"",IF(ISBLANK('Totaux nationaux bruts'!D8),"",'Totaux nationaux bruts'!D9-'Totaux nationaux bruts'!D8))</f>
+        <v/>
+      </c>
+      <c r="E9" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E9),"",IF(ISBLANK('Totaux nationaux bruts'!E8),"",'Totaux nationaux bruts'!E9-'Totaux nationaux bruts'!E8))</f>
+        <v/>
+      </c>
+      <c r="F9" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F9),"",IF(ISBLANK('Totaux nationaux bruts'!F8),"",'Totaux nationaux bruts'!F9-'Totaux nationaux bruts'!F8))</f>
+        <v/>
+      </c>
+      <c r="G9" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G9),"",IF(ISBLANK('Totaux nationaux bruts'!G8),"",'Totaux nationaux bruts'!G9-'Totaux nationaux bruts'!G8))</f>
+        <v/>
+      </c>
+      <c r="H9" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H9),"",IF(ISBLANK('Totaux nationaux bruts'!H8),"",'Totaux nationaux bruts'!H9-'Totaux nationaux bruts'!H8))</f>
+        <v/>
+      </c>
+      <c r="I9" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I9),"",IF(ISBLANK('Totaux nationaux bruts'!I8),"",'Totaux nationaux bruts'!I9-'Totaux nationaux bruts'!I8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <f>'Totaux nationaux bruts'!A10</f>
+        <v>43862</v>
+      </c>
+      <c r="B10" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B10),"",IF(ISBLANK('Totaux nationaux bruts'!B9),"",'Totaux nationaux bruts'!B10-'Totaux nationaux bruts'!B9))</f>
+        <v/>
+      </c>
+      <c r="C10" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C10),"",IF(ISBLANK('Totaux nationaux bruts'!C9),"",'Totaux nationaux bruts'!C10-'Totaux nationaux bruts'!C9))</f>
+        <v/>
+      </c>
+      <c r="D10" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D10),"",IF(ISBLANK('Totaux nationaux bruts'!D9),"",'Totaux nationaux bruts'!D10-'Totaux nationaux bruts'!D9))</f>
+        <v/>
+      </c>
+      <c r="E10" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E10),"",IF(ISBLANK('Totaux nationaux bruts'!E9),"",'Totaux nationaux bruts'!E10-'Totaux nationaux bruts'!E9))</f>
+        <v/>
+      </c>
+      <c r="F10" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F10),"",IF(ISBLANK('Totaux nationaux bruts'!F9),"",'Totaux nationaux bruts'!F10-'Totaux nationaux bruts'!F9))</f>
+        <v/>
+      </c>
+      <c r="G10" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G10),"",IF(ISBLANK('Totaux nationaux bruts'!G9),"",'Totaux nationaux bruts'!G10-'Totaux nationaux bruts'!G9))</f>
+        <v/>
+      </c>
+      <c r="H10" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H10),"",IF(ISBLANK('Totaux nationaux bruts'!H9),"",'Totaux nationaux bruts'!H10-'Totaux nationaux bruts'!H9))</f>
+        <v/>
+      </c>
+      <c r="I10" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I10),"",IF(ISBLANK('Totaux nationaux bruts'!I9),"",'Totaux nationaux bruts'!I10-'Totaux nationaux bruts'!I9))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <f>'Totaux nationaux bruts'!A11</f>
+        <v>43863</v>
+      </c>
+      <c r="B11" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B11),"",IF(ISBLANK('Totaux nationaux bruts'!B10),"",'Totaux nationaux bruts'!B11-'Totaux nationaux bruts'!B10))</f>
+        <v/>
+      </c>
+      <c r="C11" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C11),"",IF(ISBLANK('Totaux nationaux bruts'!C10),"",'Totaux nationaux bruts'!C11-'Totaux nationaux bruts'!C10))</f>
+        <v/>
+      </c>
+      <c r="D11" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D11),"",IF(ISBLANK('Totaux nationaux bruts'!D10),"",'Totaux nationaux bruts'!D11-'Totaux nationaux bruts'!D10))</f>
+        <v/>
+      </c>
+      <c r="E11" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E11),"",IF(ISBLANK('Totaux nationaux bruts'!E10),"",'Totaux nationaux bruts'!E11-'Totaux nationaux bruts'!E10))</f>
+        <v/>
+      </c>
+      <c r="F11" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F11),"",IF(ISBLANK('Totaux nationaux bruts'!F10),"",'Totaux nationaux bruts'!F11-'Totaux nationaux bruts'!F10))</f>
+        <v/>
+      </c>
+      <c r="G11" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G11),"",IF(ISBLANK('Totaux nationaux bruts'!G10),"",'Totaux nationaux bruts'!G11-'Totaux nationaux bruts'!G10))</f>
+        <v/>
+      </c>
+      <c r="H11" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H11),"",IF(ISBLANK('Totaux nationaux bruts'!H10),"",'Totaux nationaux bruts'!H11-'Totaux nationaux bruts'!H10))</f>
+        <v/>
+      </c>
+      <c r="I11" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I11),"",IF(ISBLANK('Totaux nationaux bruts'!I10),"",'Totaux nationaux bruts'!I11-'Totaux nationaux bruts'!I10))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <f>'Totaux nationaux bruts'!A12</f>
+        <v>43864</v>
+      </c>
+      <c r="B12" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B12),"",IF(ISBLANK('Totaux nationaux bruts'!B11),"",'Totaux nationaux bruts'!B12-'Totaux nationaux bruts'!B11))</f>
+        <v/>
+      </c>
+      <c r="C12" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C12),"",IF(ISBLANK('Totaux nationaux bruts'!C11),"",'Totaux nationaux bruts'!C12-'Totaux nationaux bruts'!C11))</f>
+        <v/>
+      </c>
+      <c r="D12" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D12),"",IF(ISBLANK('Totaux nationaux bruts'!D11),"",'Totaux nationaux bruts'!D12-'Totaux nationaux bruts'!D11))</f>
+        <v/>
+      </c>
+      <c r="E12" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E12),"",IF(ISBLANK('Totaux nationaux bruts'!E11),"",'Totaux nationaux bruts'!E12-'Totaux nationaux bruts'!E11))</f>
+        <v/>
+      </c>
+      <c r="F12" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F12),"",IF(ISBLANK('Totaux nationaux bruts'!F11),"",'Totaux nationaux bruts'!F12-'Totaux nationaux bruts'!F11))</f>
+        <v/>
+      </c>
+      <c r="G12" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G12),"",IF(ISBLANK('Totaux nationaux bruts'!G11),"",'Totaux nationaux bruts'!G12-'Totaux nationaux bruts'!G11))</f>
+        <v/>
+      </c>
+      <c r="H12" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H12),"",IF(ISBLANK('Totaux nationaux bruts'!H11),"",'Totaux nationaux bruts'!H12-'Totaux nationaux bruts'!H11))</f>
+        <v/>
+      </c>
+      <c r="I12" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I12),"",IF(ISBLANK('Totaux nationaux bruts'!I11),"",'Totaux nationaux bruts'!I12-'Totaux nationaux bruts'!I11))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <f>'Totaux nationaux bruts'!A13</f>
+        <v>43865</v>
+      </c>
+      <c r="B13" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B13),"",IF(ISBLANK('Totaux nationaux bruts'!B12),"",'Totaux nationaux bruts'!B13-'Totaux nationaux bruts'!B12))</f>
+        <v/>
+      </c>
+      <c r="C13" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C13),"",IF(ISBLANK('Totaux nationaux bruts'!C12),"",'Totaux nationaux bruts'!C13-'Totaux nationaux bruts'!C12))</f>
+        <v/>
+      </c>
+      <c r="D13" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D13),"",IF(ISBLANK('Totaux nationaux bruts'!D12),"",'Totaux nationaux bruts'!D13-'Totaux nationaux bruts'!D12))</f>
+        <v/>
+      </c>
+      <c r="E13" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E13),"",IF(ISBLANK('Totaux nationaux bruts'!E12),"",'Totaux nationaux bruts'!E13-'Totaux nationaux bruts'!E12))</f>
+        <v/>
+      </c>
+      <c r="F13" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F13),"",IF(ISBLANK('Totaux nationaux bruts'!F12),"",'Totaux nationaux bruts'!F13-'Totaux nationaux bruts'!F12))</f>
+        <v/>
+      </c>
+      <c r="G13" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G13),"",IF(ISBLANK('Totaux nationaux bruts'!G12),"",'Totaux nationaux bruts'!G13-'Totaux nationaux bruts'!G12))</f>
+        <v/>
+      </c>
+      <c r="H13" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H13),"",IF(ISBLANK('Totaux nationaux bruts'!H12),"",'Totaux nationaux bruts'!H13-'Totaux nationaux bruts'!H12))</f>
+        <v/>
+      </c>
+      <c r="I13" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I13),"",IF(ISBLANK('Totaux nationaux bruts'!I12),"",'Totaux nationaux bruts'!I13-'Totaux nationaux bruts'!I12))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <f>'Totaux nationaux bruts'!A14</f>
+        <v>43866</v>
+      </c>
+      <c r="B14" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B14),"",IF(ISBLANK('Totaux nationaux bruts'!B13),"",'Totaux nationaux bruts'!B14-'Totaux nationaux bruts'!B13))</f>
+        <v/>
+      </c>
+      <c r="C14" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C14),"",IF(ISBLANK('Totaux nationaux bruts'!C13),"",'Totaux nationaux bruts'!C14-'Totaux nationaux bruts'!C13))</f>
+        <v/>
+      </c>
+      <c r="D14" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D14),"",IF(ISBLANK('Totaux nationaux bruts'!D13),"",'Totaux nationaux bruts'!D14-'Totaux nationaux bruts'!D13))</f>
+        <v/>
+      </c>
+      <c r="E14" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E14),"",IF(ISBLANK('Totaux nationaux bruts'!E13),"",'Totaux nationaux bruts'!E14-'Totaux nationaux bruts'!E13))</f>
+        <v/>
+      </c>
+      <c r="F14" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F14),"",IF(ISBLANK('Totaux nationaux bruts'!F13),"",'Totaux nationaux bruts'!F14-'Totaux nationaux bruts'!F13))</f>
+        <v/>
+      </c>
+      <c r="G14" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G14),"",IF(ISBLANK('Totaux nationaux bruts'!G13),"",'Totaux nationaux bruts'!G14-'Totaux nationaux bruts'!G13))</f>
+        <v/>
+      </c>
+      <c r="H14" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H14),"",IF(ISBLANK('Totaux nationaux bruts'!H13),"",'Totaux nationaux bruts'!H14-'Totaux nationaux bruts'!H13))</f>
+        <v/>
+      </c>
+      <c r="I14" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I14),"",IF(ISBLANK('Totaux nationaux bruts'!I13),"",'Totaux nationaux bruts'!I14-'Totaux nationaux bruts'!I13))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <f>'Totaux nationaux bruts'!A15</f>
+        <v>43867</v>
+      </c>
+      <c r="B15" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B15),"",IF(ISBLANK('Totaux nationaux bruts'!B14),"",'Totaux nationaux bruts'!B15-'Totaux nationaux bruts'!B14))</f>
+        <v/>
+      </c>
+      <c r="C15" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C15),"",IF(ISBLANK('Totaux nationaux bruts'!C14),"",'Totaux nationaux bruts'!C15-'Totaux nationaux bruts'!C14))</f>
+        <v/>
+      </c>
+      <c r="D15" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D15),"",IF(ISBLANK('Totaux nationaux bruts'!D14),"",'Totaux nationaux bruts'!D15-'Totaux nationaux bruts'!D14))</f>
+        <v/>
+      </c>
+      <c r="E15" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E15),"",IF(ISBLANK('Totaux nationaux bruts'!E14),"",'Totaux nationaux bruts'!E15-'Totaux nationaux bruts'!E14))</f>
+        <v/>
+      </c>
+      <c r="F15" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F15),"",IF(ISBLANK('Totaux nationaux bruts'!F14),"",'Totaux nationaux bruts'!F15-'Totaux nationaux bruts'!F14))</f>
+        <v/>
+      </c>
+      <c r="G15" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G15),"",IF(ISBLANK('Totaux nationaux bruts'!G14),"",'Totaux nationaux bruts'!G15-'Totaux nationaux bruts'!G14))</f>
+        <v/>
+      </c>
+      <c r="H15" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H15),"",IF(ISBLANK('Totaux nationaux bruts'!H14),"",'Totaux nationaux bruts'!H15-'Totaux nationaux bruts'!H14))</f>
+        <v/>
+      </c>
+      <c r="I15" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I15),"",IF(ISBLANK('Totaux nationaux bruts'!I14),"",'Totaux nationaux bruts'!I15-'Totaux nationaux bruts'!I14))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <f>'Totaux nationaux bruts'!A16</f>
+        <v>43868</v>
+      </c>
+      <c r="B16" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B16),"",IF(ISBLANK('Totaux nationaux bruts'!B15),"",'Totaux nationaux bruts'!B16-'Totaux nationaux bruts'!B15))</f>
+        <v/>
+      </c>
+      <c r="C16" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C16),"",IF(ISBLANK('Totaux nationaux bruts'!C15),"",'Totaux nationaux bruts'!C16-'Totaux nationaux bruts'!C15))</f>
+        <v/>
+      </c>
+      <c r="D16" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D16),"",IF(ISBLANK('Totaux nationaux bruts'!D15),"",'Totaux nationaux bruts'!D16-'Totaux nationaux bruts'!D15))</f>
+        <v/>
+      </c>
+      <c r="E16" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E16),"",IF(ISBLANK('Totaux nationaux bruts'!E15),"",'Totaux nationaux bruts'!E16-'Totaux nationaux bruts'!E15))</f>
+        <v/>
+      </c>
+      <c r="F16" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F16),"",IF(ISBLANK('Totaux nationaux bruts'!F15),"",'Totaux nationaux bruts'!F16-'Totaux nationaux bruts'!F15))</f>
+        <v/>
+      </c>
+      <c r="G16" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G16),"",IF(ISBLANK('Totaux nationaux bruts'!G15),"",'Totaux nationaux bruts'!G16-'Totaux nationaux bruts'!G15))</f>
+        <v/>
+      </c>
+      <c r="H16" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H16),"",IF(ISBLANK('Totaux nationaux bruts'!H15),"",'Totaux nationaux bruts'!H16-'Totaux nationaux bruts'!H15))</f>
+        <v/>
+      </c>
+      <c r="I16" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I16),"",IF(ISBLANK('Totaux nationaux bruts'!I15),"",'Totaux nationaux bruts'!I16-'Totaux nationaux bruts'!I15))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <f>'Totaux nationaux bruts'!A17</f>
+        <v>43869</v>
+      </c>
+      <c r="B17" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B17),"",IF(ISBLANK('Totaux nationaux bruts'!B16),"",'Totaux nationaux bruts'!B17-'Totaux nationaux bruts'!B16))</f>
+        <v/>
+      </c>
+      <c r="C17" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C17),"",IF(ISBLANK('Totaux nationaux bruts'!C16),"",'Totaux nationaux bruts'!C17-'Totaux nationaux bruts'!C16))</f>
+        <v/>
+      </c>
+      <c r="D17" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D17),"",IF(ISBLANK('Totaux nationaux bruts'!D16),"",'Totaux nationaux bruts'!D17-'Totaux nationaux bruts'!D16))</f>
+        <v/>
+      </c>
+      <c r="E17" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E17),"",IF(ISBLANK('Totaux nationaux bruts'!E16),"",'Totaux nationaux bruts'!E17-'Totaux nationaux bruts'!E16))</f>
+        <v/>
+      </c>
+      <c r="F17" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F17),"",IF(ISBLANK('Totaux nationaux bruts'!F16),"",'Totaux nationaux bruts'!F17-'Totaux nationaux bruts'!F16))</f>
+        <v/>
+      </c>
+      <c r="G17" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G17),"",IF(ISBLANK('Totaux nationaux bruts'!G16),"",'Totaux nationaux bruts'!G17-'Totaux nationaux bruts'!G16))</f>
+        <v/>
+      </c>
+      <c r="H17" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H17),"",IF(ISBLANK('Totaux nationaux bruts'!H16),"",'Totaux nationaux bruts'!H17-'Totaux nationaux bruts'!H16))</f>
+        <v/>
+      </c>
+      <c r="I17" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I17),"",IF(ISBLANK('Totaux nationaux bruts'!I16),"",'Totaux nationaux bruts'!I17-'Totaux nationaux bruts'!I16))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <f>'Totaux nationaux bruts'!A18</f>
+        <v>43870</v>
+      </c>
+      <c r="B18" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B18),"",IF(ISBLANK('Totaux nationaux bruts'!B17),"",'Totaux nationaux bruts'!B18-'Totaux nationaux bruts'!B17))</f>
+        <v/>
+      </c>
+      <c r="C18" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C18),"",IF(ISBLANK('Totaux nationaux bruts'!C17),"",'Totaux nationaux bruts'!C18-'Totaux nationaux bruts'!C17))</f>
+        <v/>
+      </c>
+      <c r="D18" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D18),"",IF(ISBLANK('Totaux nationaux bruts'!D17),"",'Totaux nationaux bruts'!D18-'Totaux nationaux bruts'!D17))</f>
+        <v/>
+      </c>
+      <c r="E18" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E18),"",IF(ISBLANK('Totaux nationaux bruts'!E17),"",'Totaux nationaux bruts'!E18-'Totaux nationaux bruts'!E17))</f>
+        <v/>
+      </c>
+      <c r="F18" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F18),"",IF(ISBLANK('Totaux nationaux bruts'!F17),"",'Totaux nationaux bruts'!F18-'Totaux nationaux bruts'!F17))</f>
+        <v/>
+      </c>
+      <c r="G18" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G18),"",IF(ISBLANK('Totaux nationaux bruts'!G17),"",'Totaux nationaux bruts'!G18-'Totaux nationaux bruts'!G17))</f>
+        <v/>
+      </c>
+      <c r="H18" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H18),"",IF(ISBLANK('Totaux nationaux bruts'!H17),"",'Totaux nationaux bruts'!H18-'Totaux nationaux bruts'!H17))</f>
+        <v/>
+      </c>
+      <c r="I18" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I18),"",IF(ISBLANK('Totaux nationaux bruts'!I17),"",'Totaux nationaux bruts'!I18-'Totaux nationaux bruts'!I17))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <f>'Totaux nationaux bruts'!A19</f>
+        <v>43871</v>
+      </c>
+      <c r="B19" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B19),"",IF(ISBLANK('Totaux nationaux bruts'!B18),"",'Totaux nationaux bruts'!B19-'Totaux nationaux bruts'!B18))</f>
+        <v/>
+      </c>
+      <c r="C19" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C19),"",IF(ISBLANK('Totaux nationaux bruts'!C18),"",'Totaux nationaux bruts'!C19-'Totaux nationaux bruts'!C18))</f>
+        <v/>
+      </c>
+      <c r="D19" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D19),"",IF(ISBLANK('Totaux nationaux bruts'!D18),"",'Totaux nationaux bruts'!D19-'Totaux nationaux bruts'!D18))</f>
+        <v/>
+      </c>
+      <c r="E19" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E19),"",IF(ISBLANK('Totaux nationaux bruts'!E18),"",'Totaux nationaux bruts'!E19-'Totaux nationaux bruts'!E18))</f>
+        <v/>
+      </c>
+      <c r="F19" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F19),"",IF(ISBLANK('Totaux nationaux bruts'!F18),"",'Totaux nationaux bruts'!F19-'Totaux nationaux bruts'!F18))</f>
+        <v/>
+      </c>
+      <c r="G19" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G19),"",IF(ISBLANK('Totaux nationaux bruts'!G18),"",'Totaux nationaux bruts'!G19-'Totaux nationaux bruts'!G18))</f>
+        <v/>
+      </c>
+      <c r="H19" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H19),"",IF(ISBLANK('Totaux nationaux bruts'!H18),"",'Totaux nationaux bruts'!H19-'Totaux nationaux bruts'!H18))</f>
+        <v/>
+      </c>
+      <c r="I19" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I19),"",IF(ISBLANK('Totaux nationaux bruts'!I18),"",'Totaux nationaux bruts'!I19-'Totaux nationaux bruts'!I18))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <f>'Totaux nationaux bruts'!A20</f>
+        <v>43872</v>
+      </c>
+      <c r="B20" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B20),"",IF(ISBLANK('Totaux nationaux bruts'!B19),"",'Totaux nationaux bruts'!B20-'Totaux nationaux bruts'!B19))</f>
+        <v/>
+      </c>
+      <c r="C20" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C20),"",IF(ISBLANK('Totaux nationaux bruts'!C19),"",'Totaux nationaux bruts'!C20-'Totaux nationaux bruts'!C19))</f>
+        <v/>
+      </c>
+      <c r="D20" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D20),"",IF(ISBLANK('Totaux nationaux bruts'!D19),"",'Totaux nationaux bruts'!D20-'Totaux nationaux bruts'!D19))</f>
+        <v/>
+      </c>
+      <c r="E20" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E20),"",IF(ISBLANK('Totaux nationaux bruts'!E19),"",'Totaux nationaux bruts'!E20-'Totaux nationaux bruts'!E19))</f>
+        <v/>
+      </c>
+      <c r="F20" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F20),"",IF(ISBLANK('Totaux nationaux bruts'!F19),"",'Totaux nationaux bruts'!F20-'Totaux nationaux bruts'!F19))</f>
+        <v/>
+      </c>
+      <c r="G20" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G20),"",IF(ISBLANK('Totaux nationaux bruts'!G19),"",'Totaux nationaux bruts'!G20-'Totaux nationaux bruts'!G19))</f>
+        <v/>
+      </c>
+      <c r="H20" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H20),"",IF(ISBLANK('Totaux nationaux bruts'!H19),"",'Totaux nationaux bruts'!H20-'Totaux nationaux bruts'!H19))</f>
+        <v/>
+      </c>
+      <c r="I20" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I20),"",IF(ISBLANK('Totaux nationaux bruts'!I19),"",'Totaux nationaux bruts'!I20-'Totaux nationaux bruts'!I19))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <f>'Totaux nationaux bruts'!A21</f>
+        <v>43873</v>
+      </c>
+      <c r="B21" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B21),"",IF(ISBLANK('Totaux nationaux bruts'!B20),"",'Totaux nationaux bruts'!B21-'Totaux nationaux bruts'!B20))</f>
+        <v/>
+      </c>
+      <c r="C21" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C21),"",IF(ISBLANK('Totaux nationaux bruts'!C20),"",'Totaux nationaux bruts'!C21-'Totaux nationaux bruts'!C20))</f>
+        <v/>
+      </c>
+      <c r="D21" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D21),"",IF(ISBLANK('Totaux nationaux bruts'!D20),"",'Totaux nationaux bruts'!D21-'Totaux nationaux bruts'!D20))</f>
+        <v/>
+      </c>
+      <c r="E21" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E21),"",IF(ISBLANK('Totaux nationaux bruts'!E20),"",'Totaux nationaux bruts'!E21-'Totaux nationaux bruts'!E20))</f>
+        <v/>
+      </c>
+      <c r="F21" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F21),"",IF(ISBLANK('Totaux nationaux bruts'!F20),"",'Totaux nationaux bruts'!F21-'Totaux nationaux bruts'!F20))</f>
+        <v/>
+      </c>
+      <c r="G21" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G21),"",IF(ISBLANK('Totaux nationaux bruts'!G20),"",'Totaux nationaux bruts'!G21-'Totaux nationaux bruts'!G20))</f>
+        <v/>
+      </c>
+      <c r="H21" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H21),"",IF(ISBLANK('Totaux nationaux bruts'!H20),"",'Totaux nationaux bruts'!H21-'Totaux nationaux bruts'!H20))</f>
+        <v/>
+      </c>
+      <c r="I21" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I21),"",IF(ISBLANK('Totaux nationaux bruts'!I20),"",'Totaux nationaux bruts'!I21-'Totaux nationaux bruts'!I20))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <f>'Totaux nationaux bruts'!A22</f>
+        <v>43874</v>
+      </c>
+      <c r="B22" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B22),"",IF(ISBLANK('Totaux nationaux bruts'!B21),"",'Totaux nationaux bruts'!B22-'Totaux nationaux bruts'!B21))</f>
+        <v/>
+      </c>
+      <c r="C22" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C22),"",IF(ISBLANK('Totaux nationaux bruts'!C21),"",'Totaux nationaux bruts'!C22-'Totaux nationaux bruts'!C21))</f>
+        <v/>
+      </c>
+      <c r="D22" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D22),"",IF(ISBLANK('Totaux nationaux bruts'!D21),"",'Totaux nationaux bruts'!D22-'Totaux nationaux bruts'!D21))</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E22),"",IF(ISBLANK('Totaux nationaux bruts'!E21),"",'Totaux nationaux bruts'!E22-'Totaux nationaux bruts'!E21))</f>
+        <v/>
+      </c>
+      <c r="F22" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F22),"",IF(ISBLANK('Totaux nationaux bruts'!F21),"",'Totaux nationaux bruts'!F22-'Totaux nationaux bruts'!F21))</f>
+        <v/>
+      </c>
+      <c r="G22" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G22),"",IF(ISBLANK('Totaux nationaux bruts'!G21),"",'Totaux nationaux bruts'!G22-'Totaux nationaux bruts'!G21))</f>
+        <v/>
+      </c>
+      <c r="H22" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H22),"",IF(ISBLANK('Totaux nationaux bruts'!H21),"",'Totaux nationaux bruts'!H22-'Totaux nationaux bruts'!H21))</f>
+        <v/>
+      </c>
+      <c r="I22" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I22),"",IF(ISBLANK('Totaux nationaux bruts'!I21),"",'Totaux nationaux bruts'!I22-'Totaux nationaux bruts'!I21))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <f>'Totaux nationaux bruts'!A23</f>
+        <v>43875</v>
+      </c>
+      <c r="B23" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B23),"",IF(ISBLANK('Totaux nationaux bruts'!B22),"",'Totaux nationaux bruts'!B23-'Totaux nationaux bruts'!B22))</f>
+        <v/>
+      </c>
+      <c r="C23" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C23),"",IF(ISBLANK('Totaux nationaux bruts'!C22),"",'Totaux nationaux bruts'!C23-'Totaux nationaux bruts'!C22))</f>
+        <v/>
+      </c>
+      <c r="D23" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D23),"",IF(ISBLANK('Totaux nationaux bruts'!D22),"",'Totaux nationaux bruts'!D23-'Totaux nationaux bruts'!D22))</f>
+        <v/>
+      </c>
+      <c r="E23" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E23),"",IF(ISBLANK('Totaux nationaux bruts'!E22),"",'Totaux nationaux bruts'!E23-'Totaux nationaux bruts'!E22))</f>
+        <v/>
+      </c>
+      <c r="F23" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F23),"",IF(ISBLANK('Totaux nationaux bruts'!F22),"",'Totaux nationaux bruts'!F23-'Totaux nationaux bruts'!F22))</f>
+        <v/>
+      </c>
+      <c r="G23" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G23),"",IF(ISBLANK('Totaux nationaux bruts'!G22),"",'Totaux nationaux bruts'!G23-'Totaux nationaux bruts'!G22))</f>
+        <v/>
+      </c>
+      <c r="H23" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H23),"",IF(ISBLANK('Totaux nationaux bruts'!H22),"",'Totaux nationaux bruts'!H23-'Totaux nationaux bruts'!H22))</f>
+        <v/>
+      </c>
+      <c r="I23" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I23),"",IF(ISBLANK('Totaux nationaux bruts'!I22),"",'Totaux nationaux bruts'!I23-'Totaux nationaux bruts'!I22))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <f>'Totaux nationaux bruts'!A24</f>
+        <v>43876</v>
+      </c>
+      <c r="B24" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B24),"",IF(ISBLANK('Totaux nationaux bruts'!B23),"",'Totaux nationaux bruts'!B24-'Totaux nationaux bruts'!B23))</f>
+        <v/>
+      </c>
+      <c r="C24" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C24),"",IF(ISBLANK('Totaux nationaux bruts'!C23),"",'Totaux nationaux bruts'!C24-'Totaux nationaux bruts'!C23))</f>
+        <v/>
+      </c>
+      <c r="D24" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D24),"",IF(ISBLANK('Totaux nationaux bruts'!D23),"",'Totaux nationaux bruts'!D24-'Totaux nationaux bruts'!D23))</f>
+        <v/>
+      </c>
+      <c r="E24" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E24),"",IF(ISBLANK('Totaux nationaux bruts'!E23),"",'Totaux nationaux bruts'!E24-'Totaux nationaux bruts'!E23))</f>
+        <v/>
+      </c>
+      <c r="F24" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F24),"",IF(ISBLANK('Totaux nationaux bruts'!F23),"",'Totaux nationaux bruts'!F24-'Totaux nationaux bruts'!F23))</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G24),"",IF(ISBLANK('Totaux nationaux bruts'!G23),"",'Totaux nationaux bruts'!G24-'Totaux nationaux bruts'!G23))</f>
+        <v/>
+      </c>
+      <c r="H24" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H24),"",IF(ISBLANK('Totaux nationaux bruts'!H23),"",'Totaux nationaux bruts'!H24-'Totaux nationaux bruts'!H23))</f>
+        <v/>
+      </c>
+      <c r="I24" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I24),"",IF(ISBLANK('Totaux nationaux bruts'!I23),"",'Totaux nationaux bruts'!I24-'Totaux nationaux bruts'!I23))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <f>'Totaux nationaux bruts'!A25</f>
+        <v>43877</v>
+      </c>
+      <c r="B25" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B25),"",IF(ISBLANK('Totaux nationaux bruts'!B24),"",'Totaux nationaux bruts'!B25-'Totaux nationaux bruts'!B24))</f>
+        <v/>
+      </c>
+      <c r="C25" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C25),"",IF(ISBLANK('Totaux nationaux bruts'!C24),"",'Totaux nationaux bruts'!C25-'Totaux nationaux bruts'!C24))</f>
+        <v/>
+      </c>
+      <c r="D25" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D25),"",IF(ISBLANK('Totaux nationaux bruts'!D24),"",'Totaux nationaux bruts'!D25-'Totaux nationaux bruts'!D24))</f>
+        <v/>
+      </c>
+      <c r="E25" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E25),"",IF(ISBLANK('Totaux nationaux bruts'!E24),"",'Totaux nationaux bruts'!E25-'Totaux nationaux bruts'!E24))</f>
+        <v/>
+      </c>
+      <c r="F25" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F25),"",IF(ISBLANK('Totaux nationaux bruts'!F24),"",'Totaux nationaux bruts'!F25-'Totaux nationaux bruts'!F24))</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G25),"",IF(ISBLANK('Totaux nationaux bruts'!G24),"",'Totaux nationaux bruts'!G25-'Totaux nationaux bruts'!G24))</f>
+        <v/>
+      </c>
+      <c r="H25" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H25),"",IF(ISBLANK('Totaux nationaux bruts'!H24),"",'Totaux nationaux bruts'!H25-'Totaux nationaux bruts'!H24))</f>
+        <v/>
+      </c>
+      <c r="I25" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I25),"",IF(ISBLANK('Totaux nationaux bruts'!I24),"",'Totaux nationaux bruts'!I25-'Totaux nationaux bruts'!I24))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <f>'Totaux nationaux bruts'!A26</f>
+        <v>43878</v>
+      </c>
+      <c r="B26" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B26),"",IF(ISBLANK('Totaux nationaux bruts'!B25),"",'Totaux nationaux bruts'!B26-'Totaux nationaux bruts'!B25))</f>
+        <v/>
+      </c>
+      <c r="C26" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C26),"",IF(ISBLANK('Totaux nationaux bruts'!C25),"",'Totaux nationaux bruts'!C26-'Totaux nationaux bruts'!C25))</f>
+        <v/>
+      </c>
+      <c r="D26" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D26),"",IF(ISBLANK('Totaux nationaux bruts'!D25),"",'Totaux nationaux bruts'!D26-'Totaux nationaux bruts'!D25))</f>
+        <v/>
+      </c>
+      <c r="E26" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E26),"",IF(ISBLANK('Totaux nationaux bruts'!E25),"",'Totaux nationaux bruts'!E26-'Totaux nationaux bruts'!E25))</f>
+        <v/>
+      </c>
+      <c r="F26" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F26),"",IF(ISBLANK('Totaux nationaux bruts'!F25),"",'Totaux nationaux bruts'!F26-'Totaux nationaux bruts'!F25))</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G26),"",IF(ISBLANK('Totaux nationaux bruts'!G25),"",'Totaux nationaux bruts'!G26-'Totaux nationaux bruts'!G25))</f>
+        <v/>
+      </c>
+      <c r="H26" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H26),"",IF(ISBLANK('Totaux nationaux bruts'!H25),"",'Totaux nationaux bruts'!H26-'Totaux nationaux bruts'!H25))</f>
+        <v/>
+      </c>
+      <c r="I26" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I26),"",IF(ISBLANK('Totaux nationaux bruts'!I25),"",'Totaux nationaux bruts'!I26-'Totaux nationaux bruts'!I25))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <f>'Totaux nationaux bruts'!A27</f>
+        <v>43879</v>
+      </c>
+      <c r="B27" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B27),"",IF(ISBLANK('Totaux nationaux bruts'!B26),"",'Totaux nationaux bruts'!B27-'Totaux nationaux bruts'!B26))</f>
+        <v/>
+      </c>
+      <c r="C27" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C27),"",IF(ISBLANK('Totaux nationaux bruts'!C26),"",'Totaux nationaux bruts'!C27-'Totaux nationaux bruts'!C26))</f>
+        <v/>
+      </c>
+      <c r="D27" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D27),"",IF(ISBLANK('Totaux nationaux bruts'!D26),"",'Totaux nationaux bruts'!D27-'Totaux nationaux bruts'!D26))</f>
+        <v/>
+      </c>
+      <c r="E27" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E27),"",IF(ISBLANK('Totaux nationaux bruts'!E26),"",'Totaux nationaux bruts'!E27-'Totaux nationaux bruts'!E26))</f>
+        <v/>
+      </c>
+      <c r="F27" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F27),"",IF(ISBLANK('Totaux nationaux bruts'!F26),"",'Totaux nationaux bruts'!F27-'Totaux nationaux bruts'!F26))</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G27),"",IF(ISBLANK('Totaux nationaux bruts'!G26),"",'Totaux nationaux bruts'!G27-'Totaux nationaux bruts'!G26))</f>
+        <v/>
+      </c>
+      <c r="H27" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H27),"",IF(ISBLANK('Totaux nationaux bruts'!H26),"",'Totaux nationaux bruts'!H27-'Totaux nationaux bruts'!H26))</f>
+        <v/>
+      </c>
+      <c r="I27" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I27),"",IF(ISBLANK('Totaux nationaux bruts'!I26),"",'Totaux nationaux bruts'!I27-'Totaux nationaux bruts'!I26))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <f>'Totaux nationaux bruts'!A28</f>
+        <v>43880</v>
+      </c>
+      <c r="B28" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B28),"",IF(ISBLANK('Totaux nationaux bruts'!B27),"",'Totaux nationaux bruts'!B28-'Totaux nationaux bruts'!B27))</f>
+        <v/>
+      </c>
+      <c r="C28" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C28),"",IF(ISBLANK('Totaux nationaux bruts'!C27),"",'Totaux nationaux bruts'!C28-'Totaux nationaux bruts'!C27))</f>
+        <v/>
+      </c>
+      <c r="D28" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D28),"",IF(ISBLANK('Totaux nationaux bruts'!D27),"",'Totaux nationaux bruts'!D28-'Totaux nationaux bruts'!D27))</f>
+        <v/>
+      </c>
+      <c r="E28" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E28),"",IF(ISBLANK('Totaux nationaux bruts'!E27),"",'Totaux nationaux bruts'!E28-'Totaux nationaux bruts'!E27))</f>
+        <v/>
+      </c>
+      <c r="F28" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F28),"",IF(ISBLANK('Totaux nationaux bruts'!F27),"",'Totaux nationaux bruts'!F28-'Totaux nationaux bruts'!F27))</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G28),"",IF(ISBLANK('Totaux nationaux bruts'!G27),"",'Totaux nationaux bruts'!G28-'Totaux nationaux bruts'!G27))</f>
+        <v/>
+      </c>
+      <c r="H28" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H28),"",IF(ISBLANK('Totaux nationaux bruts'!H27),"",'Totaux nationaux bruts'!H28-'Totaux nationaux bruts'!H27))</f>
+        <v/>
+      </c>
+      <c r="I28" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I28),"",IF(ISBLANK('Totaux nationaux bruts'!I27),"",'Totaux nationaux bruts'!I28-'Totaux nationaux bruts'!I27))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <f>'Totaux nationaux bruts'!A29</f>
+        <v>43881</v>
+      </c>
+      <c r="B29" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B29),"",IF(ISBLANK('Totaux nationaux bruts'!B28),"",'Totaux nationaux bruts'!B29-'Totaux nationaux bruts'!B28))</f>
+        <v/>
+      </c>
+      <c r="C29" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C29),"",IF(ISBLANK('Totaux nationaux bruts'!C28),"",'Totaux nationaux bruts'!C29-'Totaux nationaux bruts'!C28))</f>
+        <v>7</v>
+      </c>
+      <c r="D29" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D29),"",IF(ISBLANK('Totaux nationaux bruts'!D28),"",'Totaux nationaux bruts'!D29-'Totaux nationaux bruts'!D28))</f>
+        <v/>
+      </c>
+      <c r="E29" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E29),"",IF(ISBLANK('Totaux nationaux bruts'!E28),"",'Totaux nationaux bruts'!E29-'Totaux nationaux bruts'!E28))</f>
+        <v/>
+      </c>
+      <c r="F29" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F29),"",IF(ISBLANK('Totaux nationaux bruts'!F28),"",'Totaux nationaux bruts'!F29-'Totaux nationaux bruts'!F28))</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G29),"",IF(ISBLANK('Totaux nationaux bruts'!G28),"",'Totaux nationaux bruts'!G29-'Totaux nationaux bruts'!G28))</f>
+        <v/>
+      </c>
+      <c r="H29" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H29),"",IF(ISBLANK('Totaux nationaux bruts'!H28),"",'Totaux nationaux bruts'!H29-'Totaux nationaux bruts'!H28))</f>
+        <v/>
+      </c>
+      <c r="I29" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I29),"",IF(ISBLANK('Totaux nationaux bruts'!I28),"",'Totaux nationaux bruts'!I29-'Totaux nationaux bruts'!I28))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <f>'Totaux nationaux bruts'!A30</f>
+        <v>43882</v>
+      </c>
+      <c r="B30" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B30),"",IF(ISBLANK('Totaux nationaux bruts'!B29),"",'Totaux nationaux bruts'!B30-'Totaux nationaux bruts'!B29))</f>
+        <v/>
+      </c>
+      <c r="C30" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C30),"",IF(ISBLANK('Totaux nationaux bruts'!C29),"",'Totaux nationaux bruts'!C30-'Totaux nationaux bruts'!C29))</f>
+        <v>-10</v>
+      </c>
+      <c r="D30" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D30),"",IF(ISBLANK('Totaux nationaux bruts'!D29),"",'Totaux nationaux bruts'!D30-'Totaux nationaux bruts'!D29))</f>
+        <v/>
+      </c>
+      <c r="E30" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E30),"",IF(ISBLANK('Totaux nationaux bruts'!E29),"",'Totaux nationaux bruts'!E30-'Totaux nationaux bruts'!E29))</f>
+        <v/>
+      </c>
+      <c r="F30" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F30),"",IF(ISBLANK('Totaux nationaux bruts'!F29),"",'Totaux nationaux bruts'!F30-'Totaux nationaux bruts'!F29))</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G30),"",IF(ISBLANK('Totaux nationaux bruts'!G29),"",'Totaux nationaux bruts'!G30-'Totaux nationaux bruts'!G29))</f>
+        <v/>
+      </c>
+      <c r="H30" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H30),"",IF(ISBLANK('Totaux nationaux bruts'!H29),"",'Totaux nationaux bruts'!H30-'Totaux nationaux bruts'!H29))</f>
+        <v/>
+      </c>
+      <c r="I30" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I30),"",IF(ISBLANK('Totaux nationaux bruts'!I29),"",'Totaux nationaux bruts'!I30-'Totaux nationaux bruts'!I29))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <f>'Totaux nationaux bruts'!A31</f>
+        <v>43883</v>
+      </c>
+      <c r="B31" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B31),"",IF(ISBLANK('Totaux nationaux bruts'!B30),"",'Totaux nationaux bruts'!B31-'Totaux nationaux bruts'!B30))</f>
+        <v/>
+      </c>
+      <c r="C31" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C31),"",IF(ISBLANK('Totaux nationaux bruts'!C30),"",'Totaux nationaux bruts'!C31-'Totaux nationaux bruts'!C30))</f>
+        <v/>
+      </c>
+      <c r="D31" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D31),"",IF(ISBLANK('Totaux nationaux bruts'!D30),"",'Totaux nationaux bruts'!D31-'Totaux nationaux bruts'!D30))</f>
+        <v/>
+      </c>
+      <c r="E31" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E31),"",IF(ISBLANK('Totaux nationaux bruts'!E30),"",'Totaux nationaux bruts'!E31-'Totaux nationaux bruts'!E30))</f>
+        <v/>
+      </c>
+      <c r="F31" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F31),"",IF(ISBLANK('Totaux nationaux bruts'!F30),"",'Totaux nationaux bruts'!F31-'Totaux nationaux bruts'!F30))</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G31),"",IF(ISBLANK('Totaux nationaux bruts'!G30),"",'Totaux nationaux bruts'!G31-'Totaux nationaux bruts'!G30))</f>
+        <v/>
+      </c>
+      <c r="H31" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H31),"",IF(ISBLANK('Totaux nationaux bruts'!H30),"",'Totaux nationaux bruts'!H31-'Totaux nationaux bruts'!H30))</f>
+        <v/>
+      </c>
+      <c r="I31" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I31),"",IF(ISBLANK('Totaux nationaux bruts'!I30),"",'Totaux nationaux bruts'!I31-'Totaux nationaux bruts'!I30))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <f>'Totaux nationaux bruts'!A32</f>
+        <v>43884</v>
+      </c>
+      <c r="B32" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B32),"",IF(ISBLANK('Totaux nationaux bruts'!B31),"",'Totaux nationaux bruts'!B32-'Totaux nationaux bruts'!B31))</f>
+        <v/>
+      </c>
+      <c r="C32" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C32),"",IF(ISBLANK('Totaux nationaux bruts'!C31),"",'Totaux nationaux bruts'!C32-'Totaux nationaux bruts'!C31))</f>
+        <v/>
+      </c>
+      <c r="D32" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D32),"",IF(ISBLANK('Totaux nationaux bruts'!D31),"",'Totaux nationaux bruts'!D32-'Totaux nationaux bruts'!D31))</f>
+        <v/>
+      </c>
+      <c r="E32" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E32),"",IF(ISBLANK('Totaux nationaux bruts'!E31),"",'Totaux nationaux bruts'!E32-'Totaux nationaux bruts'!E31))</f>
+        <v/>
+      </c>
+      <c r="F32" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F32),"",IF(ISBLANK('Totaux nationaux bruts'!F31),"",'Totaux nationaux bruts'!F32-'Totaux nationaux bruts'!F31))</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G32),"",IF(ISBLANK('Totaux nationaux bruts'!G31),"",'Totaux nationaux bruts'!G32-'Totaux nationaux bruts'!G31))</f>
+        <v/>
+      </c>
+      <c r="H32" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H32),"",IF(ISBLANK('Totaux nationaux bruts'!H31),"",'Totaux nationaux bruts'!H32-'Totaux nationaux bruts'!H31))</f>
+        <v/>
+      </c>
+      <c r="I32" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I32),"",IF(ISBLANK('Totaux nationaux bruts'!I31),"",'Totaux nationaux bruts'!I32-'Totaux nationaux bruts'!I31))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <f>'Totaux nationaux bruts'!A33</f>
+        <v>43885</v>
+      </c>
+      <c r="B33" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B33),"",IF(ISBLANK('Totaux nationaux bruts'!B32),"",'Totaux nationaux bruts'!B33-'Totaux nationaux bruts'!B32))</f>
+        <v/>
+      </c>
+      <c r="C33" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C33),"",IF(ISBLANK('Totaux nationaux bruts'!C32),"",'Totaux nationaux bruts'!C33-'Totaux nationaux bruts'!C32))</f>
+        <v/>
+      </c>
+      <c r="D33" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D33),"",IF(ISBLANK('Totaux nationaux bruts'!D32),"",'Totaux nationaux bruts'!D33-'Totaux nationaux bruts'!D32))</f>
+        <v/>
+      </c>
+      <c r="E33" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E33),"",IF(ISBLANK('Totaux nationaux bruts'!E32),"",'Totaux nationaux bruts'!E33-'Totaux nationaux bruts'!E32))</f>
+        <v/>
+      </c>
+      <c r="F33" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F33),"",IF(ISBLANK('Totaux nationaux bruts'!F32),"",'Totaux nationaux bruts'!F33-'Totaux nationaux bruts'!F32))</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G33),"",IF(ISBLANK('Totaux nationaux bruts'!G32),"",'Totaux nationaux bruts'!G33-'Totaux nationaux bruts'!G32))</f>
+        <v/>
+      </c>
+      <c r="H33" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H33),"",IF(ISBLANK('Totaux nationaux bruts'!H32),"",'Totaux nationaux bruts'!H33-'Totaux nationaux bruts'!H32))</f>
+        <v/>
+      </c>
+      <c r="I33" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I33),"",IF(ISBLANK('Totaux nationaux bruts'!I32),"",'Totaux nationaux bruts'!I33-'Totaux nationaux bruts'!I32))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <f>'Totaux nationaux bruts'!A34</f>
+        <v>43886</v>
+      </c>
+      <c r="B34" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B34),"",IF(ISBLANK('Totaux nationaux bruts'!B33),"",'Totaux nationaux bruts'!B34-'Totaux nationaux bruts'!B33))</f>
+        <v/>
+      </c>
+      <c r="C34" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C34),"",IF(ISBLANK('Totaux nationaux bruts'!C33),"",'Totaux nationaux bruts'!C34-'Totaux nationaux bruts'!C33))</f>
+        <v/>
+      </c>
+      <c r="D34" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D34),"",IF(ISBLANK('Totaux nationaux bruts'!D33),"",'Totaux nationaux bruts'!D34-'Totaux nationaux bruts'!D33))</f>
+        <v/>
+      </c>
+      <c r="E34" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E34),"",IF(ISBLANK('Totaux nationaux bruts'!E33),"",'Totaux nationaux bruts'!E34-'Totaux nationaux bruts'!E33))</f>
+        <v/>
+      </c>
+      <c r="F34" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F34),"",IF(ISBLANK('Totaux nationaux bruts'!F33),"",'Totaux nationaux bruts'!F34-'Totaux nationaux bruts'!F33))</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G34),"",IF(ISBLANK('Totaux nationaux bruts'!G33),"",'Totaux nationaux bruts'!G34-'Totaux nationaux bruts'!G33))</f>
+        <v/>
+      </c>
+      <c r="H34" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H34),"",IF(ISBLANK('Totaux nationaux bruts'!H33),"",'Totaux nationaux bruts'!H34-'Totaux nationaux bruts'!H33))</f>
+        <v/>
+      </c>
+      <c r="I34" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I34),"",IF(ISBLANK('Totaux nationaux bruts'!I33),"",'Totaux nationaux bruts'!I34-'Totaux nationaux bruts'!I33))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <f>'Totaux nationaux bruts'!A35</f>
+        <v>43887</v>
+      </c>
+      <c r="B35" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B35),"",IF(ISBLANK('Totaux nationaux bruts'!B34),"",'Totaux nationaux bruts'!B35-'Totaux nationaux bruts'!B34))</f>
+        <v>4</v>
+      </c>
+      <c r="C35" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C35),"",IF(ISBLANK('Totaux nationaux bruts'!C34),"",'Totaux nationaux bruts'!C35-'Totaux nationaux bruts'!C34))</f>
+        <v>2</v>
+      </c>
+      <c r="D35" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D35),"",IF(ISBLANK('Totaux nationaux bruts'!D34),"",'Totaux nationaux bruts'!D35-'Totaux nationaux bruts'!D34))</f>
+        <v/>
+      </c>
+      <c r="E35" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E35),"",IF(ISBLANK('Totaux nationaux bruts'!E34),"",'Totaux nationaux bruts'!E35-'Totaux nationaux bruts'!E34))</f>
+        <v/>
+      </c>
+      <c r="F35" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F35),"",IF(ISBLANK('Totaux nationaux bruts'!F34),"",'Totaux nationaux bruts'!F35-'Totaux nationaux bruts'!F34))</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G35),"",IF(ISBLANK('Totaux nationaux bruts'!G34),"",'Totaux nationaux bruts'!G35-'Totaux nationaux bruts'!G34))</f>
+        <v/>
+      </c>
+      <c r="H35" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H35),"",IF(ISBLANK('Totaux nationaux bruts'!H34),"",'Totaux nationaux bruts'!H35-'Totaux nationaux bruts'!H34))</f>
+        <v/>
+      </c>
+      <c r="I35" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I35),"",IF(ISBLANK('Totaux nationaux bruts'!I34),"",'Totaux nationaux bruts'!I35-'Totaux nationaux bruts'!I34))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <f>'Totaux nationaux bruts'!A36</f>
+        <v>43888</v>
+      </c>
+      <c r="B36" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B36),"",IF(ISBLANK('Totaux nationaux bruts'!B35),"",'Totaux nationaux bruts'!B36-'Totaux nationaux bruts'!B35))</f>
+        <v>20</v>
+      </c>
+      <c r="C36" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C36),"",IF(ISBLANK('Totaux nationaux bruts'!C35),"",'Totaux nationaux bruts'!C36-'Totaux nationaux bruts'!C35))</f>
+        <v>20</v>
+      </c>
+      <c r="D36" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D36),"",IF(ISBLANK('Totaux nationaux bruts'!D35),"",'Totaux nationaux bruts'!D36-'Totaux nationaux bruts'!D35))</f>
+        <v/>
+      </c>
+      <c r="E36" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E36),"",IF(ISBLANK('Totaux nationaux bruts'!E35),"",'Totaux nationaux bruts'!E36-'Totaux nationaux bruts'!E35))</f>
+        <v/>
+      </c>
+      <c r="F36" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F36),"",IF(ISBLANK('Totaux nationaux bruts'!F35),"",'Totaux nationaux bruts'!F36-'Totaux nationaux bruts'!F35))</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G36),"",IF(ISBLANK('Totaux nationaux bruts'!G35),"",'Totaux nationaux bruts'!G36-'Totaux nationaux bruts'!G35))</f>
+        <v/>
+      </c>
+      <c r="H36" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H36),"",IF(ISBLANK('Totaux nationaux bruts'!H35),"",'Totaux nationaux bruts'!H36-'Totaux nationaux bruts'!H35))</f>
+        <v/>
+      </c>
+      <c r="I36" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I36),"",IF(ISBLANK('Totaux nationaux bruts'!I35),"",'Totaux nationaux bruts'!I36-'Totaux nationaux bruts'!I35))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <f>'Totaux nationaux bruts'!A37</f>
+        <v>43889</v>
+      </c>
+      <c r="B37" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B37),"",IF(ISBLANK('Totaux nationaux bruts'!B36),"",'Totaux nationaux bruts'!B37-'Totaux nationaux bruts'!B36))</f>
+        <v>19</v>
+      </c>
+      <c r="C37" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C37),"",IF(ISBLANK('Totaux nationaux bruts'!C36),"",'Totaux nationaux bruts'!C37-'Totaux nationaux bruts'!C36))</f>
+        <v/>
+      </c>
+      <c r="D37" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D37),"",IF(ISBLANK('Totaux nationaux bruts'!D36),"",'Totaux nationaux bruts'!D37-'Totaux nationaux bruts'!D36))</f>
+        <v/>
+      </c>
+      <c r="E37" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E37),"",IF(ISBLANK('Totaux nationaux bruts'!E36),"",'Totaux nationaux bruts'!E37-'Totaux nationaux bruts'!E36))</f>
+        <v/>
+      </c>
+      <c r="F37" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F37),"",IF(ISBLANK('Totaux nationaux bruts'!F36),"",'Totaux nationaux bruts'!F37-'Totaux nationaux bruts'!F36))</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G37),"",IF(ISBLANK('Totaux nationaux bruts'!G36),"",'Totaux nationaux bruts'!G37-'Totaux nationaux bruts'!G36))</f>
+        <v/>
+      </c>
+      <c r="H37" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H37),"",IF(ISBLANK('Totaux nationaux bruts'!H36),"",'Totaux nationaux bruts'!H37-'Totaux nationaux bruts'!H36))</f>
+        <v/>
+      </c>
+      <c r="I37" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I37),"",IF(ISBLANK('Totaux nationaux bruts'!I36),"",'Totaux nationaux bruts'!I37-'Totaux nationaux bruts'!I36))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <f>'Totaux nationaux bruts'!A38</f>
+        <v>43890</v>
+      </c>
+      <c r="B38" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B38),"",IF(ISBLANK('Totaux nationaux bruts'!B37),"",'Totaux nationaux bruts'!B38-'Totaux nationaux bruts'!B37))</f>
+        <v>43</v>
+      </c>
+      <c r="C38" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C38),"",IF(ISBLANK('Totaux nationaux bruts'!C37),"",'Totaux nationaux bruts'!C38-'Totaux nationaux bruts'!C37))</f>
+        <v/>
+      </c>
+      <c r="D38" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D38),"",IF(ISBLANK('Totaux nationaux bruts'!D37),"",'Totaux nationaux bruts'!D38-'Totaux nationaux bruts'!D37))</f>
+        <v/>
+      </c>
+      <c r="E38" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E38),"",IF(ISBLANK('Totaux nationaux bruts'!E37),"",'Totaux nationaux bruts'!E38-'Totaux nationaux bruts'!E37))</f>
+        <v/>
+      </c>
+      <c r="F38" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F38),"",IF(ISBLANK('Totaux nationaux bruts'!F37),"",'Totaux nationaux bruts'!F38-'Totaux nationaux bruts'!F37))</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G38),"",IF(ISBLANK('Totaux nationaux bruts'!G37),"",'Totaux nationaux bruts'!G38-'Totaux nationaux bruts'!G37))</f>
+        <v/>
+      </c>
+      <c r="H38" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H38),"",IF(ISBLANK('Totaux nationaux bruts'!H37),"",'Totaux nationaux bruts'!H38-'Totaux nationaux bruts'!H37))</f>
+        <v/>
+      </c>
+      <c r="I38" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I38),"",IF(ISBLANK('Totaux nationaux bruts'!I37),"",'Totaux nationaux bruts'!I38-'Totaux nationaux bruts'!I37))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <f>'Totaux nationaux bruts'!A39</f>
+        <v>43891</v>
+      </c>
+      <c r="B39" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B39),"",IF(ISBLANK('Totaux nationaux bruts'!B38),"",'Totaux nationaux bruts'!B39-'Totaux nationaux bruts'!B38))</f>
+        <v>30</v>
+      </c>
+      <c r="C39" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C39),"",IF(ISBLANK('Totaux nationaux bruts'!C38),"",'Totaux nationaux bruts'!C39-'Totaux nationaux bruts'!C38))</f>
+        <v>30</v>
+      </c>
+      <c r="D39" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D39),"",IF(ISBLANK('Totaux nationaux bruts'!D38),"",'Totaux nationaux bruts'!D39-'Totaux nationaux bruts'!D38))</f>
+        <v/>
+      </c>
+      <c r="E39" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E39),"",IF(ISBLANK('Totaux nationaux bruts'!E38),"",'Totaux nationaux bruts'!E39-'Totaux nationaux bruts'!E38))</f>
+        <v/>
+      </c>
+      <c r="F39" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F39),"",IF(ISBLANK('Totaux nationaux bruts'!F38),"",'Totaux nationaux bruts'!F39-'Totaux nationaux bruts'!F38))</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G39),"",IF(ISBLANK('Totaux nationaux bruts'!G38),"",'Totaux nationaux bruts'!G39-'Totaux nationaux bruts'!G38))</f>
+        <v/>
+      </c>
+      <c r="H39" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H39),"",IF(ISBLANK('Totaux nationaux bruts'!H38),"",'Totaux nationaux bruts'!H39-'Totaux nationaux bruts'!H38))</f>
+        <v/>
+      </c>
+      <c r="I39" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I39),"",IF(ISBLANK('Totaux nationaux bruts'!I38),"",'Totaux nationaux bruts'!I39-'Totaux nationaux bruts'!I38))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <f>'Totaux nationaux bruts'!A40</f>
+        <v>43892</v>
+      </c>
+      <c r="B40" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B40),"",IF(ISBLANK('Totaux nationaux bruts'!B39),"",'Totaux nationaux bruts'!B40-'Totaux nationaux bruts'!B39))</f>
+        <v>61</v>
+      </c>
+      <c r="C40" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C40),"",IF(ISBLANK('Totaux nationaux bruts'!C39),"",'Totaux nationaux bruts'!C40-'Totaux nationaux bruts'!C39))</f>
+        <v/>
+      </c>
+      <c r="D40" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D40),"",IF(ISBLANK('Totaux nationaux bruts'!D39),"",'Totaux nationaux bruts'!D40-'Totaux nationaux bruts'!D39))</f>
+        <v/>
+      </c>
+      <c r="E40" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E40),"",IF(ISBLANK('Totaux nationaux bruts'!E39),"",'Totaux nationaux bruts'!E40-'Totaux nationaux bruts'!E39))</f>
+        <v/>
+      </c>
+      <c r="F40" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F40),"",IF(ISBLANK('Totaux nationaux bruts'!F39),"",'Totaux nationaux bruts'!F40-'Totaux nationaux bruts'!F39))</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G40),"",IF(ISBLANK('Totaux nationaux bruts'!G39),"",'Totaux nationaux bruts'!G40-'Totaux nationaux bruts'!G39))</f>
+        <v/>
+      </c>
+      <c r="H40" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H40),"",IF(ISBLANK('Totaux nationaux bruts'!H39),"",'Totaux nationaux bruts'!H40-'Totaux nationaux bruts'!H39))</f>
+        <v/>
+      </c>
+      <c r="I40" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I40),"",IF(ISBLANK('Totaux nationaux bruts'!I39),"",'Totaux nationaux bruts'!I40-'Totaux nationaux bruts'!I39))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <f>'Totaux nationaux bruts'!A41</f>
+        <v>43893</v>
+      </c>
+      <c r="B41" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B41),"",IF(ISBLANK('Totaux nationaux bruts'!B40),"",'Totaux nationaux bruts'!B41-'Totaux nationaux bruts'!B40))</f>
+        <v>21</v>
+      </c>
+      <c r="C41" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C41),"",IF(ISBLANK('Totaux nationaux bruts'!C40),"",'Totaux nationaux bruts'!C41-'Totaux nationaux bruts'!C40))</f>
+        <v/>
+      </c>
+      <c r="D41" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D41),"",IF(ISBLANK('Totaux nationaux bruts'!D40),"",'Totaux nationaux bruts'!D41-'Totaux nationaux bruts'!D40))</f>
+        <v/>
+      </c>
+      <c r="E41" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E41),"",IF(ISBLANK('Totaux nationaux bruts'!E40),"",'Totaux nationaux bruts'!E41-'Totaux nationaux bruts'!E40))</f>
+        <v/>
+      </c>
+      <c r="F41" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F41),"",IF(ISBLANK('Totaux nationaux bruts'!F40),"",'Totaux nationaux bruts'!F41-'Totaux nationaux bruts'!F40))</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G41),"",IF(ISBLANK('Totaux nationaux bruts'!G40),"",'Totaux nationaux bruts'!G41-'Totaux nationaux bruts'!G40))</f>
+        <v/>
+      </c>
+      <c r="H41" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H41),"",IF(ISBLANK('Totaux nationaux bruts'!H40),"",'Totaux nationaux bruts'!H41-'Totaux nationaux bruts'!H40))</f>
+        <v/>
+      </c>
+      <c r="I41" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I41),"",IF(ISBLANK('Totaux nationaux bruts'!I40),"",'Totaux nationaux bruts'!I41-'Totaux nationaux bruts'!I40))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <f>'Totaux nationaux bruts'!A42</f>
+        <v>43894</v>
+      </c>
+      <c r="B42" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B42),"",IF(ISBLANK('Totaux nationaux bruts'!B41),"",'Totaux nationaux bruts'!B42-'Totaux nationaux bruts'!B41))</f>
+        <v>73</v>
+      </c>
+      <c r="C42" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C42),"",IF(ISBLANK('Totaux nationaux bruts'!C41),"",'Totaux nationaux bruts'!C42-'Totaux nationaux bruts'!C41))</f>
+        <v/>
+      </c>
+      <c r="D42" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D42),"",IF(ISBLANK('Totaux nationaux bruts'!D41),"",'Totaux nationaux bruts'!D42-'Totaux nationaux bruts'!D41))</f>
+        <v/>
+      </c>
+      <c r="E42" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E42),"",IF(ISBLANK('Totaux nationaux bruts'!E41),"",'Totaux nationaux bruts'!E42-'Totaux nationaux bruts'!E41))</f>
+        <v/>
+      </c>
+      <c r="F42" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F42),"",IF(ISBLANK('Totaux nationaux bruts'!F41),"",'Totaux nationaux bruts'!F42-'Totaux nationaux bruts'!F41))</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G42),"",IF(ISBLANK('Totaux nationaux bruts'!G41),"",'Totaux nationaux bruts'!G42-'Totaux nationaux bruts'!G41))</f>
+        <v/>
+      </c>
+      <c r="H42" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H42),"",IF(ISBLANK('Totaux nationaux bruts'!H41),"",'Totaux nationaux bruts'!H42-'Totaux nationaux bruts'!H41))</f>
+        <v/>
+      </c>
+      <c r="I42" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I42),"",IF(ISBLANK('Totaux nationaux bruts'!I41),"",'Totaux nationaux bruts'!I42-'Totaux nationaux bruts'!I41))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <f>'Totaux nationaux bruts'!A43</f>
+        <v>43895</v>
+      </c>
+      <c r="B43" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B43),"",IF(ISBLANK('Totaux nationaux bruts'!B42),"",'Totaux nationaux bruts'!B43-'Totaux nationaux bruts'!B42))</f>
+        <v>138</v>
+      </c>
+      <c r="C43" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C43),"",IF(ISBLANK('Totaux nationaux bruts'!C42),"",'Totaux nationaux bruts'!C43-'Totaux nationaux bruts'!C42))</f>
+        <v/>
+      </c>
+      <c r="D43" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D43),"",IF(ISBLANK('Totaux nationaux bruts'!D42),"",'Totaux nationaux bruts'!D43-'Totaux nationaux bruts'!D42))</f>
+        <v/>
+      </c>
+      <c r="E43" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E43),"",IF(ISBLANK('Totaux nationaux bruts'!E42),"",'Totaux nationaux bruts'!E43-'Totaux nationaux bruts'!E42))</f>
+        <v>8</v>
+      </c>
+      <c r="F43" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F43),"",IF(ISBLANK('Totaux nationaux bruts'!F42),"",'Totaux nationaux bruts'!F43-'Totaux nationaux bruts'!F42))</f>
+        <v>3</v>
+      </c>
+      <c r="G43" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G43),"",IF(ISBLANK('Totaux nationaux bruts'!G42),"",'Totaux nationaux bruts'!G43-'Totaux nationaux bruts'!G42))</f>
+        <v/>
+      </c>
+      <c r="H43" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H43),"",IF(ISBLANK('Totaux nationaux bruts'!H42),"",'Totaux nationaux bruts'!H43-'Totaux nationaux bruts'!H42))</f>
+        <v/>
+      </c>
+      <c r="I43" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I43),"",IF(ISBLANK('Totaux nationaux bruts'!I42),"",'Totaux nationaux bruts'!I43-'Totaux nationaux bruts'!I42))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <f>'Totaux nationaux bruts'!A44</f>
+        <v>43896</v>
+      </c>
+      <c r="B44" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B44),"",IF(ISBLANK('Totaux nationaux bruts'!B43),"",'Totaux nationaux bruts'!B44-'Totaux nationaux bruts'!B43))</f>
+        <v>190</v>
+      </c>
+      <c r="C44" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C44),"",IF(ISBLANK('Totaux nationaux bruts'!C43),"",'Totaux nationaux bruts'!C44-'Totaux nationaux bruts'!C43))</f>
+        <v/>
+      </c>
+      <c r="D44" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D44),"",IF(ISBLANK('Totaux nationaux bruts'!D43),"",'Totaux nationaux bruts'!D44-'Totaux nationaux bruts'!D43))</f>
+        <v/>
+      </c>
+      <c r="E44" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E44),"",IF(ISBLANK('Totaux nationaux bruts'!E43),"",'Totaux nationaux bruts'!E44-'Totaux nationaux bruts'!E43))</f>
+        <v>16</v>
+      </c>
+      <c r="F44" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F44),"",IF(ISBLANK('Totaux nationaux bruts'!F43),"",'Totaux nationaux bruts'!F44-'Totaux nationaux bruts'!F43))</f>
+        <v>2</v>
+      </c>
+      <c r="G44" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G44),"",IF(ISBLANK('Totaux nationaux bruts'!G43),"",'Totaux nationaux bruts'!G44-'Totaux nationaux bruts'!G43))</f>
+        <v/>
+      </c>
+      <c r="H44" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H44),"",IF(ISBLANK('Totaux nationaux bruts'!H43),"",'Totaux nationaux bruts'!H44-'Totaux nationaux bruts'!H43))</f>
+        <v/>
+      </c>
+      <c r="I44" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I44),"",IF(ISBLANK('Totaux nationaux bruts'!I43),"",'Totaux nationaux bruts'!I44-'Totaux nationaux bruts'!I43))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <f>'Totaux nationaux bruts'!A45</f>
+        <v>43897</v>
+      </c>
+      <c r="B45" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B45),"",IF(ISBLANK('Totaux nationaux bruts'!B44),"",'Totaux nationaux bruts'!B45-'Totaux nationaux bruts'!B44))</f>
+        <v>336</v>
+      </c>
+      <c r="C45" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C45),"",IF(ISBLANK('Totaux nationaux bruts'!C44),"",'Totaux nationaux bruts'!C45-'Totaux nationaux bruts'!C44))</f>
+        <v/>
+      </c>
+      <c r="D45" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D45),"",IF(ISBLANK('Totaux nationaux bruts'!D44),"",'Totaux nationaux bruts'!D45-'Totaux nationaux bruts'!D44))</f>
+        <v/>
+      </c>
+      <c r="E45" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E45),"",IF(ISBLANK('Totaux nationaux bruts'!E44),"",'Totaux nationaux bruts'!E45-'Totaux nationaux bruts'!E44))</f>
+        <v>6</v>
+      </c>
+      <c r="F45" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F45),"",IF(ISBLANK('Totaux nationaux bruts'!F44),"",'Totaux nationaux bruts'!F45-'Totaux nationaux bruts'!F44))</f>
+        <v>7</v>
+      </c>
+      <c r="G45" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G45),"",IF(ISBLANK('Totaux nationaux bruts'!G44),"",'Totaux nationaux bruts'!G45-'Totaux nationaux bruts'!G44))</f>
+        <v/>
+      </c>
+      <c r="H45" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H45),"",IF(ISBLANK('Totaux nationaux bruts'!H44),"",'Totaux nationaux bruts'!H45-'Totaux nationaux bruts'!H44))</f>
+        <v/>
+      </c>
+      <c r="I45" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I45),"",IF(ISBLANK('Totaux nationaux bruts'!I44),"",'Totaux nationaux bruts'!I45-'Totaux nationaux bruts'!I44))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <f>'Totaux nationaux bruts'!A46</f>
+        <v>43898</v>
+      </c>
+      <c r="B46" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B46),"",IF(ISBLANK('Totaux nationaux bruts'!B45),"",'Totaux nationaux bruts'!B46-'Totaux nationaux bruts'!B45))</f>
+        <v>177</v>
+      </c>
+      <c r="C46" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C46),"",IF(ISBLANK('Totaux nationaux bruts'!C45),"",'Totaux nationaux bruts'!C46-'Totaux nationaux bruts'!C45))</f>
+        <v/>
+      </c>
+      <c r="D46" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D46),"",IF(ISBLANK('Totaux nationaux bruts'!D45),"",'Totaux nationaux bruts'!D46-'Totaux nationaux bruts'!D45))</f>
+        <v/>
+      </c>
+      <c r="E46" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E46),"",IF(ISBLANK('Totaux nationaux bruts'!E45),"",'Totaux nationaux bruts'!E46-'Totaux nationaux bruts'!E45))</f>
+        <v/>
+      </c>
+      <c r="F46" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F46),"",IF(ISBLANK('Totaux nationaux bruts'!F45),"",'Totaux nationaux bruts'!F46-'Totaux nationaux bruts'!F45))</f>
+        <v>3</v>
+      </c>
+      <c r="G46" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G46),"",IF(ISBLANK('Totaux nationaux bruts'!G45),"",'Totaux nationaux bruts'!G46-'Totaux nationaux bruts'!G45))</f>
+        <v/>
+      </c>
+      <c r="H46" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H46),"",IF(ISBLANK('Totaux nationaux bruts'!H45),"",'Totaux nationaux bruts'!H46-'Totaux nationaux bruts'!H45))</f>
+        <v/>
+      </c>
+      <c r="I46" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I46),"",IF(ISBLANK('Totaux nationaux bruts'!I45),"",'Totaux nationaux bruts'!I46-'Totaux nationaux bruts'!I45))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <f>'Totaux nationaux bruts'!A47</f>
+        <v>43899</v>
+      </c>
+      <c r="B47" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B47),"",IF(ISBLANK('Totaux nationaux bruts'!B46),"",'Totaux nationaux bruts'!B47-'Totaux nationaux bruts'!B46))</f>
+        <v>286</v>
+      </c>
+      <c r="C47" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C47),"",IF(ISBLANK('Totaux nationaux bruts'!C46),"",'Totaux nationaux bruts'!C47-'Totaux nationaux bruts'!C46))</f>
+        <v/>
+      </c>
+      <c r="D47" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D47),"",IF(ISBLANK('Totaux nationaux bruts'!D46),"",'Totaux nationaux bruts'!D47-'Totaux nationaux bruts'!D46))</f>
+        <v/>
+      </c>
+      <c r="E47" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E47),"",IF(ISBLANK('Totaux nationaux bruts'!E46),"",'Totaux nationaux bruts'!E47-'Totaux nationaux bruts'!E46))</f>
+        <v/>
+      </c>
+      <c r="F47" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F47),"",IF(ISBLANK('Totaux nationaux bruts'!F46),"",'Totaux nationaux bruts'!F47-'Totaux nationaux bruts'!F46))</f>
+        <v>6</v>
+      </c>
+      <c r="G47" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G47),"",IF(ISBLANK('Totaux nationaux bruts'!G46),"",'Totaux nationaux bruts'!G47-'Totaux nationaux bruts'!G46))</f>
+        <v/>
+      </c>
+      <c r="H47" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H47),"",IF(ISBLANK('Totaux nationaux bruts'!H46),"",'Totaux nationaux bruts'!H47-'Totaux nationaux bruts'!H46))</f>
+        <v/>
+      </c>
+      <c r="I47" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I47),"",IF(ISBLANK('Totaux nationaux bruts'!I46),"",'Totaux nationaux bruts'!I47-'Totaux nationaux bruts'!I46))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <f>'Totaux nationaux bruts'!A48</f>
+        <v>43900</v>
+      </c>
+      <c r="B48" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B48),"",IF(ISBLANK('Totaux nationaux bruts'!B47),"",'Totaux nationaux bruts'!B48-'Totaux nationaux bruts'!B47))</f>
+        <v>372</v>
+      </c>
+      <c r="C48" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C48),"",IF(ISBLANK('Totaux nationaux bruts'!C47),"",'Totaux nationaux bruts'!C48-'Totaux nationaux bruts'!C47))</f>
+        <v/>
+      </c>
+      <c r="D48" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D48),"",IF(ISBLANK('Totaux nationaux bruts'!D47),"",'Totaux nationaux bruts'!D48-'Totaux nationaux bruts'!D47))</f>
+        <v/>
+      </c>
+      <c r="E48" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E48),"",IF(ISBLANK('Totaux nationaux bruts'!E47),"",'Totaux nationaux bruts'!E48-'Totaux nationaux bruts'!E47))</f>
+        <v>20</v>
+      </c>
+      <c r="F48" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F48),"",IF(ISBLANK('Totaux nationaux bruts'!F47),"",'Totaux nationaux bruts'!F48-'Totaux nationaux bruts'!F47))</f>
+        <v>8</v>
+      </c>
+      <c r="G48" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G48),"",IF(ISBLANK('Totaux nationaux bruts'!G47),"",'Totaux nationaux bruts'!G48-'Totaux nationaux bruts'!G47))</f>
+        <v/>
+      </c>
+      <c r="H48" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H48),"",IF(ISBLANK('Totaux nationaux bruts'!H47),"",'Totaux nationaux bruts'!H48-'Totaux nationaux bruts'!H47))</f>
+        <v/>
+      </c>
+      <c r="I48" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I48),"",IF(ISBLANK('Totaux nationaux bruts'!I47),"",'Totaux nationaux bruts'!I48-'Totaux nationaux bruts'!I47))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <f>'Totaux nationaux bruts'!A49</f>
+        <v>43901</v>
+      </c>
+      <c r="B49" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B49),"",IF(ISBLANK('Totaux nationaux bruts'!B48),"",'Totaux nationaux bruts'!B49-'Totaux nationaux bruts'!B48))</f>
+        <v>497</v>
+      </c>
+      <c r="C49" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C49),"",IF(ISBLANK('Totaux nationaux bruts'!C48),"",'Totaux nationaux bruts'!C49-'Totaux nationaux bruts'!C48))</f>
+        <v/>
+      </c>
+      <c r="D49" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D49),"",IF(ISBLANK('Totaux nationaux bruts'!D48),"",'Totaux nationaux bruts'!D49-'Totaux nationaux bruts'!D48))</f>
+        <v/>
+      </c>
+      <c r="E49" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E49),"",IF(ISBLANK('Totaux nationaux bruts'!E48),"",'Totaux nationaux bruts'!E49-'Totaux nationaux bruts'!E48))</f>
+        <v>19</v>
+      </c>
+      <c r="F49" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F49),"",IF(ISBLANK('Totaux nationaux bruts'!F48),"",'Totaux nationaux bruts'!F49-'Totaux nationaux bruts'!F48))</f>
+        <v>15</v>
+      </c>
+      <c r="G49" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G49),"",IF(ISBLANK('Totaux nationaux bruts'!G48),"",'Totaux nationaux bruts'!G49-'Totaux nationaux bruts'!G48))</f>
+        <v/>
+      </c>
+      <c r="H49" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H49),"",IF(ISBLANK('Totaux nationaux bruts'!H48),"",'Totaux nationaux bruts'!H49-'Totaux nationaux bruts'!H48))</f>
+        <v/>
+      </c>
+      <c r="I49" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I49),"",IF(ISBLANK('Totaux nationaux bruts'!I48),"",'Totaux nationaux bruts'!I49-'Totaux nationaux bruts'!I48))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <f>'Totaux nationaux bruts'!A50</f>
+        <v>43902</v>
+      </c>
+      <c r="B50" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B50),"",IF(ISBLANK('Totaux nationaux bruts'!B49),"",'Totaux nationaux bruts'!B50-'Totaux nationaux bruts'!B49))</f>
+        <v>595</v>
+      </c>
+      <c r="C50" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C50),"",IF(ISBLANK('Totaux nationaux bruts'!C49),"",'Totaux nationaux bruts'!C50-'Totaux nationaux bruts'!C49))</f>
+        <v/>
+      </c>
+      <c r="D50" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D50),"",IF(ISBLANK('Totaux nationaux bruts'!D49),"",'Totaux nationaux bruts'!D50-'Totaux nationaux bruts'!D49))</f>
+        <v/>
+      </c>
+      <c r="E50" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E50),"",IF(ISBLANK('Totaux nationaux bruts'!E49),"",'Totaux nationaux bruts'!E50-'Totaux nationaux bruts'!E49))</f>
+        <v>24</v>
+      </c>
+      <c r="F50" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F50),"",IF(ISBLANK('Totaux nationaux bruts'!F49),"",'Totaux nationaux bruts'!F50-'Totaux nationaux bruts'!F49))</f>
+        <v>13</v>
+      </c>
+      <c r="G50" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G50),"",IF(ISBLANK('Totaux nationaux bruts'!G49),"",'Totaux nationaux bruts'!G50-'Totaux nationaux bruts'!G49))</f>
+        <v/>
+      </c>
+      <c r="H50" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H50),"",IF(ISBLANK('Totaux nationaux bruts'!H49),"",'Totaux nationaux bruts'!H50-'Totaux nationaux bruts'!H49))</f>
+        <v/>
+      </c>
+      <c r="I50" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I50),"",IF(ISBLANK('Totaux nationaux bruts'!I49),"",'Totaux nationaux bruts'!I50-'Totaux nationaux bruts'!I49))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <f>'Totaux nationaux bruts'!A51</f>
+        <v>43903</v>
+      </c>
+      <c r="B51" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B51),"",IF(ISBLANK('Totaux nationaux bruts'!B50),"",'Totaux nationaux bruts'!B51-'Totaux nationaux bruts'!B50))</f>
+        <v>785</v>
+      </c>
+      <c r="C51" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C51),"",IF(ISBLANK('Totaux nationaux bruts'!C50),"",'Totaux nationaux bruts'!C51-'Totaux nationaux bruts'!C50))</f>
+        <v/>
+      </c>
+      <c r="D51" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D51),"",IF(ISBLANK('Totaux nationaux bruts'!D50),"",'Totaux nationaux bruts'!D51-'Totaux nationaux bruts'!D50))</f>
+        <v/>
+      </c>
+      <c r="E51" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E51),"",IF(ISBLANK('Totaux nationaux bruts'!E50),"",'Totaux nationaux bruts'!E51-'Totaux nationaux bruts'!E50))</f>
+        <v>25</v>
+      </c>
+      <c r="F51" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F51),"",IF(ISBLANK('Totaux nationaux bruts'!F50),"",'Totaux nationaux bruts'!F51-'Totaux nationaux bruts'!F50))</f>
+        <v>18</v>
+      </c>
+      <c r="G51" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G51),"",IF(ISBLANK('Totaux nationaux bruts'!G50),"",'Totaux nationaux bruts'!G51-'Totaux nationaux bruts'!G50))</f>
+        <v/>
+      </c>
+      <c r="H51" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H51),"",IF(ISBLANK('Totaux nationaux bruts'!H50),"",'Totaux nationaux bruts'!H51-'Totaux nationaux bruts'!H50))</f>
+        <v/>
+      </c>
+      <c r="I51" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I51),"",IF(ISBLANK('Totaux nationaux bruts'!I50),"",'Totaux nationaux bruts'!I51-'Totaux nationaux bruts'!I50))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <f>'Totaux nationaux bruts'!A52</f>
+        <v>43904</v>
+      </c>
+      <c r="B52" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B52),"",IF(ISBLANK('Totaux nationaux bruts'!B51),"",'Totaux nationaux bruts'!B52-'Totaux nationaux bruts'!B51))</f>
+        <v>839</v>
+      </c>
+      <c r="C52" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C52),"",IF(ISBLANK('Totaux nationaux bruts'!C51),"",'Totaux nationaux bruts'!C52-'Totaux nationaux bruts'!C51))</f>
+        <v/>
+      </c>
+      <c r="D52" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D52),"",IF(ISBLANK('Totaux nationaux bruts'!D51),"",'Totaux nationaux bruts'!D52-'Totaux nationaux bruts'!D51))</f>
+        <v/>
+      </c>
+      <c r="E52" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E52),"",IF(ISBLANK('Totaux nationaux bruts'!E51),"",'Totaux nationaux bruts'!E52-'Totaux nationaux bruts'!E51))</f>
+        <v>146</v>
+      </c>
+      <c r="F52" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F52),"",IF(ISBLANK('Totaux nationaux bruts'!F51),"",'Totaux nationaux bruts'!F52-'Totaux nationaux bruts'!F51))</f>
+        <v>12</v>
+      </c>
+      <c r="G52" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G52),"",IF(ISBLANK('Totaux nationaux bruts'!G51),"",'Totaux nationaux bruts'!G52-'Totaux nationaux bruts'!G51))</f>
+        <v/>
+      </c>
+      <c r="H52" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H52),"",IF(ISBLANK('Totaux nationaux bruts'!H51),"",'Totaux nationaux bruts'!H52-'Totaux nationaux bruts'!H51))</f>
+        <v/>
+      </c>
+      <c r="I52" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I52),"",IF(ISBLANK('Totaux nationaux bruts'!I51),"",'Totaux nationaux bruts'!I52-'Totaux nationaux bruts'!I51))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <f>'Totaux nationaux bruts'!A53</f>
+        <v>43905</v>
+      </c>
+      <c r="B53" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B53),"",IF(ISBLANK('Totaux nationaux bruts'!B52),"",'Totaux nationaux bruts'!B53-'Totaux nationaux bruts'!B52))</f>
+        <v>1878</v>
+      </c>
+      <c r="C53" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C53),"",IF(ISBLANK('Totaux nationaux bruts'!C52),"",'Totaux nationaux bruts'!C53-'Totaux nationaux bruts'!C52))</f>
+        <v/>
+      </c>
+      <c r="D53" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D53),"",IF(ISBLANK('Totaux nationaux bruts'!D52),"",'Totaux nationaux bruts'!D53-'Totaux nationaux bruts'!D52))</f>
+        <v/>
+      </c>
+      <c r="E53" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E53),"",IF(ISBLANK('Totaux nationaux bruts'!E52),"",'Totaux nationaux bruts'!E53-'Totaux nationaux bruts'!E52))</f>
+        <v/>
+      </c>
+      <c r="F53" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F53),"",IF(ISBLANK('Totaux nationaux bruts'!F52),"",'Totaux nationaux bruts'!F53-'Totaux nationaux bruts'!F52))</f>
+        <v>70</v>
+      </c>
+      <c r="G53" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G53),"",IF(ISBLANK('Totaux nationaux bruts'!G52),"",'Totaux nationaux bruts'!G53-'Totaux nationaux bruts'!G52))</f>
+        <v/>
+      </c>
+      <c r="H53" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H53),"",IF(ISBLANK('Totaux nationaux bruts'!H52),"",'Totaux nationaux bruts'!H53-'Totaux nationaux bruts'!H52))</f>
+        <v/>
+      </c>
+      <c r="I53" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I53),"",IF(ISBLANK('Totaux nationaux bruts'!I52),"",'Totaux nationaux bruts'!I53-'Totaux nationaux bruts'!I52))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <f>'Totaux nationaux bruts'!A54</f>
+        <v>43906</v>
+      </c>
+      <c r="B54" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B54),"",IF(ISBLANK('Totaux nationaux bruts'!B53),"",'Totaux nationaux bruts'!B54-'Totaux nationaux bruts'!B53))</f>
+        <v>255</v>
+      </c>
+      <c r="C54" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C54),"",IF(ISBLANK('Totaux nationaux bruts'!C53),"",'Totaux nationaux bruts'!C54-'Totaux nationaux bruts'!C53))</f>
+        <v/>
+      </c>
+      <c r="D54" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D54),"",IF(ISBLANK('Totaux nationaux bruts'!D53),"",'Totaux nationaux bruts'!D54-'Totaux nationaux bruts'!D53))</f>
+        <v/>
+      </c>
+      <c r="E54" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E54),"",IF(ISBLANK('Totaux nationaux bruts'!E53),"",'Totaux nationaux bruts'!E54-'Totaux nationaux bruts'!E53))</f>
+        <v/>
+      </c>
+      <c r="F54" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F54),"",IF(ISBLANK('Totaux nationaux bruts'!F53),"",'Totaux nationaux bruts'!F54-'Totaux nationaux bruts'!F53))</f>
+        <v>-13</v>
+      </c>
+      <c r="G54" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G54),"",IF(ISBLANK('Totaux nationaux bruts'!G53),"",'Totaux nationaux bruts'!G54-'Totaux nationaux bruts'!G53))</f>
+        <v/>
+      </c>
+      <c r="H54" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H54),"",IF(ISBLANK('Totaux nationaux bruts'!H53),"",'Totaux nationaux bruts'!H54-'Totaux nationaux bruts'!H53))</f>
+        <v/>
+      </c>
+      <c r="I54" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I54),"",IF(ISBLANK('Totaux nationaux bruts'!I53),"",'Totaux nationaux bruts'!I54-'Totaux nationaux bruts'!I53))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
+        <f>'Totaux nationaux bruts'!A55</f>
+        <v>43907</v>
+      </c>
+      <c r="B55" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B55),"",IF(ISBLANK('Totaux nationaux bruts'!B54),"",'Totaux nationaux bruts'!B55-'Totaux nationaux bruts'!B54))</f>
+        <v>1097</v>
+      </c>
+      <c r="C55" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C55),"",IF(ISBLANK('Totaux nationaux bruts'!C54),"",'Totaux nationaux bruts'!C55-'Totaux nationaux bruts'!C54))</f>
+        <v/>
+      </c>
+      <c r="D55" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D55),"",IF(ISBLANK('Totaux nationaux bruts'!D54),"",'Totaux nationaux bruts'!D55-'Totaux nationaux bruts'!D54))</f>
+        <v/>
+      </c>
+      <c r="E55" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E55),"",IF(ISBLANK('Totaux nationaux bruts'!E54),"",'Totaux nationaux bruts'!E55-'Totaux nationaux bruts'!E54))</f>
+        <v/>
+      </c>
+      <c r="F55" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F55),"",IF(ISBLANK('Totaux nationaux bruts'!F54),"",'Totaux nationaux bruts'!F55-'Totaux nationaux bruts'!F54))</f>
+        <v>27</v>
+      </c>
+      <c r="G55" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G55),"",IF(ISBLANK('Totaux nationaux bruts'!G54),"",'Totaux nationaux bruts'!G55-'Totaux nationaux bruts'!G54))</f>
+        <v/>
+      </c>
+      <c r="H55" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H55),"",IF(ISBLANK('Totaux nationaux bruts'!H54),"",'Totaux nationaux bruts'!H55-'Totaux nationaux bruts'!H54))</f>
+        <v/>
+      </c>
+      <c r="I55" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I55),"",IF(ISBLANK('Totaux nationaux bruts'!I54),"",'Totaux nationaux bruts'!I55-'Totaux nationaux bruts'!I54))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
+        <f>'Totaux nationaux bruts'!A56</f>
+        <v>43908</v>
+      </c>
+      <c r="B56" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B56),"",IF(ISBLANK('Totaux nationaux bruts'!B55),"",'Totaux nationaux bruts'!B56-'Totaux nationaux bruts'!B55))</f>
+        <v>1404</v>
+      </c>
+      <c r="C56" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C56),"",IF(ISBLANK('Totaux nationaux bruts'!C55),"",'Totaux nationaux bruts'!C56-'Totaux nationaux bruts'!C55))</f>
+        <v>1047</v>
+      </c>
+      <c r="D56" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D56),"",IF(ISBLANK('Totaux nationaux bruts'!D55),"",'Totaux nationaux bruts'!D56-'Totaux nationaux bruts'!D55))</f>
+        <v>398</v>
+      </c>
+      <c r="E56" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E56),"",IF(ISBLANK('Totaux nationaux bruts'!E55),"",'Totaux nationaux bruts'!E56-'Totaux nationaux bruts'!E55))</f>
+        <v>232</v>
+      </c>
+      <c r="F56" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F56),"",IF(ISBLANK('Totaux nationaux bruts'!F55),"",'Totaux nationaux bruts'!F56-'Totaux nationaux bruts'!F55))</f>
+        <v>89</v>
+      </c>
+      <c r="G56" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G56),"",IF(ISBLANK('Totaux nationaux bruts'!G55),"",'Totaux nationaux bruts'!G56-'Totaux nationaux bruts'!G55))</f>
+        <v/>
+      </c>
+      <c r="H56" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H56),"",IF(ISBLANK('Totaux nationaux bruts'!H55),"",'Totaux nationaux bruts'!H56-'Totaux nationaux bruts'!H55))</f>
+        <v/>
+      </c>
+      <c r="I56" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I56),"",IF(ISBLANK('Totaux nationaux bruts'!I55),"",'Totaux nationaux bruts'!I56-'Totaux nationaux bruts'!I55))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
+        <f>'Totaux nationaux bruts'!A57</f>
+        <v>43909</v>
+      </c>
+      <c r="B57" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B57),"",IF(ISBLANK('Totaux nationaux bruts'!B56),"",'Totaux nationaux bruts'!B57-'Totaux nationaux bruts'!B56))</f>
+        <v>1861</v>
+      </c>
+      <c r="C57" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C57),"",IF(ISBLANK('Totaux nationaux bruts'!C56),"",'Totaux nationaux bruts'!C57-'Totaux nationaux bruts'!C56))</f>
+        <v>835</v>
+      </c>
+      <c r="D57" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D57),"",IF(ISBLANK('Totaux nationaux bruts'!D56),"",'Totaux nationaux bruts'!D57-'Totaux nationaux bruts'!D56))</f>
+        <v>300</v>
+      </c>
+      <c r="E57" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E57),"",IF(ISBLANK('Totaux nationaux bruts'!E56),"",'Totaux nationaux bruts'!E57-'Totaux nationaux bruts'!E56))</f>
+        <v>191</v>
+      </c>
+      <c r="F57" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F57),"",IF(ISBLANK('Totaux nationaux bruts'!F56),"",'Totaux nationaux bruts'!F57-'Totaux nationaux bruts'!F56))</f>
+        <v>108</v>
+      </c>
+      <c r="G57" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G57),"",IF(ISBLANK('Totaux nationaux bruts'!G56),"",'Totaux nationaux bruts'!G57-'Totaux nationaux bruts'!G56))</f>
+        <v/>
+      </c>
+      <c r="H57" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H57),"",IF(ISBLANK('Totaux nationaux bruts'!H56),"",'Totaux nationaux bruts'!H57-'Totaux nationaux bruts'!H56))</f>
+        <v/>
+      </c>
+      <c r="I57" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I57),"",IF(ISBLANK('Totaux nationaux bruts'!I56),"",'Totaux nationaux bruts'!I57-'Totaux nationaux bruts'!I56))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
+        <f>'Totaux nationaux bruts'!A58</f>
+        <v>43910</v>
+      </c>
+      <c r="B58" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B58),"",IF(ISBLANK('Totaux nationaux bruts'!B57),"",'Totaux nationaux bruts'!B58-'Totaux nationaux bruts'!B57))</f>
+        <v>1617</v>
+      </c>
+      <c r="C58" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C58),"",IF(ISBLANK('Totaux nationaux bruts'!C57),"",'Totaux nationaux bruts'!C58-'Totaux nationaux bruts'!C57))</f>
+        <v>765</v>
+      </c>
+      <c r="D58" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D58),"",IF(ISBLANK('Totaux nationaux bruts'!D57),"",'Totaux nationaux bruts'!D58-'Totaux nationaux bruts'!D57))</f>
+        <v>287</v>
+      </c>
+      <c r="E58" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E58),"",IF(ISBLANK('Totaux nationaux bruts'!E57),"",'Totaux nationaux bruts'!E58-'Totaux nationaux bruts'!E57))</f>
+        <v>175</v>
+      </c>
+      <c r="F58" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F58),"",IF(ISBLANK('Totaux nationaux bruts'!F57),"",'Totaux nationaux bruts'!F58-'Totaux nationaux bruts'!F57))</f>
+        <v>78</v>
+      </c>
+      <c r="G58" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G58),"",IF(ISBLANK('Totaux nationaux bruts'!G57),"",'Totaux nationaux bruts'!G58-'Totaux nationaux bruts'!G57))</f>
+        <v/>
+      </c>
+      <c r="H58" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H58),"",IF(ISBLANK('Totaux nationaux bruts'!H57),"",'Totaux nationaux bruts'!H58-'Totaux nationaux bruts'!H57))</f>
+        <v/>
+      </c>
+      <c r="I58" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I58),"",IF(ISBLANK('Totaux nationaux bruts'!I57),"",'Totaux nationaux bruts'!I58-'Totaux nationaux bruts'!I57))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <f>'Totaux nationaux bruts'!A59</f>
+        <v>43911</v>
+      </c>
+      <c r="B59" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B59),"",IF(ISBLANK('Totaux nationaux bruts'!B58),"",'Totaux nationaux bruts'!B59-'Totaux nationaux bruts'!B58))</f>
+        <v>1847</v>
+      </c>
+      <c r="C59" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C59),"",IF(ISBLANK('Totaux nationaux bruts'!C58),"",'Totaux nationaux bruts'!C59-'Totaux nationaux bruts'!C58))</f>
+        <v>946</v>
+      </c>
+      <c r="D59" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D59),"",IF(ISBLANK('Totaux nationaux bruts'!D58),"",'Totaux nationaux bruts'!D59-'Totaux nationaux bruts'!D58))</f>
+        <v>224</v>
+      </c>
+      <c r="E59" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E59),"",IF(ISBLANK('Totaux nationaux bruts'!E58),"",'Totaux nationaux bruts'!E59-'Totaux nationaux bruts'!E58))</f>
+        <v>228</v>
+      </c>
+      <c r="F59" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F59),"",IF(ISBLANK('Totaux nationaux bruts'!F58),"",'Totaux nationaux bruts'!F59-'Totaux nationaux bruts'!F58))</f>
+        <v>112</v>
+      </c>
+      <c r="G59" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G59),"",IF(ISBLANK('Totaux nationaux bruts'!G58),"",'Totaux nationaux bruts'!G59-'Totaux nationaux bruts'!G58))</f>
+        <v/>
+      </c>
+      <c r="H59" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H59),"",IF(ISBLANK('Totaux nationaux bruts'!H58),"",'Totaux nationaux bruts'!H59-'Totaux nationaux bruts'!H58))</f>
+        <v/>
+      </c>
+      <c r="I59" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I59),"",IF(ISBLANK('Totaux nationaux bruts'!I58),"",'Totaux nationaux bruts'!I59-'Totaux nationaux bruts'!I58))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
+        <f>'Totaux nationaux bruts'!A60</f>
+        <v>43912</v>
+      </c>
+      <c r="B60" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B60),"",IF(ISBLANK('Totaux nationaux bruts'!B59),"",'Totaux nationaux bruts'!B60-'Totaux nationaux bruts'!B59))</f>
+        <v>2230</v>
+      </c>
+      <c r="C60" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C60),"",IF(ISBLANK('Totaux nationaux bruts'!C59),"",'Totaux nationaux bruts'!C60-'Totaux nationaux bruts'!C59))</f>
+        <v>1068</v>
+      </c>
+      <c r="D60" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D60),"",IF(ISBLANK('Totaux nationaux bruts'!D59),"",'Totaux nationaux bruts'!D60-'Totaux nationaux bruts'!D59))</f>
+        <v>389</v>
+      </c>
+      <c r="E60" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E60),"",IF(ISBLANK('Totaux nationaux bruts'!E59),"",'Totaux nationaux bruts'!E60-'Totaux nationaux bruts'!E59))</f>
+        <v>221</v>
+      </c>
+      <c r="F60" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F60),"",IF(ISBLANK('Totaux nationaux bruts'!F59),"",'Totaux nationaux bruts'!F60-'Totaux nationaux bruts'!F59))</f>
+        <v>112</v>
+      </c>
+      <c r="G60" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G60),"",IF(ISBLANK('Totaux nationaux bruts'!G59),"",'Totaux nationaux bruts'!G60-'Totaux nationaux bruts'!G59))</f>
+        <v/>
+      </c>
+      <c r="H60" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H60),"",IF(ISBLANK('Totaux nationaux bruts'!H59),"",'Totaux nationaux bruts'!H60-'Totaux nationaux bruts'!H59))</f>
+        <v/>
+      </c>
+      <c r="I60" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I60),"",IF(ISBLANK('Totaux nationaux bruts'!I59),"",'Totaux nationaux bruts'!I60-'Totaux nationaux bruts'!I59))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <f>'Totaux nationaux bruts'!A61</f>
+        <v>43913</v>
+      </c>
+      <c r="B61" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B61),"",IF(ISBLANK('Totaux nationaux bruts'!B60),"",'Totaux nationaux bruts'!B61-'Totaux nationaux bruts'!B60))</f>
+        <v>3167</v>
+      </c>
+      <c r="C61" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C61),"",IF(ISBLANK('Totaux nationaux bruts'!C60),"",'Totaux nationaux bruts'!C61-'Totaux nationaux bruts'!C60))</f>
+        <v>1435</v>
+      </c>
+      <c r="D61" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D61),"",IF(ISBLANK('Totaux nationaux bruts'!D60),"",'Totaux nationaux bruts'!D61-'Totaux nationaux bruts'!D60))</f>
+        <v>367</v>
+      </c>
+      <c r="E61" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E61),"",IF(ISBLANK('Totaux nationaux bruts'!E60),"",'Totaux nationaux bruts'!E61-'Totaux nationaux bruts'!E60))</f>
+        <v>336</v>
+      </c>
+      <c r="F61" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F61),"",IF(ISBLANK('Totaux nationaux bruts'!F60),"",'Totaux nationaux bruts'!F61-'Totaux nationaux bruts'!F60))</f>
+        <v>186</v>
+      </c>
+      <c r="G61" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G61),"",IF(ISBLANK('Totaux nationaux bruts'!G60),"",'Totaux nationaux bruts'!G61-'Totaux nationaux bruts'!G60))</f>
+        <v/>
+      </c>
+      <c r="H61" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H61),"",IF(ISBLANK('Totaux nationaux bruts'!H60),"",'Totaux nationaux bruts'!H61-'Totaux nationaux bruts'!H60))</f>
+        <v/>
+      </c>
+      <c r="I61" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I61),"",IF(ISBLANK('Totaux nationaux bruts'!I60),"",'Totaux nationaux bruts'!I61-'Totaux nationaux bruts'!I60))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="12">
+        <f>'Totaux nationaux bruts'!A62</f>
+        <v>43914</v>
+      </c>
+      <c r="B62" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B62),"",IF(ISBLANK('Totaux nationaux bruts'!B61),"",'Totaux nationaux bruts'!B62-'Totaux nationaux bruts'!B61))</f>
+        <v>2446</v>
+      </c>
+      <c r="C62" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C62),"",IF(ISBLANK('Totaux nationaux bruts'!C61),"",'Totaux nationaux bruts'!C62-'Totaux nationaux bruts'!C61))</f>
+        <v>1501</v>
+      </c>
+      <c r="D62" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D62),"",IF(ISBLANK('Totaux nationaux bruts'!D61),"",'Totaux nationaux bruts'!D62-'Totaux nationaux bruts'!D61))</f>
+        <v>714</v>
+      </c>
+      <c r="E62" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E62),"",IF(ISBLANK('Totaux nationaux bruts'!E61),"",'Totaux nationaux bruts'!E62-'Totaux nationaux bruts'!E61))</f>
+        <v>434</v>
+      </c>
+      <c r="F62" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F62),"",IF(ISBLANK('Totaux nationaux bruts'!F61),"",'Totaux nationaux bruts'!F62-'Totaux nationaux bruts'!F61))</f>
+        <v>240</v>
+      </c>
+      <c r="G62" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G62),"",IF(ISBLANK('Totaux nationaux bruts'!G61),"",'Totaux nationaux bruts'!G62-'Totaux nationaux bruts'!G61))</f>
+        <v/>
+      </c>
+      <c r="H62" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H62),"",IF(ISBLANK('Totaux nationaux bruts'!H61),"",'Totaux nationaux bruts'!H62-'Totaux nationaux bruts'!H61))</f>
+        <v/>
+      </c>
+      <c r="I62" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I62),"",IF(ISBLANK('Totaux nationaux bruts'!I61),"",'Totaux nationaux bruts'!I62-'Totaux nationaux bruts'!I61))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="12">
+        <f>'Totaux nationaux bruts'!A63</f>
+        <v>43915</v>
+      </c>
+      <c r="B63" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B63),"",IF(ISBLANK('Totaux nationaux bruts'!B62),"",'Totaux nationaux bruts'!B63-'Totaux nationaux bruts'!B62))</f>
+        <v>2931</v>
+      </c>
+      <c r="C63" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C63),"",IF(ISBLANK('Totaux nationaux bruts'!C62),"",'Totaux nationaux bruts'!C63-'Totaux nationaux bruts'!C62))</f>
+        <v>1363</v>
+      </c>
+      <c r="D63" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D63),"",IF(ISBLANK('Totaux nationaux bruts'!D62),"",'Totaux nationaux bruts'!D63-'Totaux nationaux bruts'!D62))</f>
+        <v>619</v>
+      </c>
+      <c r="E63" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E63),"",IF(ISBLANK('Totaux nationaux bruts'!E62),"",'Totaux nationaux bruts'!E63-'Totaux nationaux bruts'!E62))</f>
+        <v>311</v>
+      </c>
+      <c r="F63" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F63),"",IF(ISBLANK('Totaux nationaux bruts'!F62),"",'Totaux nationaux bruts'!F63-'Totaux nationaux bruts'!F62))</f>
+        <v>231</v>
+      </c>
+      <c r="G63" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G63),"",IF(ISBLANK('Totaux nationaux bruts'!G62),"",'Totaux nationaux bruts'!G63-'Totaux nationaux bruts'!G62))</f>
+        <v/>
+      </c>
+      <c r="H63" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H63),"",IF(ISBLANK('Totaux nationaux bruts'!H62),"",'Totaux nationaux bruts'!H63-'Totaux nationaux bruts'!H62))</f>
+        <v/>
+      </c>
+      <c r="I63" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I63),"",IF(ISBLANK('Totaux nationaux bruts'!I62),"",'Totaux nationaux bruts'!I63-'Totaux nationaux bruts'!I62))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="12">
+        <f>'Totaux nationaux bruts'!A64</f>
+        <v>43916</v>
+      </c>
+      <c r="B64" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B64),"",IF(ISBLANK('Totaux nationaux bruts'!B63),"",'Totaux nationaux bruts'!B64-'Totaux nationaux bruts'!B63))</f>
+        <v>3922</v>
+      </c>
+      <c r="C64" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C64),"",IF(ISBLANK('Totaux nationaux bruts'!C63),"",'Totaux nationaux bruts'!C64-'Totaux nationaux bruts'!C63))</f>
+        <v>2365</v>
+      </c>
+      <c r="D64" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D64),"",IF(ISBLANK('Totaux nationaux bruts'!D63),"",'Totaux nationaux bruts'!D64-'Totaux nationaux bruts'!D63))</f>
+        <v>1048</v>
+      </c>
+      <c r="E64" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E64),"",IF(ISBLANK('Totaux nationaux bruts'!E63),"",'Totaux nationaux bruts'!E64-'Totaux nationaux bruts'!E63))</f>
+        <v>548</v>
+      </c>
+      <c r="F64" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F64),"",IF(ISBLANK('Totaux nationaux bruts'!F63),"",'Totaux nationaux bruts'!F64-'Totaux nationaux bruts'!F63))</f>
+        <v>365</v>
+      </c>
+      <c r="G64" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G64),"",IF(ISBLANK('Totaux nationaux bruts'!G63),"",'Totaux nationaux bruts'!G64-'Totaux nationaux bruts'!G63))</f>
+        <v/>
+      </c>
+      <c r="H64" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H64),"",IF(ISBLANK('Totaux nationaux bruts'!H63),"",'Totaux nationaux bruts'!H64-'Totaux nationaux bruts'!H63))</f>
+        <v/>
+      </c>
+      <c r="I64" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I64),"",IF(ISBLANK('Totaux nationaux bruts'!I63),"",'Totaux nationaux bruts'!I64-'Totaux nationaux bruts'!I63))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="12">
+        <f>'Totaux nationaux bruts'!A65</f>
+        <v>43917</v>
+      </c>
+      <c r="B65" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B65),"",IF(ISBLANK('Totaux nationaux bruts'!B64),"",'Totaux nationaux bruts'!B65-'Totaux nationaux bruts'!B64))</f>
+        <v>3809</v>
+      </c>
+      <c r="C65" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C65),"",IF(ISBLANK('Totaux nationaux bruts'!C64),"",'Totaux nationaux bruts'!C65-'Totaux nationaux bruts'!C64))</f>
+        <v>1828</v>
+      </c>
+      <c r="D65" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D65),"",IF(ISBLANK('Totaux nationaux bruts'!D64),"",'Totaux nationaux bruts'!D65-'Totaux nationaux bruts'!D64))</f>
+        <v>750</v>
+      </c>
+      <c r="E65" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E65),"",IF(ISBLANK('Totaux nationaux bruts'!E64),"",'Totaux nationaux bruts'!E65-'Totaux nationaux bruts'!E64))</f>
+        <v>412</v>
+      </c>
+      <c r="F65" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F65),"",IF(ISBLANK('Totaux nationaux bruts'!F64),"",'Totaux nationaux bruts'!F65-'Totaux nationaux bruts'!F64))</f>
+        <v>299</v>
+      </c>
+      <c r="G65" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G65),"",IF(ISBLANK('Totaux nationaux bruts'!G64),"",'Totaux nationaux bruts'!G65-'Totaux nationaux bruts'!G64))</f>
+        <v/>
+      </c>
+      <c r="H65" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H65),"",IF(ISBLANK('Totaux nationaux bruts'!H64),"",'Totaux nationaux bruts'!H65-'Totaux nationaux bruts'!H64))</f>
+        <v/>
+      </c>
+      <c r="I65" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I65),"",IF(ISBLANK('Totaux nationaux bruts'!I64),"",'Totaux nationaux bruts'!I65-'Totaux nationaux bruts'!I64))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="12">
+        <f>'Totaux nationaux bruts'!A66</f>
+        <v>43918</v>
+      </c>
+      <c r="B66" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B66),"",IF(ISBLANK('Totaux nationaux bruts'!B65),"",'Totaux nationaux bruts'!B66-'Totaux nationaux bruts'!B65))</f>
+        <v>4611</v>
+      </c>
+      <c r="C66" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C66),"",IF(ISBLANK('Totaux nationaux bruts'!C65),"",'Totaux nationaux bruts'!C66-'Totaux nationaux bruts'!C65))</f>
+        <v>1888</v>
+      </c>
+      <c r="D66" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D66),"",IF(ISBLANK('Totaux nationaux bruts'!D65),"",'Totaux nationaux bruts'!D66-'Totaux nationaux bruts'!D65))</f>
+        <v>926</v>
+      </c>
+      <c r="E66" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E66),"",IF(ISBLANK('Totaux nationaux bruts'!E65),"",'Totaux nationaux bruts'!E66-'Totaux nationaux bruts'!E65))</f>
+        <v>486</v>
+      </c>
+      <c r="F66" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F66),"",IF(ISBLANK('Totaux nationaux bruts'!F65),"",'Totaux nationaux bruts'!F66-'Totaux nationaux bruts'!F65))</f>
+        <v>319</v>
+      </c>
+      <c r="G66" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G66),"",IF(ISBLANK('Totaux nationaux bruts'!G65),"",'Totaux nationaux bruts'!G66-'Totaux nationaux bruts'!G65))</f>
+        <v/>
+      </c>
+      <c r="H66" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H66),"",IF(ISBLANK('Totaux nationaux bruts'!H65),"",'Totaux nationaux bruts'!H66-'Totaux nationaux bruts'!H65))</f>
+        <v/>
+      </c>
+      <c r="I66" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I66),"",IF(ISBLANK('Totaux nationaux bruts'!I65),"",'Totaux nationaux bruts'!I66-'Totaux nationaux bruts'!I65))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="12">
+        <f>'Totaux nationaux bruts'!A67</f>
+        <v>43919</v>
+      </c>
+      <c r="B67" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B67),"",IF(ISBLANK('Totaux nationaux bruts'!B66),"",'Totaux nationaux bruts'!B67-'Totaux nationaux bruts'!B66))</f>
+        <v>2599</v>
+      </c>
+      <c r="C67" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C67),"",IF(ISBLANK('Totaux nationaux bruts'!C66),"",'Totaux nationaux bruts'!C67-'Totaux nationaux bruts'!C66))</f>
+        <v>1734</v>
+      </c>
+      <c r="D67" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D67),"",IF(ISBLANK('Totaux nationaux bruts'!D66),"",'Totaux nationaux bruts'!D67-'Totaux nationaux bruts'!D66))</f>
+        <v>507</v>
+      </c>
+      <c r="E67" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E67),"",IF(ISBLANK('Totaux nationaux bruts'!E66),"",'Totaux nationaux bruts'!E67-'Totaux nationaux bruts'!E66))</f>
+        <v>359</v>
+      </c>
+      <c r="F67" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F67),"",IF(ISBLANK('Totaux nationaux bruts'!F66),"",'Totaux nationaux bruts'!F67-'Totaux nationaux bruts'!F66))</f>
+        <v>292</v>
+      </c>
+      <c r="G67" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G67),"",IF(ISBLANK('Totaux nationaux bruts'!G66),"",'Totaux nationaux bruts'!G67-'Totaux nationaux bruts'!G66))</f>
+        <v/>
+      </c>
+      <c r="H67" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H67),"",IF(ISBLANK('Totaux nationaux bruts'!H66),"",'Totaux nationaux bruts'!H67-'Totaux nationaux bruts'!H66))</f>
+        <v/>
+      </c>
+      <c r="I67" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I67),"",IF(ISBLANK('Totaux nationaux bruts'!I66),"",'Totaux nationaux bruts'!I67-'Totaux nationaux bruts'!I66))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="12">
+        <f>'Totaux nationaux bruts'!A68</f>
+        <v>43920</v>
+      </c>
+      <c r="B68" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B68),"",IF(ISBLANK('Totaux nationaux bruts'!B67),"",'Totaux nationaux bruts'!B68-'Totaux nationaux bruts'!B67))</f>
+        <v>4376</v>
+      </c>
+      <c r="C68" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C68),"",IF(ISBLANK('Totaux nationaux bruts'!C67),"",'Totaux nationaux bruts'!C68-'Totaux nationaux bruts'!C67))</f>
+        <v>1654</v>
+      </c>
+      <c r="D68" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D68),"",IF(ISBLANK('Totaux nationaux bruts'!D67),"",'Totaux nationaux bruts'!D68-'Totaux nationaux bruts'!D67))</f>
+        <v>793</v>
+      </c>
+      <c r="E68" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E68),"",IF(ISBLANK('Totaux nationaux bruts'!E67),"",'Totaux nationaux bruts'!E68-'Totaux nationaux bruts'!E67))</f>
+        <v>475</v>
+      </c>
+      <c r="F68" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F68),"",IF(ISBLANK('Totaux nationaux bruts'!F67),"",'Totaux nationaux bruts'!F68-'Totaux nationaux bruts'!F67))</f>
+        <v>418</v>
+      </c>
+      <c r="G68" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G68),"",IF(ISBLANK('Totaux nationaux bruts'!G67),"",'Totaux nationaux bruts'!G68-'Totaux nationaux bruts'!G67))</f>
+        <v/>
+      </c>
+      <c r="H68" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H68),"",IF(ISBLANK('Totaux nationaux bruts'!H67),"",'Totaux nationaux bruts'!H68-'Totaux nationaux bruts'!H67))</f>
+        <v/>
+      </c>
+      <c r="I68" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I68),"",IF(ISBLANK('Totaux nationaux bruts'!I67),"",'Totaux nationaux bruts'!I68-'Totaux nationaux bruts'!I67))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="12">
+        <f>'Totaux nationaux bruts'!A69</f>
+        <v>43921</v>
+      </c>
+      <c r="B69" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B69),"",IF(ISBLANK('Totaux nationaux bruts'!B68),"",'Totaux nationaux bruts'!B69-'Totaux nationaux bruts'!B68))</f>
+        <v>7578</v>
+      </c>
+      <c r="C69" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C69),"",IF(ISBLANK('Totaux nationaux bruts'!C68),"",'Totaux nationaux bruts'!C69-'Totaux nationaux bruts'!C68))</f>
+        <v>1749</v>
+      </c>
+      <c r="D69" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D69),"",IF(ISBLANK('Totaux nationaux bruts'!D68),"",'Totaux nationaux bruts'!D69-'Totaux nationaux bruts'!D68))</f>
+        <v>1520</v>
+      </c>
+      <c r="E69" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E69),"",IF(ISBLANK('Totaux nationaux bruts'!E68),"",'Totaux nationaux bruts'!E69-'Totaux nationaux bruts'!E68))</f>
+        <v>458</v>
+      </c>
+      <c r="F69" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F69),"",IF(ISBLANK('Totaux nationaux bruts'!F68),"",'Totaux nationaux bruts'!F69-'Totaux nationaux bruts'!F68))</f>
+        <v>499</v>
+      </c>
+      <c r="G69" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G69),"",IF(ISBLANK('Totaux nationaux bruts'!G68),"",'Totaux nationaux bruts'!G69-'Totaux nationaux bruts'!G68))</f>
+        <v/>
+      </c>
+      <c r="H69" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H69),"",IF(ISBLANK('Totaux nationaux bruts'!H68),"",'Totaux nationaux bruts'!H69-'Totaux nationaux bruts'!H68))</f>
+        <v/>
+      </c>
+      <c r="I69" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I69),"",IF(ISBLANK('Totaux nationaux bruts'!I68),"",'Totaux nationaux bruts'!I69-'Totaux nationaux bruts'!I68))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="12">
+        <f>'Totaux nationaux bruts'!A70</f>
+        <v>43922</v>
+      </c>
+      <c r="B70" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B70),"",IF(ISBLANK('Totaux nationaux bruts'!B69),"",'Totaux nationaux bruts'!B70-'Totaux nationaux bruts'!B69))</f>
+        <v>4861</v>
+      </c>
+      <c r="C70" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C70),"",IF(ISBLANK('Totaux nationaux bruts'!C69),"",'Totaux nationaux bruts'!C70-'Totaux nationaux bruts'!C69))</f>
+        <v>1882</v>
+      </c>
+      <c r="D70" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D70),"",IF(ISBLANK('Totaux nationaux bruts'!D69),"",'Totaux nationaux bruts'!D70-'Totaux nationaux bruts'!D69))</f>
+        <v>1491</v>
+      </c>
+      <c r="E70" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E70),"",IF(ISBLANK('Totaux nationaux bruts'!E69),"",'Totaux nationaux bruts'!E70-'Totaux nationaux bruts'!E69))</f>
+        <v>452</v>
+      </c>
+      <c r="F70" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F70),"",IF(ISBLANK('Totaux nationaux bruts'!F69),"",'Totaux nationaux bruts'!F70-'Totaux nationaux bruts'!F69))</f>
+        <v>509</v>
+      </c>
+      <c r="G70" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G70),"",IF(ISBLANK('Totaux nationaux bruts'!G69),"",'Totaux nationaux bruts'!G70-'Totaux nationaux bruts'!G69))</f>
+        <v/>
+      </c>
+      <c r="H70" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H70),"",IF(ISBLANK('Totaux nationaux bruts'!H69),"",'Totaux nationaux bruts'!H70-'Totaux nationaux bruts'!H69))</f>
+        <v/>
+      </c>
+      <c r="I70" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I70),"",IF(ISBLANK('Totaux nationaux bruts'!I69),"",'Totaux nationaux bruts'!I70-'Totaux nationaux bruts'!I69))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="12">
+        <f>'Totaux nationaux bruts'!A71</f>
+        <v>43923</v>
+      </c>
+      <c r="B71" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B71),"",IF(ISBLANK('Totaux nationaux bruts'!B70),"",'Totaux nationaux bruts'!B71-'Totaux nationaux bruts'!B70))</f>
+        <v>2116</v>
+      </c>
+      <c r="C71" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C71),"",IF(ISBLANK('Totaux nationaux bruts'!C70),"",'Totaux nationaux bruts'!C71-'Totaux nationaux bruts'!C70))</f>
+        <v>1607</v>
+      </c>
+      <c r="D71" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D71),"",IF(ISBLANK('Totaux nationaux bruts'!D70),"",'Totaux nationaux bruts'!D71-'Totaux nationaux bruts'!D70))</f>
+        <v>1493</v>
+      </c>
+      <c r="E71" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E71),"",IF(ISBLANK('Totaux nationaux bruts'!E70),"",'Totaux nationaux bruts'!E71-'Totaux nationaux bruts'!E70))</f>
+        <v>382</v>
+      </c>
+      <c r="F71" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F71),"",IF(ISBLANK('Totaux nationaux bruts'!F70),"",'Totaux nationaux bruts'!F71-'Totaux nationaux bruts'!F70))</f>
+        <v>471</v>
+      </c>
+      <c r="G71" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G71),"",IF(ISBLANK('Totaux nationaux bruts'!G70),"",'Totaux nationaux bruts'!G71-'Totaux nationaux bruts'!G70))</f>
+        <v/>
+      </c>
+      <c r="H71" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H71),"",IF(ISBLANK('Totaux nationaux bruts'!H70),"",'Totaux nationaux bruts'!H71-'Totaux nationaux bruts'!H70))</f>
+        <v/>
+      </c>
+      <c r="I71" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I71),"",IF(ISBLANK('Totaux nationaux bruts'!I70),"",'Totaux nationaux bruts'!I71-'Totaux nationaux bruts'!I70))</f>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="12">
+        <f>'Totaux nationaux bruts'!A72</f>
+        <v>43924</v>
+      </c>
+      <c r="B72" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B72),"",IF(ISBLANK('Totaux nationaux bruts'!B71),"",'Totaux nationaux bruts'!B72-'Totaux nationaux bruts'!B71))</f>
+        <v>5233</v>
+      </c>
+      <c r="C72" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C72),"",IF(ISBLANK('Totaux nationaux bruts'!C71),"",'Totaux nationaux bruts'!C72-'Totaux nationaux bruts'!C71))</f>
+        <v>1186</v>
+      </c>
+      <c r="D72" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D72),"",IF(ISBLANK('Totaux nationaux bruts'!D71),"",'Totaux nationaux bruts'!D72-'Totaux nationaux bruts'!D71))</f>
+        <v>1580</v>
+      </c>
+      <c r="E72" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E72),"",IF(ISBLANK('Totaux nationaux bruts'!E71),"",'Totaux nationaux bruts'!E72-'Totaux nationaux bruts'!E71))</f>
+        <v>263</v>
+      </c>
+      <c r="F72" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F72),"",IF(ISBLANK('Totaux nationaux bruts'!F71),"",'Totaux nationaux bruts'!F72-'Totaux nationaux bruts'!F71))</f>
+        <v>588</v>
+      </c>
+      <c r="G72" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G72),"",IF(ISBLANK('Totaux nationaux bruts'!G71),"",'Totaux nationaux bruts'!G72-'Totaux nationaux bruts'!G71))</f>
+        <v/>
+      </c>
+      <c r="H72" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H72),"",IF(ISBLANK('Totaux nationaux bruts'!H71),"",'Totaux nationaux bruts'!H72-'Totaux nationaux bruts'!H71))</f>
+        <v/>
+      </c>
+      <c r="I72" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I72),"",IF(ISBLANK('Totaux nationaux bruts'!I71),"",'Totaux nationaux bruts'!I72-'Totaux nationaux bruts'!I71))</f>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="12">
+        <f>'Totaux nationaux bruts'!A73</f>
+        <v>43925</v>
+      </c>
+      <c r="B73" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B73),"",IF(ISBLANK('Totaux nationaux bruts'!B72),"",'Totaux nationaux bruts'!B73-'Totaux nationaux bruts'!B72))</f>
+        <v>4267</v>
+      </c>
+      <c r="C73" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C73),"",IF(ISBLANK('Totaux nationaux bruts'!C72),"",'Totaux nationaux bruts'!C73-'Totaux nationaux bruts'!C72))</f>
+        <v>711</v>
+      </c>
+      <c r="D73" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D73),"",IF(ISBLANK('Totaux nationaux bruts'!D72),"",'Totaux nationaux bruts'!D73-'Totaux nationaux bruts'!D72))</f>
+        <v>1430</v>
+      </c>
+      <c r="E73" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E73),"",IF(ISBLANK('Totaux nationaux bruts'!E72),"",'Totaux nationaux bruts'!E73-'Totaux nationaux bruts'!E72))</f>
+        <v>176</v>
+      </c>
+      <c r="F73" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F73),"",IF(ISBLANK('Totaux nationaux bruts'!F72),"",'Totaux nationaux bruts'!F73-'Totaux nationaux bruts'!F72))</f>
+        <v>441</v>
+      </c>
+      <c r="G73" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G73),"",IF(ISBLANK('Totaux nationaux bruts'!G72),"",'Totaux nationaux bruts'!G73-'Totaux nationaux bruts'!G72))</f>
+        <v/>
+      </c>
+      <c r="H73" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H73),"",IF(ISBLANK('Totaux nationaux bruts'!H72),"",'Totaux nationaux bruts'!H73-'Totaux nationaux bruts'!H72))</f>
+        <v/>
+      </c>
+      <c r="I73" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I73),"",IF(ISBLANK('Totaux nationaux bruts'!I72),"",'Totaux nationaux bruts'!I73-'Totaux nationaux bruts'!I72))</f>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="12">
+        <f>'Totaux nationaux bruts'!A74</f>
+        <v>43926</v>
+      </c>
+      <c r="B74" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B74),"",IF(ISBLANK('Totaux nationaux bruts'!B73),"",'Totaux nationaux bruts'!B74-'Totaux nationaux bruts'!B73))</f>
+        <v>1873</v>
+      </c>
+      <c r="C74" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C74),"",IF(ISBLANK('Totaux nationaux bruts'!C73),"",'Totaux nationaux bruts'!C74-'Totaux nationaux bruts'!C73))</f>
+        <v>748</v>
+      </c>
+      <c r="D74" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D74),"",IF(ISBLANK('Totaux nationaux bruts'!D73),"",'Totaux nationaux bruts'!D74-'Totaux nationaux bruts'!D73))</f>
+        <v>745</v>
+      </c>
+      <c r="E74" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E74),"",IF(ISBLANK('Totaux nationaux bruts'!E73),"",'Totaux nationaux bruts'!E74-'Totaux nationaux bruts'!E73))</f>
+        <v>140</v>
+      </c>
+      <c r="F74" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F74),"",IF(ISBLANK('Totaux nationaux bruts'!F73),"",'Totaux nationaux bruts'!F74-'Totaux nationaux bruts'!F73))</f>
+        <v>357</v>
+      </c>
+      <c r="G74" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G74),"",IF(ISBLANK('Totaux nationaux bruts'!G73),"",'Totaux nationaux bruts'!G74-'Totaux nationaux bruts'!G73))</f>
+        <v/>
+      </c>
+      <c r="H74" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H74),"",IF(ISBLANK('Totaux nationaux bruts'!H73),"",'Totaux nationaux bruts'!H74-'Totaux nationaux bruts'!H73))</f>
+        <v/>
+      </c>
+      <c r="I74" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I74),"",IF(ISBLANK('Totaux nationaux bruts'!I73),"",'Totaux nationaux bruts'!I74-'Totaux nationaux bruts'!I73))</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="12">
+        <f>'Totaux nationaux bruts'!A75</f>
+        <v>43927</v>
+      </c>
+      <c r="B75" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B75),"",IF(ISBLANK('Totaux nationaux bruts'!B74),"",'Totaux nationaux bruts'!B75-'Totaux nationaux bruts'!B74))</f>
+        <v>3912</v>
+      </c>
+      <c r="C75" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C75),"",IF(ISBLANK('Totaux nationaux bruts'!C74),"",'Totaux nationaux bruts'!C75-'Totaux nationaux bruts'!C74))</f>
+        <v>831</v>
+      </c>
+      <c r="D75" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D75),"",IF(ISBLANK('Totaux nationaux bruts'!D74),"",'Totaux nationaux bruts'!D75-'Totaux nationaux bruts'!D74))</f>
+        <v>1067</v>
+      </c>
+      <c r="E75" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E75),"",IF(ISBLANK('Totaux nationaux bruts'!E74),"",'Totaux nationaux bruts'!E75-'Totaux nationaux bruts'!E74))</f>
+        <v>94</v>
+      </c>
+      <c r="F75" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F75),"",IF(ISBLANK('Totaux nationaux bruts'!F74),"",'Totaux nationaux bruts'!F75-'Totaux nationaux bruts'!F74))</f>
+        <v>605</v>
+      </c>
+      <c r="G75" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G75),"",IF(ISBLANK('Totaux nationaux bruts'!G74),"",'Totaux nationaux bruts'!G75-'Totaux nationaux bruts'!G74))</f>
+        <v/>
+      </c>
+      <c r="H75" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H75),"",IF(ISBLANK('Totaux nationaux bruts'!H74),"",'Totaux nationaux bruts'!H75-'Totaux nationaux bruts'!H74))</f>
+        <v/>
+      </c>
+      <c r="I75" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I75),"",IF(ISBLANK('Totaux nationaux bruts'!I74),"",'Totaux nationaux bruts'!I75-'Totaux nationaux bruts'!I74))</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="12">
+        <f>'Totaux nationaux bruts'!A76</f>
+        <v>43928</v>
+      </c>
+      <c r="B76" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B76),"",IF(ISBLANK('Totaux nationaux bruts'!B75),"",'Totaux nationaux bruts'!B76-'Totaux nationaux bruts'!B75))</f>
+        <v>3777</v>
+      </c>
+      <c r="C76" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C76),"",IF(ISBLANK('Totaux nationaux bruts'!C75),"",'Totaux nationaux bruts'!C76-'Totaux nationaux bruts'!C75))</f>
+        <v>305</v>
+      </c>
+      <c r="D76" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D76),"",IF(ISBLANK('Totaux nationaux bruts'!D75),"",'Totaux nationaux bruts'!D76-'Totaux nationaux bruts'!D75))</f>
+        <v>2087</v>
+      </c>
+      <c r="E76" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E76),"",IF(ISBLANK('Totaux nationaux bruts'!E75),"",'Totaux nationaux bruts'!E76-'Totaux nationaux bruts'!E75))</f>
+        <v>59</v>
+      </c>
+      <c r="F76" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F76),"",IF(ISBLANK('Totaux nationaux bruts'!F75),"",'Totaux nationaux bruts'!F76-'Totaux nationaux bruts'!F75))</f>
+        <v>597</v>
+      </c>
+      <c r="G76" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G76),"",IF(ISBLANK('Totaux nationaux bruts'!G75),"",'Totaux nationaux bruts'!G76-'Totaux nationaux bruts'!G75))</f>
+        <v/>
+      </c>
+      <c r="H76" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H76),"",IF(ISBLANK('Totaux nationaux bruts'!H75),"",'Totaux nationaux bruts'!H76-'Totaux nationaux bruts'!H75))</f>
+        <v/>
+      </c>
+      <c r="I76" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I76),"",IF(ISBLANK('Totaux nationaux bruts'!I75),"",'Totaux nationaux bruts'!I76-'Totaux nationaux bruts'!I75))</f>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="12">
+        <f>'Totaux nationaux bruts'!A77</f>
+        <v>43929</v>
+      </c>
+      <c r="B77" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B77),"",IF(ISBLANK('Totaux nationaux bruts'!B76),"",'Totaux nationaux bruts'!B77-'Totaux nationaux bruts'!B76))</f>
+        <v>3881</v>
+      </c>
+      <c r="C77" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C77),"",IF(ISBLANK('Totaux nationaux bruts'!C76),"",'Totaux nationaux bruts'!C77-'Totaux nationaux bruts'!C76))</f>
+        <v>348</v>
+      </c>
+      <c r="D77" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D77),"",IF(ISBLANK('Totaux nationaux bruts'!D76),"",'Totaux nationaux bruts'!D77-'Totaux nationaux bruts'!D76))</f>
+        <v>1917</v>
+      </c>
+      <c r="E77" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E77),"",IF(ISBLANK('Totaux nationaux bruts'!E76),"",'Totaux nationaux bruts'!E77-'Totaux nationaux bruts'!E76))</f>
+        <v>17</v>
+      </c>
+      <c r="F77" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F77),"",IF(ISBLANK('Totaux nationaux bruts'!F76),"",'Totaux nationaux bruts'!F77-'Totaux nationaux bruts'!F76))</f>
+        <v>541</v>
+      </c>
+      <c r="G77" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G77),"",IF(ISBLANK('Totaux nationaux bruts'!G76),"",'Totaux nationaux bruts'!G77-'Totaux nationaux bruts'!G76))</f>
+        <v/>
+      </c>
+      <c r="H77" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H77),"",IF(ISBLANK('Totaux nationaux bruts'!H76),"",'Totaux nationaux bruts'!H77-'Totaux nationaux bruts'!H76))</f>
+        <v/>
+      </c>
+      <c r="I77" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I77),"",IF(ISBLANK('Totaux nationaux bruts'!I76),"",'Totaux nationaux bruts'!I77-'Totaux nationaux bruts'!I76))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="12">
+        <f>'Totaux nationaux bruts'!A78</f>
+        <v>43930</v>
+      </c>
+      <c r="B78" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B78),"",IF(ISBLANK('Totaux nationaux bruts'!B77),"",'Totaux nationaux bruts'!B78-'Totaux nationaux bruts'!B77))</f>
+        <v>4286</v>
+      </c>
+      <c r="C78" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C78),"",IF(ISBLANK('Totaux nationaux bruts'!C77),"",'Totaux nationaux bruts'!C78-'Totaux nationaux bruts'!C77))</f>
+        <v>392</v>
+      </c>
+      <c r="D78" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D78),"",IF(ISBLANK('Totaux nationaux bruts'!D77),"",'Totaux nationaux bruts'!D78-'Totaux nationaux bruts'!D77))</f>
+        <v>1952</v>
+      </c>
+      <c r="E78" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E78),"",IF(ISBLANK('Totaux nationaux bruts'!E77),"",'Totaux nationaux bruts'!E78-'Totaux nationaux bruts'!E77))</f>
+        <v>-82</v>
+      </c>
+      <c r="F78" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F78),"",IF(ISBLANK('Totaux nationaux bruts'!F77),"",'Totaux nationaux bruts'!F78-'Totaux nationaux bruts'!F77))</f>
+        <v>412</v>
+      </c>
+      <c r="G78" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G78),"",IF(ISBLANK('Totaux nationaux bruts'!G77),"",'Totaux nationaux bruts'!G78-'Totaux nationaux bruts'!G77))</f>
+        <v/>
+      </c>
+      <c r="H78" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H78),"",IF(ISBLANK('Totaux nationaux bruts'!H77),"",'Totaux nationaux bruts'!H78-'Totaux nationaux bruts'!H77))</f>
+        <v/>
+      </c>
+      <c r="I78" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I78),"",IF(ISBLANK('Totaux nationaux bruts'!I77),"",'Totaux nationaux bruts'!I78-'Totaux nationaux bruts'!I77))</f>
+        <v>929</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="12">
+        <f>'Totaux nationaux bruts'!A79</f>
+        <v>43931</v>
+      </c>
+      <c r="B79" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B79),"",IF(ISBLANK('Totaux nationaux bruts'!B78),"",'Totaux nationaux bruts'!B79-'Totaux nationaux bruts'!B78))</f>
+        <v>4342</v>
+      </c>
+      <c r="C79" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C79),"",IF(ISBLANK('Totaux nationaux bruts'!C78),"",'Totaux nationaux bruts'!C79-'Totaux nationaux bruts'!C78))</f>
+        <v>500</v>
+      </c>
+      <c r="D79" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D79),"",IF(ISBLANK('Totaux nationaux bruts'!D78),"",'Totaux nationaux bruts'!D79-'Totaux nationaux bruts'!D78))</f>
+        <v>1726</v>
+      </c>
+      <c r="E79" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E79),"",IF(ISBLANK('Totaux nationaux bruts'!E78),"",'Totaux nationaux bruts'!E79-'Totaux nationaux bruts'!E78))</f>
+        <v>-62</v>
+      </c>
+      <c r="F79" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F79),"",IF(ISBLANK('Totaux nationaux bruts'!F78),"",'Totaux nationaux bruts'!F79-'Totaux nationaux bruts'!F78))</f>
+        <v>554</v>
+      </c>
+      <c r="G79" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G79),"",IF(ISBLANK('Totaux nationaux bruts'!G78),"",'Totaux nationaux bruts'!G79-'Totaux nationaux bruts'!G78))</f>
+        <v/>
+      </c>
+      <c r="H79" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H79),"",IF(ISBLANK('Totaux nationaux bruts'!H78),"",'Totaux nationaux bruts'!H79-'Totaux nationaux bruts'!H78))</f>
+        <v/>
+      </c>
+      <c r="I79" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I79),"",IF(ISBLANK('Totaux nationaux bruts'!I78),"",'Totaux nationaux bruts'!I79-'Totaux nationaux bruts'!I78))</f>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="12">
+        <f>'Totaux nationaux bruts'!A80</f>
+        <v>43932</v>
+      </c>
+      <c r="B80" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B80),"",IF(ISBLANK('Totaux nationaux bruts'!B79),"",'Totaux nationaux bruts'!B80-'Totaux nationaux bruts'!B79))</f>
+        <v>3114</v>
+      </c>
+      <c r="C80" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C80),"",IF(ISBLANK('Totaux nationaux bruts'!C79),"",'Totaux nationaux bruts'!C80-'Totaux nationaux bruts'!C79))</f>
+        <v>53</v>
+      </c>
+      <c r="D80" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D80),"",IF(ISBLANK('Totaux nationaux bruts'!D79),"",'Totaux nationaux bruts'!D80-'Totaux nationaux bruts'!D79))</f>
+        <v>1999</v>
+      </c>
+      <c r="E80" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E80),"",IF(ISBLANK('Totaux nationaux bruts'!E79),"",'Totaux nationaux bruts'!E80-'Totaux nationaux bruts'!E79))</f>
+        <v>-121</v>
+      </c>
+      <c r="F80" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F80),"",IF(ISBLANK('Totaux nationaux bruts'!F79),"",'Totaux nationaux bruts'!F80-'Totaux nationaux bruts'!F79))</f>
+        <v>345</v>
+      </c>
+      <c r="G80" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G80),"",IF(ISBLANK('Totaux nationaux bruts'!G79),"",'Totaux nationaux bruts'!G80-'Totaux nationaux bruts'!G79))</f>
+        <v/>
+      </c>
+      <c r="H80" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H80),"",IF(ISBLANK('Totaux nationaux bruts'!H79),"",'Totaux nationaux bruts'!H80-'Totaux nationaux bruts'!H79))</f>
+        <v/>
+      </c>
+      <c r="I80" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I80),"",IF(ISBLANK('Totaux nationaux bruts'!I79),"",'Totaux nationaux bruts'!I80-'Totaux nationaux bruts'!I79))</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="12">
+        <f>'Totaux nationaux bruts'!A81</f>
+        <v>43933</v>
+      </c>
+      <c r="B81" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B81),"",IF(ISBLANK('Totaux nationaux bruts'!B80),"",'Totaux nationaux bruts'!B81-'Totaux nationaux bruts'!B80))</f>
+        <v>1613</v>
+      </c>
+      <c r="C81" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C81),"",IF(ISBLANK('Totaux nationaux bruts'!C80),"",'Totaux nationaux bruts'!C81-'Totaux nationaux bruts'!C80))</f>
+        <v>506</v>
+      </c>
+      <c r="D81" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D81),"",IF(ISBLANK('Totaux nationaux bruts'!D80),"",'Totaux nationaux bruts'!D81-'Totaux nationaux bruts'!D80))</f>
+        <v>255</v>
+      </c>
+      <c r="E81" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E81),"",IF(ISBLANK('Totaux nationaux bruts'!E80),"",'Totaux nationaux bruts'!E81-'Totaux nationaux bruts'!E80))</f>
+        <v>-38</v>
+      </c>
+      <c r="F81" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F81),"",IF(ISBLANK('Totaux nationaux bruts'!F80),"",'Totaux nationaux bruts'!F81-'Totaux nationaux bruts'!F80))</f>
+        <v>310</v>
+      </c>
+      <c r="G81" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G81),"",IF(ISBLANK('Totaux nationaux bruts'!G80),"",'Totaux nationaux bruts'!G81-'Totaux nationaux bruts'!G80))</f>
+        <v/>
+      </c>
+      <c r="H81" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H81),"",IF(ISBLANK('Totaux nationaux bruts'!H80),"",'Totaux nationaux bruts'!H81-'Totaux nationaux bruts'!H80))</f>
+        <v/>
+      </c>
+      <c r="I81" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I81),"",IF(ISBLANK('Totaux nationaux bruts'!I80),"",'Totaux nationaux bruts'!I81-'Totaux nationaux bruts'!I80))</f>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="12">
+        <f>'Totaux nationaux bruts'!A82</f>
+        <v>43934</v>
+      </c>
+      <c r="B82" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B82),"",IF(ISBLANK('Totaux nationaux bruts'!B81),"",'Totaux nationaux bruts'!B82-'Totaux nationaux bruts'!B81))</f>
+        <v>2673</v>
+      </c>
+      <c r="C82" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C82),"",IF(ISBLANK('Totaux nationaux bruts'!C81),"",'Totaux nationaux bruts'!C82-'Totaux nationaux bruts'!C81))</f>
+        <v>287</v>
+      </c>
+      <c r="D82" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D82),"",IF(ISBLANK('Totaux nationaux bruts'!D81),"",'Totaux nationaux bruts'!D82-'Totaux nationaux bruts'!D81))</f>
+        <v>532</v>
+      </c>
+      <c r="E82" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E82),"",IF(ISBLANK('Totaux nationaux bruts'!E81),"",'Totaux nationaux bruts'!E82-'Totaux nationaux bruts'!E81))</f>
+        <v>-24</v>
+      </c>
+      <c r="F82" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F82),"",IF(ISBLANK('Totaux nationaux bruts'!F81),"",'Totaux nationaux bruts'!F82-'Totaux nationaux bruts'!F81))</f>
+        <v>335</v>
+      </c>
+      <c r="G82" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G82),"",IF(ISBLANK('Totaux nationaux bruts'!G81),"",'Totaux nationaux bruts'!G82-'Totaux nationaux bruts'!G81))</f>
+        <v>1515</v>
+      </c>
+      <c r="H82" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H82),"",IF(ISBLANK('Totaux nationaux bruts'!H81),"",'Totaux nationaux bruts'!H82-'Totaux nationaux bruts'!H81))</f>
+        <v>523</v>
+      </c>
+      <c r="I82" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I82),"",IF(ISBLANK('Totaux nationaux bruts'!I81),"",'Totaux nationaux bruts'!I82-'Totaux nationaux bruts'!I81))</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="12">
+        <f>'Totaux nationaux bruts'!A83</f>
+        <v>43935</v>
+      </c>
+      <c r="B83" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B83),"",IF(ISBLANK('Totaux nationaux bruts'!B82),"",'Totaux nationaux bruts'!B83-'Totaux nationaux bruts'!B82))</f>
+        <v>5497</v>
+      </c>
+      <c r="C83" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C83),"",IF(ISBLANK('Totaux nationaux bruts'!C82),"",'Totaux nationaux bruts'!C83-'Totaux nationaux bruts'!C82))</f>
+        <v>179</v>
+      </c>
+      <c r="D83" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D83),"",IF(ISBLANK('Totaux nationaux bruts'!D82),"",'Totaux nationaux bruts'!D83-'Totaux nationaux bruts'!D82))</f>
+        <v>1087</v>
+      </c>
+      <c r="E83" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E83),"",IF(ISBLANK('Totaux nationaux bruts'!E82),"",'Totaux nationaux bruts'!E83-'Totaux nationaux bruts'!E82))</f>
+        <v>-91</v>
+      </c>
+      <c r="F83" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F83),"",IF(ISBLANK('Totaux nationaux bruts'!F82),"",'Totaux nationaux bruts'!F83-'Totaux nationaux bruts'!F82))</f>
+        <v>541</v>
+      </c>
+      <c r="G83" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G83),"",IF(ISBLANK('Totaux nationaux bruts'!G82),"",'Totaux nationaux bruts'!G83-'Totaux nationaux bruts'!G82))</f>
+        <v>1027</v>
+      </c>
+      <c r="H83" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H83),"",IF(ISBLANK('Totaux nationaux bruts'!H82),"",'Totaux nationaux bruts'!H83-'Totaux nationaux bruts'!H82))</f>
+        <v>569</v>
+      </c>
+      <c r="I83" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I83),"",IF(ISBLANK('Totaux nationaux bruts'!I82),"",'Totaux nationaux bruts'!I83-'Totaux nationaux bruts'!I82))</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="12">
+        <f>'Totaux nationaux bruts'!A84</f>
+        <v>43936</v>
+      </c>
+      <c r="B84" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B84),"",IF(ISBLANK('Totaux nationaux bruts'!B83),"",'Totaux nationaux bruts'!B84-'Totaux nationaux bruts'!B83))</f>
+        <v>2633</v>
+      </c>
+      <c r="C84" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C84),"",IF(ISBLANK('Totaux nationaux bruts'!C83),"",'Totaux nationaux bruts'!C84-'Totaux nationaux bruts'!C83))</f>
+        <v>-513</v>
+      </c>
+      <c r="D84" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D84),"",IF(ISBLANK('Totaux nationaux bruts'!D83),"",'Totaux nationaux bruts'!D84-'Totaux nationaux bruts'!D83))</f>
+        <v>2190</v>
+      </c>
+      <c r="E84" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E84),"",IF(ISBLANK('Totaux nationaux bruts'!E83),"",'Totaux nationaux bruts'!E84-'Totaux nationaux bruts'!E83))</f>
+        <v>-273</v>
+      </c>
+      <c r="F84" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F84),"",IF(ISBLANK('Totaux nationaux bruts'!F83),"",'Totaux nationaux bruts'!F84-'Totaux nationaux bruts'!F83))</f>
+        <v>514</v>
+      </c>
+      <c r="G84" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G84),"",IF(ISBLANK('Totaux nationaux bruts'!G83),"",'Totaux nationaux bruts'!G84-'Totaux nationaux bruts'!G83))</f>
+        <v>1927</v>
+      </c>
+      <c r="H84" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H84),"",IF(ISBLANK('Totaux nationaux bruts'!H83),"",'Totaux nationaux bruts'!H84-'Totaux nationaux bruts'!H83))</f>
+        <v>1343</v>
+      </c>
+      <c r="I84" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I84),"",IF(ISBLANK('Totaux nationaux bruts'!I83),"",'Totaux nationaux bruts'!I84-'Totaux nationaux bruts'!I83))</f>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="12">
+        <f>'Totaux nationaux bruts'!A85</f>
+        <v>43937</v>
+      </c>
+      <c r="B85" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B85),"",IF(ISBLANK('Totaux nationaux bruts'!B84),"",'Totaux nationaux bruts'!B85-'Totaux nationaux bruts'!B84))</f>
+        <v>2641</v>
+      </c>
+      <c r="C85" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C85),"",IF(ISBLANK('Totaux nationaux bruts'!C84),"",'Totaux nationaux bruts'!C85-'Totaux nationaux bruts'!C84))</f>
+        <v>-474</v>
+      </c>
+      <c r="D85" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D85),"",IF(ISBLANK('Totaux nationaux bruts'!D84),"",'Totaux nationaux bruts'!D85-'Totaux nationaux bruts'!D84))</f>
+        <v>1817</v>
+      </c>
+      <c r="E85" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E85),"",IF(ISBLANK('Totaux nationaux bruts'!E84),"",'Totaux nationaux bruts'!E85-'Totaux nationaux bruts'!E84))</f>
+        <v>-209</v>
+      </c>
+      <c r="F85" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F85),"",IF(ISBLANK('Totaux nationaux bruts'!F84),"",'Totaux nationaux bruts'!F85-'Totaux nationaux bruts'!F84))</f>
+        <v>417</v>
+      </c>
+      <c r="G85" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G85),"",IF(ISBLANK('Totaux nationaux bruts'!G84),"",'Totaux nationaux bruts'!G85-'Totaux nationaux bruts'!G84))</f>
+        <v>14523</v>
+      </c>
+      <c r="H85" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H85),"",IF(ISBLANK('Totaux nationaux bruts'!H84),"",'Totaux nationaux bruts'!H85-'Totaux nationaux bruts'!H84))</f>
+        <v>4574</v>
+      </c>
+      <c r="I85" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I85),"",IF(ISBLANK('Totaux nationaux bruts'!I84),"",'Totaux nationaux bruts'!I85-'Totaux nationaux bruts'!I84))</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="12">
+        <f>'Totaux nationaux bruts'!A86</f>
+        <v>43938</v>
+      </c>
+      <c r="B86" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B86),"",IF(ISBLANK('Totaux nationaux bruts'!B85),"",'Totaux nationaux bruts'!B86-'Totaux nationaux bruts'!B85))</f>
+        <v>405</v>
+      </c>
+      <c r="C86" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C86),"",IF(ISBLANK('Totaux nationaux bruts'!C85),"",'Totaux nationaux bruts'!C86-'Totaux nationaux bruts'!C85))</f>
+        <v>-115</v>
+      </c>
+      <c r="D86" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D86),"",IF(ISBLANK('Totaux nationaux bruts'!D85),"",'Totaux nationaux bruts'!D86-'Totaux nationaux bruts'!D85))</f>
+        <v>1608</v>
+      </c>
+      <c r="E86" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E86),"",IF(ISBLANK('Totaux nationaux bruts'!E85),"",'Totaux nationaux bruts'!E86-'Totaux nationaux bruts'!E85))</f>
+        <v>-221</v>
+      </c>
+      <c r="F86" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F86),"",IF(ISBLANK('Totaux nationaux bruts'!F85),"",'Totaux nationaux bruts'!F86-'Totaux nationaux bruts'!F85))</f>
+        <v>418</v>
+      </c>
+      <c r="G86" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G86),"",IF(ISBLANK('Totaux nationaux bruts'!G85),"",'Totaux nationaux bruts'!G86-'Totaux nationaux bruts'!G85))</f>
+        <v>2809</v>
+      </c>
+      <c r="H86" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H86),"",IF(ISBLANK('Totaux nationaux bruts'!H85),"",'Totaux nationaux bruts'!H86-'Totaux nationaux bruts'!H85))</f>
+        <v>1305</v>
+      </c>
+      <c r="I86" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I86),"",IF(ISBLANK('Totaux nationaux bruts'!I85),"",'Totaux nationaux bruts'!I86-'Totaux nationaux bruts'!I85))</f>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="12">
+        <f>'Totaux nationaux bruts'!A87</f>
+        <v>43939</v>
+      </c>
+      <c r="B87" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B87),"",IF(ISBLANK('Totaux nationaux bruts'!B86),"",'Totaux nationaux bruts'!B87-'Totaux nationaux bruts'!B86))</f>
+        <v>2569</v>
+      </c>
+      <c r="C87" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C87),"",IF(ISBLANK('Totaux nationaux bruts'!C86),"",'Totaux nationaux bruts'!C87-'Totaux nationaux bruts'!C86))</f>
+        <v>-551</v>
+      </c>
+      <c r="D87" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D87),"",IF(ISBLANK('Totaux nationaux bruts'!D86),"",'Totaux nationaux bruts'!D87-'Totaux nationaux bruts'!D86))</f>
+        <v>1563</v>
+      </c>
+      <c r="E87" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E87),"",IF(ISBLANK('Totaux nationaux bruts'!E86),"",'Totaux nationaux bruts'!E87-'Totaux nationaux bruts'!E86))</f>
+        <v>-194</v>
+      </c>
+      <c r="F87" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F87),"",IF(ISBLANK('Totaux nationaux bruts'!F86),"",'Totaux nationaux bruts'!F87-'Totaux nationaux bruts'!F86))</f>
+        <v>364</v>
+      </c>
+      <c r="G87" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G87),"",IF(ISBLANK('Totaux nationaux bruts'!G86),"",'Totaux nationaux bruts'!G87-'Totaux nationaux bruts'!G86))</f>
+        <v>3146</v>
+      </c>
+      <c r="H87" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H87),"",IF(ISBLANK('Totaux nationaux bruts'!H86),"",'Totaux nationaux bruts'!H87-'Totaux nationaux bruts'!H86))</f>
+        <v>1891</v>
+      </c>
+      <c r="I87" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I87),"",IF(ISBLANK('Totaux nationaux bruts'!I86),"",'Totaux nationaux bruts'!I87-'Totaux nationaux bruts'!I86))</f>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="12">
+        <f>'Totaux nationaux bruts'!A88</f>
+        <v>43940</v>
+      </c>
+      <c r="B88" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B88),"",IF(ISBLANK('Totaux nationaux bruts'!B87),"",'Totaux nationaux bruts'!B88-'Totaux nationaux bruts'!B87))</f>
+        <v>785</v>
+      </c>
+      <c r="C88" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C88),"",IF(ISBLANK('Totaux nationaux bruts'!C87),"",'Totaux nationaux bruts'!C88-'Totaux nationaux bruts'!C87))</f>
+        <v>-29</v>
+      </c>
+      <c r="D88" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D88),"",IF(ISBLANK('Totaux nationaux bruts'!D87),"",'Totaux nationaux bruts'!D88-'Totaux nationaux bruts'!D87))</f>
+        <v>595</v>
+      </c>
+      <c r="E88" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E88),"",IF(ISBLANK('Totaux nationaux bruts'!E87),"",'Totaux nationaux bruts'!E88-'Totaux nationaux bruts'!E87))</f>
+        <v>-89</v>
+      </c>
+      <c r="F88" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F88),"",IF(ISBLANK('Totaux nationaux bruts'!F87),"",'Totaux nationaux bruts'!F88-'Totaux nationaux bruts'!F87))</f>
+        <v>227</v>
+      </c>
+      <c r="G88" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G88),"",IF(ISBLANK('Totaux nationaux bruts'!G87),"",'Totaux nationaux bruts'!G88-'Totaux nationaux bruts'!G87))</f>
+        <v>1201</v>
+      </c>
+      <c r="H88" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H88),"",IF(ISBLANK('Totaux nationaux bruts'!H87),"",'Totaux nationaux bruts'!H88-'Totaux nationaux bruts'!H87))</f>
+        <v>885</v>
+      </c>
+      <c r="I88" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I88),"",IF(ISBLANK('Totaux nationaux bruts'!I87),"",'Totaux nationaux bruts'!I88-'Totaux nationaux bruts'!I87))</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="12">
+        <f>'Totaux nationaux bruts'!A89</f>
+        <v>43941</v>
+      </c>
+      <c r="B89" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B89),"",IF(ISBLANK('Totaux nationaux bruts'!B88),"",'Totaux nationaux bruts'!B89-'Totaux nationaux bruts'!B88))</f>
+        <v>2051</v>
+      </c>
+      <c r="C89" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C89),"",IF(ISBLANK('Totaux nationaux bruts'!C88),"",'Totaux nationaux bruts'!C89-'Totaux nationaux bruts'!C88))</f>
+        <v>-26</v>
+      </c>
+      <c r="D89" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D89),"",IF(ISBLANK('Totaux nationaux bruts'!D88),"",'Totaux nationaux bruts'!D89-'Totaux nationaux bruts'!D88))</f>
+        <v>831</v>
+      </c>
+      <c r="E89" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E89),"",IF(ISBLANK('Totaux nationaux bruts'!E88),"",'Totaux nationaux bruts'!E89-'Totaux nationaux bruts'!E88))</f>
+        <v>-61</v>
+      </c>
+      <c r="F89" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F89),"",IF(ISBLANK('Totaux nationaux bruts'!F88),"",'Totaux nationaux bruts'!F89-'Totaux nationaux bruts'!F88))</f>
+        <v>444</v>
+      </c>
+      <c r="G89" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G89),"",IF(ISBLANK('Totaux nationaux bruts'!G88),"",'Totaux nationaux bruts'!G89-'Totaux nationaux bruts'!G88))</f>
+        <v>781</v>
+      </c>
+      <c r="H89" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H89),"",IF(ISBLANK('Totaux nationaux bruts'!H88),"",'Totaux nationaux bruts'!H89-'Totaux nationaux bruts'!H88))</f>
+        <v>620</v>
+      </c>
+      <c r="I89" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I89),"",IF(ISBLANK('Totaux nationaux bruts'!I88),"",'Totaux nationaux bruts'!I89-'Totaux nationaux bruts'!I88))</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="12">
+        <f>'Totaux nationaux bruts'!A90</f>
+        <v>43942</v>
+      </c>
+      <c r="B90" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B90),"",IF(ISBLANK('Totaux nationaux bruts'!B89),"",'Totaux nationaux bruts'!B90-'Totaux nationaux bruts'!B89))</f>
+        <v>2667</v>
+      </c>
+      <c r="C90" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C90),"",IF(ISBLANK('Totaux nationaux bruts'!C89),"",'Totaux nationaux bruts'!C90-'Totaux nationaux bruts'!C89))</f>
+        <v>-478</v>
+      </c>
+      <c r="D90" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D90),"",IF(ISBLANK('Totaux nationaux bruts'!D89),"",'Totaux nationaux bruts'!D90-'Totaux nationaux bruts'!D89))</f>
+        <v>1772</v>
+      </c>
+      <c r="E90" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E90),"",IF(ISBLANK('Totaux nationaux bruts'!E89),"",'Totaux nationaux bruts'!E90-'Totaux nationaux bruts'!E89))</f>
+        <v>-250</v>
+      </c>
+      <c r="F90" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F90),"",IF(ISBLANK('Totaux nationaux bruts'!F89),"",'Totaux nationaux bruts'!F90-'Totaux nationaux bruts'!F89))</f>
+        <v>387</v>
+      </c>
+      <c r="G90" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G90),"",IF(ISBLANK('Totaux nationaux bruts'!G89),"",'Totaux nationaux bruts'!G90-'Totaux nationaux bruts'!G89))</f>
+        <v/>
+      </c>
+      <c r="H90" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H90),"",IF(ISBLANK('Totaux nationaux bruts'!H89),"",'Totaux nationaux bruts'!H90-'Totaux nationaux bruts'!H89))</f>
+        <v/>
+      </c>
+      <c r="I90" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I90),"",IF(ISBLANK('Totaux nationaux bruts'!I89),"",'Totaux nationaux bruts'!I90-'Totaux nationaux bruts'!I89))</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="12">
+        <f>'Totaux nationaux bruts'!A91</f>
+        <v>43943</v>
+      </c>
+      <c r="B91" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B91),"",IF(ISBLANK('Totaux nationaux bruts'!B90),"",'Totaux nationaux bruts'!B91-'Totaux nationaux bruts'!B90))</f>
+        <v>1827</v>
+      </c>
+      <c r="C91" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C91),"",IF(ISBLANK('Totaux nationaux bruts'!C90),"",'Totaux nationaux bruts'!C91-'Totaux nationaux bruts'!C90))</f>
+        <v>-365</v>
+      </c>
+      <c r="D91" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D91),"",IF(ISBLANK('Totaux nationaux bruts'!D90),"",'Totaux nationaux bruts'!D91-'Totaux nationaux bruts'!D90))</f>
+        <v>1476</v>
+      </c>
+      <c r="E91" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E91),"",IF(ISBLANK('Totaux nationaux bruts'!E90),"",'Totaux nationaux bruts'!E91-'Totaux nationaux bruts'!E90))</f>
+        <v>-215</v>
+      </c>
+      <c r="F91" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F91),"",IF(ISBLANK('Totaux nationaux bruts'!F90),"",'Totaux nationaux bruts'!F91-'Totaux nationaux bruts'!F90))</f>
+        <v>336</v>
+      </c>
+      <c r="G91" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G91),"",IF(ISBLANK('Totaux nationaux bruts'!G90),"",'Totaux nationaux bruts'!G91-'Totaux nationaux bruts'!G90))</f>
+        <v/>
+      </c>
+      <c r="H91" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H91),"",IF(ISBLANK('Totaux nationaux bruts'!H90),"",'Totaux nationaux bruts'!H91-'Totaux nationaux bruts'!H90))</f>
+        <v/>
+      </c>
+      <c r="I91" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I91),"",IF(ISBLANK('Totaux nationaux bruts'!I90),"",'Totaux nationaux bruts'!I91-'Totaux nationaux bruts'!I90))</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="12">
+        <f>'Totaux nationaux bruts'!A92</f>
+        <v>43944</v>
+      </c>
+      <c r="B92" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B92),"",IF(ISBLANK('Totaux nationaux bruts'!B91),"",'Totaux nationaux bruts'!B92-'Totaux nationaux bruts'!B91))</f>
+        <v>1653</v>
+      </c>
+      <c r="C92" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C92),"",IF(ISBLANK('Totaux nationaux bruts'!C91),"",'Totaux nationaux bruts'!C92-'Totaux nationaux bruts'!C91))</f>
+        <v>-522</v>
+      </c>
+      <c r="D92" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D92),"",IF(ISBLANK('Totaux nationaux bruts'!D91),"",'Totaux nationaux bruts'!D92-'Totaux nationaux bruts'!D91))</f>
+        <v>1431</v>
+      </c>
+      <c r="E92" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E92),"",IF(ISBLANK('Totaux nationaux bruts'!E91),"",'Totaux nationaux bruts'!E92-'Totaux nationaux bruts'!E91))</f>
+        <v>-165</v>
+      </c>
+      <c r="F92" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F92),"",IF(ISBLANK('Totaux nationaux bruts'!F91),"",'Totaux nationaux bruts'!F92-'Totaux nationaux bruts'!F91))</f>
+        <v>311</v>
+      </c>
+      <c r="G92" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G92),"",IF(ISBLANK('Totaux nationaux bruts'!G91),"",'Totaux nationaux bruts'!G92-'Totaux nationaux bruts'!G91))</f>
+        <v/>
+      </c>
+      <c r="H92" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H92),"",IF(ISBLANK('Totaux nationaux bruts'!H91),"",'Totaux nationaux bruts'!H92-'Totaux nationaux bruts'!H91))</f>
+        <v>1327</v>
+      </c>
+      <c r="I92" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I92),"",IF(ISBLANK('Totaux nationaux bruts'!I91),"",'Totaux nationaux bruts'!I92-'Totaux nationaux bruts'!I91))</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="12">
+        <f>'Totaux nationaux bruts'!A93</f>
+        <v>43945</v>
+      </c>
+      <c r="B93" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B93),"",IF(ISBLANK('Totaux nationaux bruts'!B92),"",'Totaux nationaux bruts'!B93-'Totaux nationaux bruts'!B92))</f>
+        <v>1773</v>
+      </c>
+      <c r="C93" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C93),"",IF(ISBLANK('Totaux nationaux bruts'!C92),"",'Totaux nationaux bruts'!C93-'Totaux nationaux bruts'!C92))</f>
+        <v>-561</v>
+      </c>
+      <c r="D93" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D93),"",IF(ISBLANK('Totaux nationaux bruts'!D92),"",'Totaux nationaux bruts'!D93-'Totaux nationaux bruts'!D92))</f>
+        <v>1405</v>
+      </c>
+      <c r="E93" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E93),"",IF(ISBLANK('Totaux nationaux bruts'!E92),"",'Totaux nationaux bruts'!E93-'Totaux nationaux bruts'!E92))</f>
+        <v>-183</v>
+      </c>
+      <c r="F93" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F93),"",IF(ISBLANK('Totaux nationaux bruts'!F92),"",'Totaux nationaux bruts'!F93-'Totaux nationaux bruts'!F92))</f>
+        <v>305</v>
+      </c>
+      <c r="G93" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G93),"",IF(ISBLANK('Totaux nationaux bruts'!G92),"",'Totaux nationaux bruts'!G93-'Totaux nationaux bruts'!G92))</f>
+        <v>912</v>
+      </c>
+      <c r="H93" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H93),"",IF(ISBLANK('Totaux nationaux bruts'!H92),"",'Totaux nationaux bruts'!H93-'Totaux nationaux bruts'!H92))</f>
+        <v>1040</v>
+      </c>
+      <c r="I93" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I93),"",IF(ISBLANK('Totaux nationaux bruts'!I92),"",'Totaux nationaux bruts'!I93-'Totaux nationaux bruts'!I92))</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="12">
+        <f>'Totaux nationaux bruts'!A94</f>
+        <v>43946</v>
+      </c>
+      <c r="B94" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B94),"",IF(ISBLANK('Totaux nationaux bruts'!B93),"",'Totaux nationaux bruts'!B94-'Totaux nationaux bruts'!B93))</f>
+        <v>1537</v>
+      </c>
+      <c r="C94" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C94),"",IF(ISBLANK('Totaux nationaux bruts'!C93),"",'Totaux nationaux bruts'!C94-'Totaux nationaux bruts'!C93))</f>
+        <v>-436</v>
+      </c>
+      <c r="D94" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D94),"",IF(ISBLANK('Totaux nationaux bruts'!D93),"",'Totaux nationaux bruts'!D94-'Totaux nationaux bruts'!D93))</f>
+        <v>1101</v>
+      </c>
+      <c r="E94" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E94),"",IF(ISBLANK('Totaux nationaux bruts'!E93),"",'Totaux nationaux bruts'!E94-'Totaux nationaux bruts'!E93))</f>
+        <v>-145</v>
+      </c>
+      <c r="F94" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F94),"",IF(ISBLANK('Totaux nationaux bruts'!F93),"",'Totaux nationaux bruts'!F94-'Totaux nationaux bruts'!F93))</f>
+        <v>198</v>
+      </c>
+      <c r="G94" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G94),"",IF(ISBLANK('Totaux nationaux bruts'!G93),"",'Totaux nationaux bruts'!G94-'Totaux nationaux bruts'!G93))</f>
+        <v>1369</v>
+      </c>
+      <c r="H94" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H94),"",IF(ISBLANK('Totaux nationaux bruts'!H93),"",'Totaux nationaux bruts'!H94-'Totaux nationaux bruts'!H93))</f>
+        <v>1246</v>
+      </c>
+      <c r="I94" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I94),"",IF(ISBLANK('Totaux nationaux bruts'!I93),"",'Totaux nationaux bruts'!I94-'Totaux nationaux bruts'!I93))</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="12">
+        <f>'Totaux nationaux bruts'!A95</f>
+        <v>43947</v>
+      </c>
+      <c r="B95" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B95),"",IF(ISBLANK('Totaux nationaux bruts'!B94),"",'Totaux nationaux bruts'!B95-'Totaux nationaux bruts'!B94))</f>
+        <v>461</v>
+      </c>
+      <c r="C95" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C95),"",IF(ISBLANK('Totaux nationaux bruts'!C94),"",'Totaux nationaux bruts'!C95-'Totaux nationaux bruts'!C94))</f>
+        <v>-5</v>
+      </c>
+      <c r="D95" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D95),"",IF(ISBLANK('Totaux nationaux bruts'!D94),"",'Totaux nationaux bruts'!D95-'Totaux nationaux bruts'!D94))</f>
+        <v>309</v>
+      </c>
+      <c r="E95" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E95),"",IF(ISBLANK('Totaux nationaux bruts'!E94),"",'Totaux nationaux bruts'!E95-'Totaux nationaux bruts'!E94))</f>
+        <v>-43</v>
+      </c>
+      <c r="F95" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F95),"",IF(ISBLANK('Totaux nationaux bruts'!F94),"",'Totaux nationaux bruts'!F95-'Totaux nationaux bruts'!F94))</f>
+        <v>152</v>
+      </c>
+      <c r="G95" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G95),"",IF(ISBLANK('Totaux nationaux bruts'!G94),"",'Totaux nationaux bruts'!G95-'Totaux nationaux bruts'!G94))</f>
+        <v>668</v>
+      </c>
+      <c r="H95" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H95),"",IF(ISBLANK('Totaux nationaux bruts'!H94),"",'Totaux nationaux bruts'!H95-'Totaux nationaux bruts'!H94))</f>
+        <v>517</v>
+      </c>
+      <c r="I95" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I95),"",IF(ISBLANK('Totaux nationaux bruts'!I94),"",'Totaux nationaux bruts'!I95-'Totaux nationaux bruts'!I94))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="12">
+        <f>'Totaux nationaux bruts'!A96</f>
+        <v>43948</v>
+      </c>
+      <c r="B96" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B96),"",IF(ISBLANK('Totaux nationaux bruts'!B95),"",'Totaux nationaux bruts'!B96-'Totaux nationaux bruts'!B95))</f>
+        <v>3764</v>
+      </c>
+      <c r="C96" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C96),"",IF(ISBLANK('Totaux nationaux bruts'!C95),"",'Totaux nationaux bruts'!C96-'Totaux nationaux bruts'!C95))</f>
+        <v>-162</v>
+      </c>
+      <c r="D96" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D96),"",IF(ISBLANK('Totaux nationaux bruts'!D95),"",'Totaux nationaux bruts'!D96-'Totaux nationaux bruts'!D95))</f>
+        <v>610</v>
+      </c>
+      <c r="E96" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E96),"",IF(ISBLANK('Totaux nationaux bruts'!E95),"",'Totaux nationaux bruts'!E96-'Totaux nationaux bruts'!E95))</f>
+        <v>-74</v>
+      </c>
+      <c r="F96" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F96),"",IF(ISBLANK('Totaux nationaux bruts'!F95),"",'Totaux nationaux bruts'!F96-'Totaux nationaux bruts'!F95))</f>
+        <v>295</v>
+      </c>
+      <c r="G96" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G96),"",IF(ISBLANK('Totaux nationaux bruts'!G95),"",'Totaux nationaux bruts'!G96-'Totaux nationaux bruts'!G95))</f>
+        <v>562</v>
+      </c>
+      <c r="H96" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H96),"",IF(ISBLANK('Totaux nationaux bruts'!H95),"",'Totaux nationaux bruts'!H96-'Totaux nationaux bruts'!H95))</f>
+        <v>584</v>
+      </c>
+      <c r="I96" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I96),"",IF(ISBLANK('Totaux nationaux bruts'!I95),"",'Totaux nationaux bruts'!I96-'Totaux nationaux bruts'!I95))</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="12">
+        <f>'Totaux nationaux bruts'!A97</f>
+        <v>43949</v>
+      </c>
+      <c r="B97" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B97),"",IF(ISBLANK('Totaux nationaux bruts'!B96),"",'Totaux nationaux bruts'!B97-'Totaux nationaux bruts'!B96))</f>
+        <v>1520</v>
+      </c>
+      <c r="C97" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C97),"",IF(ISBLANK('Totaux nationaux bruts'!C96),"",'Totaux nationaux bruts'!C97-'Totaux nationaux bruts'!C96))</f>
+        <v>-571</v>
+      </c>
+      <c r="D97" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D97),"",IF(ISBLANK('Totaux nationaux bruts'!D96),"",'Totaux nationaux bruts'!D97-'Totaux nationaux bruts'!D96))</f>
+        <v>1373</v>
+      </c>
+      <c r="E97" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E97),"",IF(ISBLANK('Totaux nationaux bruts'!E96),"",'Totaux nationaux bruts'!E97-'Totaux nationaux bruts'!E96))</f>
+        <v>-221</v>
+      </c>
+      <c r="F97" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F97),"",IF(ISBLANK('Totaux nationaux bruts'!F96),"",'Totaux nationaux bruts'!F97-'Totaux nationaux bruts'!F96))</f>
+        <v>313</v>
+      </c>
+      <c r="G97" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G97),"",IF(ISBLANK('Totaux nationaux bruts'!G96),"",'Totaux nationaux bruts'!G97-'Totaux nationaux bruts'!G96))</f>
+        <v>2163</v>
+      </c>
+      <c r="H97" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H97),"",IF(ISBLANK('Totaux nationaux bruts'!H96),"",'Totaux nationaux bruts'!H97-'Totaux nationaux bruts'!H96))</f>
+        <v>590</v>
+      </c>
+      <c r="I97" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I97),"",IF(ISBLANK('Totaux nationaux bruts'!I96),"",'Totaux nationaux bruts'!I97-'Totaux nationaux bruts'!I96))</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="12">
+        <f>'Totaux nationaux bruts'!A98</f>
+        <v>43950</v>
+      </c>
+      <c r="B98" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B98),"",IF(ISBLANK('Totaux nationaux bruts'!B97),"",'Totaux nationaux bruts'!B98-'Totaux nationaux bruts'!B97))</f>
+        <v>-1417</v>
+      </c>
+      <c r="C98" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C98),"",IF(ISBLANK('Totaux nationaux bruts'!C97),"",'Totaux nationaux bruts'!C98-'Totaux nationaux bruts'!C97))</f>
+        <v>-650</v>
+      </c>
+      <c r="D98" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D98),"",IF(ISBLANK('Totaux nationaux bruts'!D97),"",'Totaux nationaux bruts'!D98-'Totaux nationaux bruts'!D97))</f>
+        <v>1342</v>
+      </c>
+      <c r="E98" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E98),"",IF(ISBLANK('Totaux nationaux bruts'!E97),"",'Totaux nationaux bruts'!E98-'Totaux nationaux bruts'!E97))</f>
+        <v>-180</v>
+      </c>
+      <c r="F98" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F98),"",IF(ISBLANK('Totaux nationaux bruts'!F97),"",'Totaux nationaux bruts'!F98-'Totaux nationaux bruts'!F97))</f>
+        <v>243</v>
+      </c>
+      <c r="G98" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G98),"",IF(ISBLANK('Totaux nationaux bruts'!G97),"",'Totaux nationaux bruts'!G98-'Totaux nationaux bruts'!G97))</f>
+        <v>-120</v>
+      </c>
+      <c r="H98" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H98),"",IF(ISBLANK('Totaux nationaux bruts'!H97),"",'Totaux nationaux bruts'!H98-'Totaux nationaux bruts'!H97))</f>
+        <v>978</v>
+      </c>
+      <c r="I98" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I98),"",IF(ISBLANK('Totaux nationaux bruts'!I97),"",'Totaux nationaux bruts'!I98-'Totaux nationaux bruts'!I97))</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="12">
+        <f>'Totaux nationaux bruts'!A99</f>
+        <v>43951</v>
+      </c>
+      <c r="B99" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B99),"",IF(ISBLANK('Totaux nationaux bruts'!B98),"",'Totaux nationaux bruts'!B99-'Totaux nationaux bruts'!B98))</f>
+        <v>1139</v>
+      </c>
+      <c r="C99" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C99),"",IF(ISBLANK('Totaux nationaux bruts'!C98),"",'Totaux nationaux bruts'!C99-'Totaux nationaux bruts'!C98))</f>
+        <v>-551</v>
+      </c>
+      <c r="D99" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D99),"",IF(ISBLANK('Totaux nationaux bruts'!D98),"",'Totaux nationaux bruts'!D99-'Totaux nationaux bruts'!D98))</f>
+        <v>1248</v>
+      </c>
+      <c r="E99" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E99),"",IF(ISBLANK('Totaux nationaux bruts'!E98),"",'Totaux nationaux bruts'!E99-'Totaux nationaux bruts'!E98))</f>
+        <v>-188</v>
+      </c>
+      <c r="F99" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F99),"",IF(ISBLANK('Totaux nationaux bruts'!F98),"",'Totaux nationaux bruts'!F99-'Totaux nationaux bruts'!F98))</f>
+        <v>191</v>
+      </c>
+      <c r="G99" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G99),"",IF(ISBLANK('Totaux nationaux bruts'!G98),"",'Totaux nationaux bruts'!G99-'Totaux nationaux bruts'!G98))</f>
+        <v>179</v>
+      </c>
+      <c r="H99" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H99),"",IF(ISBLANK('Totaux nationaux bruts'!H98),"",'Totaux nationaux bruts'!H99-'Totaux nationaux bruts'!H98))</f>
+        <v>560</v>
+      </c>
+      <c r="I99" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I99),"",IF(ISBLANK('Totaux nationaux bruts'!I98),"",'Totaux nationaux bruts'!I99-'Totaux nationaux bruts'!I98))</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="12">
+        <f>'Totaux nationaux bruts'!A100</f>
+        <v>43952</v>
+      </c>
+      <c r="B100" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B100),"",IF(ISBLANK('Totaux nationaux bruts'!B99),"",'Totaux nationaux bruts'!B100-'Totaux nationaux bruts'!B99))</f>
+        <v>604</v>
+      </c>
+      <c r="C100" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C100),"",IF(ISBLANK('Totaux nationaux bruts'!C99),"",'Totaux nationaux bruts'!C100-'Totaux nationaux bruts'!C99))</f>
+        <v>-396</v>
+      </c>
+      <c r="D100" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D100),"",IF(ISBLANK('Totaux nationaux bruts'!D99),"",'Totaux nationaux bruts'!D100-'Totaux nationaux bruts'!D99))</f>
+        <v>736</v>
+      </c>
+      <c r="E100" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E100),"",IF(ISBLANK('Totaux nationaux bruts'!E99),"",'Totaux nationaux bruts'!E100-'Totaux nationaux bruts'!E99))</f>
+        <v>-141</v>
+      </c>
+      <c r="F100" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F100),"",IF(ISBLANK('Totaux nationaux bruts'!F99),"",'Totaux nationaux bruts'!F100-'Totaux nationaux bruts'!F99))</f>
+        <v>125</v>
+      </c>
+      <c r="G100" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G100),"",IF(ISBLANK('Totaux nationaux bruts'!G99),"",'Totaux nationaux bruts'!G100-'Totaux nationaux bruts'!G99))</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H100),"",IF(ISBLANK('Totaux nationaux bruts'!H99),"",'Totaux nationaux bruts'!H100-'Totaux nationaux bruts'!H99))</f>
+        <v>436</v>
+      </c>
+      <c r="I100" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I100),"",IF(ISBLANK('Totaux nationaux bruts'!I99),"",'Totaux nationaux bruts'!I100-'Totaux nationaux bruts'!I99))</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="12">
+        <f>'Totaux nationaux bruts'!A101</f>
+        <v>43953</v>
+      </c>
+      <c r="B101" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B101),"",IF(ISBLANK('Totaux nationaux bruts'!B100),"",'Totaux nationaux bruts'!B101-'Totaux nationaux bruts'!B100))</f>
+        <v>794</v>
+      </c>
+      <c r="C101" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C101),"",IF(ISBLANK('Totaux nationaux bruts'!C100),"",'Totaux nationaux bruts'!C101-'Totaux nationaux bruts'!C100))</f>
+        <v>-60</v>
+      </c>
+      <c r="D101" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D101),"",IF(ISBLANK('Totaux nationaux bruts'!D100),"",'Totaux nationaux bruts'!D101-'Totaux nationaux bruts'!D100))</f>
+        <v>350</v>
+      </c>
+      <c r="E101" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E101),"",IF(ISBLANK('Totaux nationaux bruts'!E100),"",'Totaux nationaux bruts'!E101-'Totaux nationaux bruts'!E100))</f>
+        <v>-51</v>
+      </c>
+      <c r="F101" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F101),"",IF(ISBLANK('Totaux nationaux bruts'!F100),"",'Totaux nationaux bruts'!F101-'Totaux nationaux bruts'!F100))</f>
+        <v>118</v>
+      </c>
+      <c r="G101" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G101),"",IF(ISBLANK('Totaux nationaux bruts'!G100),"",'Totaux nationaux bruts'!G101-'Totaux nationaux bruts'!G100))</f>
+        <v>736</v>
+      </c>
+      <c r="H101" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H101),"",IF(ISBLANK('Totaux nationaux bruts'!H100),"",'Totaux nationaux bruts'!H101-'Totaux nationaux bruts'!H100))</f>
+        <v>480</v>
+      </c>
+      <c r="I101" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I101),"",IF(ISBLANK('Totaux nationaux bruts'!I100),"",'Totaux nationaux bruts'!I101-'Totaux nationaux bruts'!I100))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="12">
+        <f>'Totaux nationaux bruts'!A102</f>
+        <v>43954</v>
+      </c>
+      <c r="B102" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B102),"",IF(ISBLANK('Totaux nationaux bruts'!B101),"",'Totaux nationaux bruts'!B102-'Totaux nationaux bruts'!B101))</f>
+        <v>308</v>
+      </c>
+      <c r="C102" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C102),"",IF(ISBLANK('Totaux nationaux bruts'!C101),"",'Totaux nationaux bruts'!C102-'Totaux nationaux bruts'!C101))</f>
+        <v>-12</v>
+      </c>
+      <c r="D102" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D102),"",IF(ISBLANK('Totaux nationaux bruts'!D101),"",'Totaux nationaux bruts'!D102-'Totaux nationaux bruts'!D101))</f>
+        <v>222</v>
+      </c>
+      <c r="E102" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E102),"",IF(ISBLANK('Totaux nationaux bruts'!E101),"",'Totaux nationaux bruts'!E102-'Totaux nationaux bruts'!E101))</f>
+        <v>-8</v>
+      </c>
+      <c r="F102" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F102),"",IF(ISBLANK('Totaux nationaux bruts'!F101),"",'Totaux nationaux bruts'!F102-'Totaux nationaux bruts'!F101))</f>
+        <v>96</v>
+      </c>
+      <c r="G102" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G102),"",IF(ISBLANK('Totaux nationaux bruts'!G101),"",'Totaux nationaux bruts'!G102-'Totaux nationaux bruts'!G101))</f>
+        <v>79</v>
+      </c>
+      <c r="H102" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H102),"",IF(ISBLANK('Totaux nationaux bruts'!H101),"",'Totaux nationaux bruts'!H102-'Totaux nationaux bruts'!H101))</f>
+        <v>90</v>
+      </c>
+      <c r="I102" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I102),"",IF(ISBLANK('Totaux nationaux bruts'!I101),"",'Totaux nationaux bruts'!I102-'Totaux nationaux bruts'!I101))</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="12">
+        <f>'Totaux nationaux bruts'!A103</f>
+        <v>43955</v>
+      </c>
+      <c r="B103" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B103),"",IF(ISBLANK('Totaux nationaux bruts'!B102),"",'Totaux nationaux bruts'!B103-'Totaux nationaux bruts'!B102))</f>
+        <v>576</v>
+      </c>
+      <c r="C103" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C103),"",IF(ISBLANK('Totaux nationaux bruts'!C102),"",'Totaux nationaux bruts'!C103-'Totaux nationaux bruts'!C102))</f>
+        <v>-267</v>
+      </c>
+      <c r="D103" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D103),"",IF(ISBLANK('Totaux nationaux bruts'!D102),"",'Totaux nationaux bruts'!D103-'Totaux nationaux bruts'!D102))</f>
+        <v>587</v>
+      </c>
+      <c r="E103" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E103),"",IF(ISBLANK('Totaux nationaux bruts'!E102),"",'Totaux nationaux bruts'!E103-'Totaux nationaux bruts'!E102))</f>
+        <v>-123</v>
+      </c>
+      <c r="F103" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F103),"",IF(ISBLANK('Totaux nationaux bruts'!F102),"",'Totaux nationaux bruts'!F103-'Totaux nationaux bruts'!F102))</f>
+        <v>243</v>
+      </c>
+      <c r="G103" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G103),"",IF(ISBLANK('Totaux nationaux bruts'!G102),"",'Totaux nationaux bruts'!G103-'Totaux nationaux bruts'!G102))</f>
+        <v>623</v>
+      </c>
+      <c r="H103" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H103),"",IF(ISBLANK('Totaux nationaux bruts'!H102),"",'Totaux nationaux bruts'!H103-'Totaux nationaux bruts'!H102))</f>
+        <v>430</v>
+      </c>
+      <c r="I103" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I103),"",IF(ISBLANK('Totaux nationaux bruts'!I102),"",'Totaux nationaux bruts'!I103-'Totaux nationaux bruts'!I102))</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="12">
+        <f>'Totaux nationaux bruts'!A104</f>
+        <v>43956</v>
+      </c>
+      <c r="B104" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B104),"",IF(ISBLANK('Totaux nationaux bruts'!B103),"",'Totaux nationaux bruts'!B104-'Totaux nationaux bruts'!B103))</f>
+        <v>1104</v>
+      </c>
+      <c r="C104" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C104),"",IF(ISBLANK('Totaux nationaux bruts'!C103),"",'Totaux nationaux bruts'!C104-'Totaux nationaux bruts'!C103))</f>
+        <v>-773</v>
+      </c>
+      <c r="D104" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D104),"",IF(ISBLANK('Totaux nationaux bruts'!D103),"",'Totaux nationaux bruts'!D104-'Totaux nationaux bruts'!D103))</f>
+        <v>1365</v>
+      </c>
+      <c r="E104" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E104),"",IF(ISBLANK('Totaux nationaux bruts'!E103),"",'Totaux nationaux bruts'!E104-'Totaux nationaux bruts'!E103))</f>
+        <v>-266</v>
+      </c>
+      <c r="F104" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F104),"",IF(ISBLANK('Totaux nationaux bruts'!F103),"",'Totaux nationaux bruts'!F104-'Totaux nationaux bruts'!F103))</f>
+        <v>234</v>
+      </c>
+      <c r="G104" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G104),"",IF(ISBLANK('Totaux nationaux bruts'!G103),"",'Totaux nationaux bruts'!G104-'Totaux nationaux bruts'!G103))</f>
+        <v>302</v>
+      </c>
+      <c r="H104" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H104),"",IF(ISBLANK('Totaux nationaux bruts'!H103),"",'Totaux nationaux bruts'!H104-'Totaux nationaux bruts'!H103))</f>
+        <v>317</v>
+      </c>
+      <c r="I104" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I104),"",IF(ISBLANK('Totaux nationaux bruts'!I103),"",'Totaux nationaux bruts'!I104-'Totaux nationaux bruts'!I103))</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="12">
+        <f>'Totaux nationaux bruts'!A105</f>
+        <v>43957</v>
+      </c>
+      <c r="B105" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B105),"",IF(ISBLANK('Totaux nationaux bruts'!B104),"",'Totaux nationaux bruts'!B105-'Totaux nationaux bruts'!B104))</f>
+        <v>4183</v>
+      </c>
+      <c r="C105" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C105),"",IF(ISBLANK('Totaux nationaux bruts'!C104),"",'Totaux nationaux bruts'!C105-'Totaux nationaux bruts'!C104))</f>
+        <v>-792</v>
+      </c>
+      <c r="D105" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D105),"",IF(ISBLANK('Totaux nationaux bruts'!D104),"",'Totaux nationaux bruts'!D105-'Totaux nationaux bruts'!D104))</f>
+        <v>1236</v>
+      </c>
+      <c r="E105" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E105),"",IF(ISBLANK('Totaux nationaux bruts'!E104),"",'Totaux nationaux bruts'!E105-'Totaux nationaux bruts'!E104))</f>
+        <v>-283</v>
+      </c>
+      <c r="F105" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F105),"",IF(ISBLANK('Totaux nationaux bruts'!F104),"",'Totaux nationaux bruts'!F105-'Totaux nationaux bruts'!F104))</f>
+        <v>177</v>
+      </c>
+      <c r="G105" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G105),"",IF(ISBLANK('Totaux nationaux bruts'!G104),"",'Totaux nationaux bruts'!G105-'Totaux nationaux bruts'!G104))</f>
+        <v>-144</v>
+      </c>
+      <c r="H105" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H105),"",IF(ISBLANK('Totaux nationaux bruts'!H104),"",'Totaux nationaux bruts'!H105-'Totaux nationaux bruts'!H104))</f>
+        <v>399</v>
+      </c>
+      <c r="I105" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I105),"",IF(ISBLANK('Totaux nationaux bruts'!I104),"",'Totaux nationaux bruts'!I105-'Totaux nationaux bruts'!I104))</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="12">
+        <f>'Totaux nationaux bruts'!A106</f>
+        <v>43958</v>
+      </c>
+      <c r="B106" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B106),"",IF(ISBLANK('Totaux nationaux bruts'!B105),"",'Totaux nationaux bruts'!B106-'Totaux nationaux bruts'!B105))</f>
+        <v>629</v>
+      </c>
+      <c r="C106" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C106),"",IF(ISBLANK('Totaux nationaux bruts'!C105),"",'Totaux nationaux bruts'!C106-'Totaux nationaux bruts'!C105))</f>
+        <v>-775</v>
+      </c>
+      <c r="D106" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D106),"",IF(ISBLANK('Totaux nationaux bruts'!D105),"",'Totaux nationaux bruts'!D106-'Totaux nationaux bruts'!D105))</f>
+        <v>1055</v>
+      </c>
+      <c r="E106" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E106),"",IF(ISBLANK('Totaux nationaux bruts'!E105),"",'Totaux nationaux bruts'!E106-'Totaux nationaux bruts'!E105))</f>
+        <v>-186</v>
+      </c>
+      <c r="F106" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F106),"",IF(ISBLANK('Totaux nationaux bruts'!F105),"",'Totaux nationaux bruts'!F106-'Totaux nationaux bruts'!F105))</f>
+        <v>149</v>
+      </c>
+      <c r="G106" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G106),"",IF(ISBLANK('Totaux nationaux bruts'!G105),"",'Totaux nationaux bruts'!G106-'Totaux nationaux bruts'!G105))</f>
+        <v>117</v>
+      </c>
+      <c r="H106" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H106),"",IF(ISBLANK('Totaux nationaux bruts'!H105),"",'Totaux nationaux bruts'!H106-'Totaux nationaux bruts'!H105))</f>
+        <v>146</v>
+      </c>
+      <c r="I106" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I106),"",IF(ISBLANK('Totaux nationaux bruts'!I105),"",'Totaux nationaux bruts'!I106-'Totaux nationaux bruts'!I105))</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="12">
+        <f>'Totaux nationaux bruts'!A107</f>
+        <v>43959</v>
+      </c>
+      <c r="B107" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B107),"",IF(ISBLANK('Totaux nationaux bruts'!B106),"",'Totaux nationaux bruts'!B107-'Totaux nationaux bruts'!B106))</f>
+        <v>642</v>
+      </c>
+      <c r="C107" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C107),"",IF(ISBLANK('Totaux nationaux bruts'!C106),"",'Totaux nationaux bruts'!C107-'Totaux nationaux bruts'!C106))</f>
+        <v>-484</v>
+      </c>
+      <c r="D107" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D107),"",IF(ISBLANK('Totaux nationaux bruts'!D106),"",'Totaux nationaux bruts'!D107-'Totaux nationaux bruts'!D106))</f>
+        <v>755</v>
+      </c>
+      <c r="E107" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E107),"",IF(ISBLANK('Totaux nationaux bruts'!E106),"",'Totaux nationaux bruts'!E107-'Totaux nationaux bruts'!E106))</f>
+        <v>-93</v>
+      </c>
+      <c r="F107" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F107),"",IF(ISBLANK('Totaux nationaux bruts'!F106),"",'Totaux nationaux bruts'!F107-'Totaux nationaux bruts'!F106))</f>
+        <v>111</v>
+      </c>
+      <c r="G107" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G107),"",IF(ISBLANK('Totaux nationaux bruts'!G106),"",'Totaux nationaux bruts'!G107-'Totaux nationaux bruts'!G106))</f>
+        <v>883</v>
+      </c>
+      <c r="H107" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H107),"",IF(ISBLANK('Totaux nationaux bruts'!H106),"",'Totaux nationaux bruts'!H107-'Totaux nationaux bruts'!H106))</f>
+        <v>237</v>
+      </c>
+      <c r="I107" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I107),"",IF(ISBLANK('Totaux nationaux bruts'!I106),"",'Totaux nationaux bruts'!I107-'Totaux nationaux bruts'!I106))</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="12">
+        <f>'Totaux nationaux bruts'!A108</f>
+        <v>43960</v>
+      </c>
+      <c r="B108" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B108),"",IF(ISBLANK('Totaux nationaux bruts'!B107),"",'Totaux nationaux bruts'!B108-'Totaux nationaux bruts'!B107))</f>
+        <v>433</v>
+      </c>
+      <c r="C108" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C108),"",IF(ISBLANK('Totaux nationaux bruts'!C107),"",'Totaux nationaux bruts'!C108-'Totaux nationaux bruts'!C107))</f>
+        <v>-110</v>
+      </c>
+      <c r="D108" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D108),"",IF(ISBLANK('Totaux nationaux bruts'!D107),"",'Totaux nationaux bruts'!D108-'Totaux nationaux bruts'!D107))</f>
+        <v>256</v>
+      </c>
+      <c r="E108" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E108),"",IF(ISBLANK('Totaux nationaux bruts'!E107),"",'Totaux nationaux bruts'!E108-'Totaux nationaux bruts'!E107))</f>
+        <v>-56</v>
+      </c>
+      <c r="F108" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F108),"",IF(ISBLANK('Totaux nationaux bruts'!F107),"",'Totaux nationaux bruts'!F108-'Totaux nationaux bruts'!F107))</f>
+        <v>76</v>
+      </c>
+      <c r="G108" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G108),"",IF(ISBLANK('Totaux nationaux bruts'!G107),"",'Totaux nationaux bruts'!G108-'Totaux nationaux bruts'!G107))</f>
+        <v>302</v>
+      </c>
+      <c r="H108" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H108),"",IF(ISBLANK('Totaux nationaux bruts'!H107),"",'Totaux nationaux bruts'!H108-'Totaux nationaux bruts'!H107))</f>
+        <v>156</v>
+      </c>
+      <c r="I108" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I108),"",IF(ISBLANK('Totaux nationaux bruts'!I107),"",'Totaux nationaux bruts'!I108-'Totaux nationaux bruts'!I107))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="12">
+        <f>'Totaux nationaux bruts'!A109</f>
+        <v>43961</v>
+      </c>
+      <c r="B109" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B109),"",IF(ISBLANK('Totaux nationaux bruts'!B108),"",'Totaux nationaux bruts'!B109-'Totaux nationaux bruts'!B108))</f>
+        <v>209</v>
+      </c>
+      <c r="C109" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C109),"",IF(ISBLANK('Totaux nationaux bruts'!C108),"",'Totaux nationaux bruts'!C109-'Totaux nationaux bruts'!C108))</f>
+        <v>-45</v>
+      </c>
+      <c r="D109" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D109),"",IF(ISBLANK('Totaux nationaux bruts'!D108),"",'Totaux nationaux bruts'!D109-'Totaux nationaux bruts'!D108))</f>
+        <v>179</v>
+      </c>
+      <c r="E109" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E109),"",IF(ISBLANK('Totaux nationaux bruts'!E108),"",'Totaux nationaux bruts'!E109-'Totaux nationaux bruts'!E108))</f>
+        <v>-36</v>
+      </c>
+      <c r="F109" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F109),"",IF(ISBLANK('Totaux nationaux bruts'!F108),"",'Totaux nationaux bruts'!F109-'Totaux nationaux bruts'!F108))</f>
+        <v>69</v>
+      </c>
+      <c r="G109" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G109),"",IF(ISBLANK('Totaux nationaux bruts'!G108),"",'Totaux nationaux bruts'!G109-'Totaux nationaux bruts'!G108))</f>
+        <v>293</v>
+      </c>
+      <c r="H109" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H109),"",IF(ISBLANK('Totaux nationaux bruts'!H108),"",'Totaux nationaux bruts'!H109-'Totaux nationaux bruts'!H108))</f>
+        <v>190</v>
+      </c>
+      <c r="I109" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I109),"",IF(ISBLANK('Totaux nationaux bruts'!I108),"",'Totaux nationaux bruts'!I109-'Totaux nationaux bruts'!I108))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="12">
+        <f>'Totaux nationaux bruts'!A110</f>
+        <v>43962</v>
+      </c>
+      <c r="B110" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B110),"",IF(ISBLANK('Totaux nationaux bruts'!B109),"",'Totaux nationaux bruts'!B110-'Totaux nationaux bruts'!B109))</f>
+        <v>456</v>
+      </c>
+      <c r="C110" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C110),"",IF(ISBLANK('Totaux nationaux bruts'!C109),"",'Totaux nationaux bruts'!C110-'Totaux nationaux bruts'!C109))</f>
+        <v>-285</v>
+      </c>
+      <c r="D110" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D110),"",IF(ISBLANK('Totaux nationaux bruts'!D109),"",'Totaux nationaux bruts'!D110-'Totaux nationaux bruts'!D109))</f>
+        <v>507</v>
+      </c>
+      <c r="E110" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E110),"",IF(ISBLANK('Totaux nationaux bruts'!E109),"",'Totaux nationaux bruts'!E110-'Totaux nationaux bruts'!E109))</f>
+        <v>-64</v>
+      </c>
+      <c r="F110" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F110),"",IF(ISBLANK('Totaux nationaux bruts'!F109),"",'Totaux nationaux bruts'!F110-'Totaux nationaux bruts'!F109))</f>
+        <v>178</v>
+      </c>
+      <c r="G110" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G110),"",IF(ISBLANK('Totaux nationaux bruts'!G109),"",'Totaux nationaux bruts'!G110-'Totaux nationaux bruts'!G109))</f>
+        <v>-44</v>
+      </c>
+      <c r="H110" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H110),"",IF(ISBLANK('Totaux nationaux bruts'!H109),"",'Totaux nationaux bruts'!H110-'Totaux nationaux bruts'!H109))</f>
+        <v>-41</v>
+      </c>
+      <c r="I110" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I110),"",IF(ISBLANK('Totaux nationaux bruts'!I109),"",'Totaux nationaux bruts'!I110-'Totaux nationaux bruts'!I109))</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="12">
+        <f>'Totaux nationaux bruts'!A111</f>
+        <v>43963</v>
+      </c>
+      <c r="B111" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B111),"",IF(ISBLANK('Totaux nationaux bruts'!B110),"",'Totaux nationaux bruts'!B111-'Totaux nationaux bruts'!B110))</f>
+        <v>708</v>
+      </c>
+      <c r="C111" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C111),"",IF(ISBLANK('Totaux nationaux bruts'!C110),"",'Totaux nationaux bruts'!C111-'Totaux nationaux bruts'!C110))</f>
+        <v>-689</v>
+      </c>
+      <c r="D111" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D111),"",IF(ISBLANK('Totaux nationaux bruts'!D110),"",'Totaux nationaux bruts'!D111-'Totaux nationaux bruts'!D110))</f>
+        <v>1061</v>
+      </c>
+      <c r="E111" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E111),"",IF(ISBLANK('Totaux nationaux bruts'!E110),"",'Totaux nationaux bruts'!E111-'Totaux nationaux bruts'!E110))</f>
+        <v>-170</v>
+      </c>
+      <c r="F111" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F111),"",IF(ISBLANK('Totaux nationaux bruts'!F110),"",'Totaux nationaux bruts'!F111-'Totaux nationaux bruts'!F110))</f>
+        <v>183</v>
+      </c>
+      <c r="G111" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G111),"",IF(ISBLANK('Totaux nationaux bruts'!G110),"",'Totaux nationaux bruts'!G111-'Totaux nationaux bruts'!G110))</f>
+        <v>336</v>
+      </c>
+      <c r="H111" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H111),"",IF(ISBLANK('Totaux nationaux bruts'!H110),"",'Totaux nationaux bruts'!H111-'Totaux nationaux bruts'!H110))</f>
+        <v>242</v>
+      </c>
+      <c r="I111" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I111),"",IF(ISBLANK('Totaux nationaux bruts'!I110),"",'Totaux nationaux bruts'!I111-'Totaux nationaux bruts'!I110))</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="12">
+        <f>'Totaux nationaux bruts'!A112</f>
+        <v>43964</v>
+      </c>
+      <c r="B112" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B112),"",IF(ISBLANK('Totaux nationaux bruts'!B111),"",'Totaux nationaux bruts'!B112-'Totaux nationaux bruts'!B111))</f>
+        <v>507</v>
+      </c>
+      <c r="C112" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C112),"",IF(ISBLANK('Totaux nationaux bruts'!C111),"",'Totaux nationaux bruts'!C112-'Totaux nationaux bruts'!C111))</f>
+        <v>-524</v>
+      </c>
+      <c r="D112" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D112),"",IF(ISBLANK('Totaux nationaux bruts'!D111),"",'Totaux nationaux bruts'!D112-'Totaux nationaux bruts'!D111))</f>
+        <v>888</v>
+      </c>
+      <c r="E112" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E112),"",IF(ISBLANK('Totaux nationaux bruts'!E111),"",'Totaux nationaux bruts'!E112-'Totaux nationaux bruts'!E111))</f>
+        <v>-114</v>
+      </c>
+      <c r="F112" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F112),"",IF(ISBLANK('Totaux nationaux bruts'!F111),"",'Totaux nationaux bruts'!F112-'Totaux nationaux bruts'!F111))</f>
+        <v>98</v>
+      </c>
+      <c r="G112" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G112),"",IF(ISBLANK('Totaux nationaux bruts'!G111),"",'Totaux nationaux bruts'!G112-'Totaux nationaux bruts'!G111))</f>
+        <v>-505</v>
+      </c>
+      <c r="H112" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H112),"",IF(ISBLANK('Totaux nationaux bruts'!H111),"",'Totaux nationaux bruts'!H112-'Totaux nationaux bruts'!H111))</f>
+        <v>167</v>
+      </c>
+      <c r="I112" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I112),"",IF(ISBLANK('Totaux nationaux bruts'!I111),"",'Totaux nationaux bruts'!I112-'Totaux nationaux bruts'!I111))</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="12">
+        <f>'Totaux nationaux bruts'!A113</f>
+        <v>43965</v>
+      </c>
+      <c r="B113" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B113),"",IF(ISBLANK('Totaux nationaux bruts'!B112),"",'Totaux nationaux bruts'!B113-'Totaux nationaux bruts'!B112))</f>
+        <v>622</v>
+      </c>
+      <c r="C113" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C113),"",IF(ISBLANK('Totaux nationaux bruts'!C112),"",'Totaux nationaux bruts'!C113-'Totaux nationaux bruts'!C112))</f>
+        <v>-608</v>
+      </c>
+      <c r="D113" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D113),"",IF(ISBLANK('Totaux nationaux bruts'!D112),"",'Totaux nationaux bruts'!D113-'Totaux nationaux bruts'!D112))</f>
+        <v>932</v>
+      </c>
+      <c r="E113" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E113),"",IF(ISBLANK('Totaux nationaux bruts'!E112),"",'Totaux nationaux bruts'!E113-'Totaux nationaux bruts'!E112))</f>
+        <v>-129</v>
+      </c>
+      <c r="F113" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F113),"",IF(ISBLANK('Totaux nationaux bruts'!F112),"",'Totaux nationaux bruts'!F113-'Totaux nationaux bruts'!F112))</f>
+        <v>123</v>
+      </c>
+      <c r="G113" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G113),"",IF(ISBLANK('Totaux nationaux bruts'!G112),"",'Totaux nationaux bruts'!G113-'Totaux nationaux bruts'!G112))</f>
+        <v>404</v>
+      </c>
+      <c r="H113" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H113),"",IF(ISBLANK('Totaux nationaux bruts'!H112),"",'Totaux nationaux bruts'!H113-'Totaux nationaux bruts'!H112))</f>
+        <v>216</v>
+      </c>
+      <c r="I113" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I113),"",IF(ISBLANK('Totaux nationaux bruts'!I112),"",'Totaux nationaux bruts'!I113-'Totaux nationaux bruts'!I112))</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="12">
+        <f>'Totaux nationaux bruts'!A114</f>
+        <v>43966</v>
+      </c>
+      <c r="B114" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B114),"",IF(ISBLANK('Totaux nationaux bruts'!B113),"",'Totaux nationaux bruts'!B114-'Totaux nationaux bruts'!B113))</f>
+        <v>563</v>
+      </c>
+      <c r="C114" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C114),"",IF(ISBLANK('Totaux nationaux bruts'!C113),"",'Totaux nationaux bruts'!C114-'Totaux nationaux bruts'!C113))</f>
+        <v>-602</v>
+      </c>
+      <c r="D114" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D114),"",IF(ISBLANK('Totaux nationaux bruts'!D113),"",'Totaux nationaux bruts'!D114-'Totaux nationaux bruts'!D113))</f>
+        <v>843</v>
+      </c>
+      <c r="E114" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E114),"",IF(ISBLANK('Totaux nationaux bruts'!E113),"",'Totaux nationaux bruts'!E114-'Totaux nationaux bruts'!E113))</f>
+        <v>-96</v>
+      </c>
+      <c r="F114" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F114),"",IF(ISBLANK('Totaux nationaux bruts'!F113),"",'Totaux nationaux bruts'!F114-'Totaux nationaux bruts'!F113))</f>
+        <v>118</v>
+      </c>
+      <c r="G114" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G114),"",IF(ISBLANK('Totaux nationaux bruts'!G113),"",'Totaux nationaux bruts'!G114-'Totaux nationaux bruts'!G113))</f>
+        <v>379</v>
+      </c>
+      <c r="H114" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H114),"",IF(ISBLANK('Totaux nationaux bruts'!H113),"",'Totaux nationaux bruts'!H114-'Totaux nationaux bruts'!H113))</f>
+        <v>306</v>
+      </c>
+      <c r="I114" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I114),"",IF(ISBLANK('Totaux nationaux bruts'!I113),"",'Totaux nationaux bruts'!I114-'Totaux nationaux bruts'!I113))</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="12">
+        <f>'Totaux nationaux bruts'!A115</f>
+        <v>43967</v>
+      </c>
+      <c r="B115" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B115),"",IF(ISBLANK('Totaux nationaux bruts'!B114),"",'Totaux nationaux bruts'!B115-'Totaux nationaux bruts'!B114))</f>
+        <v>372</v>
+      </c>
+      <c r="C115" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C115),"",IF(ISBLANK('Totaux nationaux bruts'!C114),"",'Totaux nationaux bruts'!C115-'Totaux nationaux bruts'!C114))</f>
+        <v>-429</v>
+      </c>
+      <c r="D115" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D115),"",IF(ISBLANK('Totaux nationaux bruts'!D114),"",'Totaux nationaux bruts'!D115-'Totaux nationaux bruts'!D114))</f>
+        <v>618</v>
+      </c>
+      <c r="E115" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E115),"",IF(ISBLANK('Totaux nationaux bruts'!E114),"",'Totaux nationaux bruts'!E115-'Totaux nationaux bruts'!E114))</f>
+        <v>-71</v>
+      </c>
+      <c r="F115" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F115),"",IF(ISBLANK('Totaux nationaux bruts'!F114),"",'Totaux nationaux bruts'!F115-'Totaux nationaux bruts'!F114))</f>
+        <v>70</v>
+      </c>
+      <c r="G115" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G115),"",IF(ISBLANK('Totaux nationaux bruts'!G114),"",'Totaux nationaux bruts'!G115-'Totaux nationaux bruts'!G114))</f>
+        <v>-464</v>
+      </c>
+      <c r="H115" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H115),"",IF(ISBLANK('Totaux nationaux bruts'!H114),"",'Totaux nationaux bruts'!H115-'Totaux nationaux bruts'!H114))</f>
+        <v>49</v>
+      </c>
+      <c r="I115" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I115),"",IF(ISBLANK('Totaux nationaux bruts'!I114),"",'Totaux nationaux bruts'!I115-'Totaux nationaux bruts'!I114))</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="12">
+        <f>'Totaux nationaux bruts'!A116</f>
+        <v>43968</v>
+      </c>
+      <c r="B116" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B116),"",IF(ISBLANK('Totaux nationaux bruts'!B115),"",'Totaux nationaux bruts'!B116-'Totaux nationaux bruts'!B115))</f>
+        <v>120</v>
+      </c>
+      <c r="C116" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C116),"",IF(ISBLANK('Totaux nationaux bruts'!C115),"",'Totaux nationaux bruts'!C116-'Totaux nationaux bruts'!C115))</f>
+        <v>-71</v>
+      </c>
+      <c r="D116" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D116),"",IF(ISBLANK('Totaux nationaux bruts'!D115),"",'Totaux nationaux bruts'!D116-'Totaux nationaux bruts'!D115))</f>
+        <v>147</v>
+      </c>
+      <c r="E116" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E116),"",IF(ISBLANK('Totaux nationaux bruts'!E115),"",'Totaux nationaux bruts'!E116-'Totaux nationaux bruts'!E115))</f>
+        <v>-45</v>
+      </c>
+      <c r="F116" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F116),"",IF(ISBLANK('Totaux nationaux bruts'!F115),"",'Totaux nationaux bruts'!F116-'Totaux nationaux bruts'!F115))</f>
+        <v>54</v>
+      </c>
+      <c r="G116" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G116),"",IF(ISBLANK('Totaux nationaux bruts'!G115),"",'Totaux nationaux bruts'!G116-'Totaux nationaux bruts'!G115))</f>
+        <v>370</v>
+      </c>
+      <c r="H116" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H116),"",IF(ISBLANK('Totaux nationaux bruts'!H115),"",'Totaux nationaux bruts'!H116-'Totaux nationaux bruts'!H115))</f>
+        <v>286</v>
+      </c>
+      <c r="I116" s="54">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I116),"",IF(ISBLANK('Totaux nationaux bruts'!I115),"",'Totaux nationaux bruts'!I116-'Totaux nationaux bruts'!I115))</f>
+        <v>429</v>
+      </c>
+      <c r="J116" t="str">
+        <f>TEXT(A116,"jj/mm/aaaa")&amp;","&amp;B116&amp;","&amp;C116&amp;","&amp;D116&amp;","&amp;E116&amp;","&amp;F116&amp;","&amp;G116&amp;","&amp;H116&amp;","&amp;I116</f>
+        <v>17/05/2020,120,-71,147,-45,54,370,286,429</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="12">
+        <f>'Totaux nationaux bruts'!A117</f>
+        <v>43969</v>
+      </c>
+      <c r="B117" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B117),"",IF(ISBLANK('Totaux nationaux bruts'!B116),"",'Totaux nationaux bruts'!B117-'Totaux nationaux bruts'!B116))</f>
+        <v/>
+      </c>
+      <c r="C117" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C117),"",IF(ISBLANK('Totaux nationaux bruts'!C116),"",'Totaux nationaux bruts'!C117-'Totaux nationaux bruts'!C116))</f>
+        <v/>
+      </c>
+      <c r="D117" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D117),"",IF(ISBLANK('Totaux nationaux bruts'!D116),"",'Totaux nationaux bruts'!D117-'Totaux nationaux bruts'!D116))</f>
+        <v/>
+      </c>
+      <c r="E117" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E117),"",IF(ISBLANK('Totaux nationaux bruts'!E116),"",'Totaux nationaux bruts'!E117-'Totaux nationaux bruts'!E116))</f>
+        <v/>
+      </c>
+      <c r="F117" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F117),"",IF(ISBLANK('Totaux nationaux bruts'!F116),"",'Totaux nationaux bruts'!F117-'Totaux nationaux bruts'!F116))</f>
+        <v/>
+      </c>
+      <c r="G117" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G117),"",IF(ISBLANK('Totaux nationaux bruts'!G116),"",'Totaux nationaux bruts'!G117-'Totaux nationaux bruts'!G116))</f>
+        <v/>
+      </c>
+      <c r="H117" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H117),"",IF(ISBLANK('Totaux nationaux bruts'!H116),"",'Totaux nationaux bruts'!H117-'Totaux nationaux bruts'!H116))</f>
+        <v/>
+      </c>
+      <c r="I117" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I117),"",IF(ISBLANK('Totaux nationaux bruts'!I116),"",'Totaux nationaux bruts'!I117-'Totaux nationaux bruts'!I116))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="12">
+        <f>'Totaux nationaux bruts'!A118</f>
+        <v>43970</v>
+      </c>
+      <c r="B118" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B118),"",IF(ISBLANK('Totaux nationaux bruts'!B117),"",'Totaux nationaux bruts'!B118-'Totaux nationaux bruts'!B117))</f>
+        <v/>
+      </c>
+      <c r="C118" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C118),"",IF(ISBLANK('Totaux nationaux bruts'!C117),"",'Totaux nationaux bruts'!C118-'Totaux nationaux bruts'!C117))</f>
+        <v/>
+      </c>
+      <c r="D118" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D118),"",IF(ISBLANK('Totaux nationaux bruts'!D117),"",'Totaux nationaux bruts'!D118-'Totaux nationaux bruts'!D117))</f>
+        <v/>
+      </c>
+      <c r="E118" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E118),"",IF(ISBLANK('Totaux nationaux bruts'!E117),"",'Totaux nationaux bruts'!E118-'Totaux nationaux bruts'!E117))</f>
+        <v/>
+      </c>
+      <c r="F118" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F118),"",IF(ISBLANK('Totaux nationaux bruts'!F117),"",'Totaux nationaux bruts'!F118-'Totaux nationaux bruts'!F117))</f>
+        <v/>
+      </c>
+      <c r="G118" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G118),"",IF(ISBLANK('Totaux nationaux bruts'!G117),"",'Totaux nationaux bruts'!G118-'Totaux nationaux bruts'!G117))</f>
+        <v/>
+      </c>
+      <c r="H118" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H118),"",IF(ISBLANK('Totaux nationaux bruts'!H117),"",'Totaux nationaux bruts'!H118-'Totaux nationaux bruts'!H117))</f>
+        <v/>
+      </c>
+      <c r="I118" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I118),"",IF(ISBLANK('Totaux nationaux bruts'!I117),"",'Totaux nationaux bruts'!I118-'Totaux nationaux bruts'!I117))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="12">
+        <f>'Totaux nationaux bruts'!A119</f>
+        <v>43971</v>
+      </c>
+      <c r="B119" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B119),"",IF(ISBLANK('Totaux nationaux bruts'!B118),"",'Totaux nationaux bruts'!B119-'Totaux nationaux bruts'!B118))</f>
+        <v/>
+      </c>
+      <c r="C119" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C119),"",IF(ISBLANK('Totaux nationaux bruts'!C118),"",'Totaux nationaux bruts'!C119-'Totaux nationaux bruts'!C118))</f>
+        <v/>
+      </c>
+      <c r="D119" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D119),"",IF(ISBLANK('Totaux nationaux bruts'!D118),"",'Totaux nationaux bruts'!D119-'Totaux nationaux bruts'!D118))</f>
+        <v/>
+      </c>
+      <c r="E119" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E119),"",IF(ISBLANK('Totaux nationaux bruts'!E118),"",'Totaux nationaux bruts'!E119-'Totaux nationaux bruts'!E118))</f>
+        <v/>
+      </c>
+      <c r="F119" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F119),"",IF(ISBLANK('Totaux nationaux bruts'!F118),"",'Totaux nationaux bruts'!F119-'Totaux nationaux bruts'!F118))</f>
+        <v/>
+      </c>
+      <c r="G119" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G119),"",IF(ISBLANK('Totaux nationaux bruts'!G118),"",'Totaux nationaux bruts'!G119-'Totaux nationaux bruts'!G118))</f>
+        <v/>
+      </c>
+      <c r="H119" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H119),"",IF(ISBLANK('Totaux nationaux bruts'!H118),"",'Totaux nationaux bruts'!H119-'Totaux nationaux bruts'!H118))</f>
+        <v/>
+      </c>
+      <c r="I119" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I119),"",IF(ISBLANK('Totaux nationaux bruts'!I118),"",'Totaux nationaux bruts'!I119-'Totaux nationaux bruts'!I118))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="12">
+        <f>'Totaux nationaux bruts'!A120</f>
+        <v>43972</v>
+      </c>
+      <c r="B120" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B120),"",IF(ISBLANK('Totaux nationaux bruts'!B119),"",'Totaux nationaux bruts'!B120-'Totaux nationaux bruts'!B119))</f>
+        <v/>
+      </c>
+      <c r="C120" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C120),"",IF(ISBLANK('Totaux nationaux bruts'!C119),"",'Totaux nationaux bruts'!C120-'Totaux nationaux bruts'!C119))</f>
+        <v/>
+      </c>
+      <c r="D120" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D120),"",IF(ISBLANK('Totaux nationaux bruts'!D119),"",'Totaux nationaux bruts'!D120-'Totaux nationaux bruts'!D119))</f>
+        <v/>
+      </c>
+      <c r="E120" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E120),"",IF(ISBLANK('Totaux nationaux bruts'!E119),"",'Totaux nationaux bruts'!E120-'Totaux nationaux bruts'!E119))</f>
+        <v/>
+      </c>
+      <c r="F120" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F120),"",IF(ISBLANK('Totaux nationaux bruts'!F119),"",'Totaux nationaux bruts'!F120-'Totaux nationaux bruts'!F119))</f>
+        <v/>
+      </c>
+      <c r="G120" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G120),"",IF(ISBLANK('Totaux nationaux bruts'!G119),"",'Totaux nationaux bruts'!G120-'Totaux nationaux bruts'!G119))</f>
+        <v/>
+      </c>
+      <c r="H120" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H120),"",IF(ISBLANK('Totaux nationaux bruts'!H119),"",'Totaux nationaux bruts'!H120-'Totaux nationaux bruts'!H119))</f>
+        <v/>
+      </c>
+      <c r="I120" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I120),"",IF(ISBLANK('Totaux nationaux bruts'!I119),"",'Totaux nationaux bruts'!I120-'Totaux nationaux bruts'!I119))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="12">
+        <f>'Totaux nationaux bruts'!A121</f>
+        <v>43973</v>
+      </c>
+      <c r="B121" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B121),"",IF(ISBLANK('Totaux nationaux bruts'!B120),"",'Totaux nationaux bruts'!B121-'Totaux nationaux bruts'!B120))</f>
+        <v/>
+      </c>
+      <c r="C121" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C121),"",IF(ISBLANK('Totaux nationaux bruts'!C120),"",'Totaux nationaux bruts'!C121-'Totaux nationaux bruts'!C120))</f>
+        <v/>
+      </c>
+      <c r="D121" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D121),"",IF(ISBLANK('Totaux nationaux bruts'!D120),"",'Totaux nationaux bruts'!D121-'Totaux nationaux bruts'!D120))</f>
+        <v/>
+      </c>
+      <c r="E121" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E121),"",IF(ISBLANK('Totaux nationaux bruts'!E120),"",'Totaux nationaux bruts'!E121-'Totaux nationaux bruts'!E120))</f>
+        <v/>
+      </c>
+      <c r="F121" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F121),"",IF(ISBLANK('Totaux nationaux bruts'!F120),"",'Totaux nationaux bruts'!F121-'Totaux nationaux bruts'!F120))</f>
+        <v/>
+      </c>
+      <c r="G121" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G121),"",IF(ISBLANK('Totaux nationaux bruts'!G120),"",'Totaux nationaux bruts'!G121-'Totaux nationaux bruts'!G120))</f>
+        <v/>
+      </c>
+      <c r="H121" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H121),"",IF(ISBLANK('Totaux nationaux bruts'!H120),"",'Totaux nationaux bruts'!H121-'Totaux nationaux bruts'!H120))</f>
+        <v/>
+      </c>
+      <c r="I121" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I121),"",IF(ISBLANK('Totaux nationaux bruts'!I120),"",'Totaux nationaux bruts'!I121-'Totaux nationaux bruts'!I120))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="12">
+        <f>'Totaux nationaux bruts'!A122</f>
+        <v>43974</v>
+      </c>
+      <c r="B122" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B122),"",IF(ISBLANK('Totaux nationaux bruts'!B121),"",'Totaux nationaux bruts'!B122-'Totaux nationaux bruts'!B121))</f>
+        <v/>
+      </c>
+      <c r="C122" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C122),"",IF(ISBLANK('Totaux nationaux bruts'!C121),"",'Totaux nationaux bruts'!C122-'Totaux nationaux bruts'!C121))</f>
+        <v/>
+      </c>
+      <c r="D122" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D122),"",IF(ISBLANK('Totaux nationaux bruts'!D121),"",'Totaux nationaux bruts'!D122-'Totaux nationaux bruts'!D121))</f>
+        <v/>
+      </c>
+      <c r="E122" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E122),"",IF(ISBLANK('Totaux nationaux bruts'!E121),"",'Totaux nationaux bruts'!E122-'Totaux nationaux bruts'!E121))</f>
+        <v/>
+      </c>
+      <c r="F122" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F122),"",IF(ISBLANK('Totaux nationaux bruts'!F121),"",'Totaux nationaux bruts'!F122-'Totaux nationaux bruts'!F121))</f>
+        <v/>
+      </c>
+      <c r="G122" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G122),"",IF(ISBLANK('Totaux nationaux bruts'!G121),"",'Totaux nationaux bruts'!G122-'Totaux nationaux bruts'!G121))</f>
+        <v/>
+      </c>
+      <c r="H122" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H122),"",IF(ISBLANK('Totaux nationaux bruts'!H121),"",'Totaux nationaux bruts'!H122-'Totaux nationaux bruts'!H121))</f>
+        <v/>
+      </c>
+      <c r="I122" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I122),"",IF(ISBLANK('Totaux nationaux bruts'!I121),"",'Totaux nationaux bruts'!I122-'Totaux nationaux bruts'!I121))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="12">
+        <f>'Totaux nationaux bruts'!A123</f>
+        <v>43975</v>
+      </c>
+      <c r="B123" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B123),"",IF(ISBLANK('Totaux nationaux bruts'!B122),"",'Totaux nationaux bruts'!B123-'Totaux nationaux bruts'!B122))</f>
+        <v/>
+      </c>
+      <c r="C123" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C123),"",IF(ISBLANK('Totaux nationaux bruts'!C122),"",'Totaux nationaux bruts'!C123-'Totaux nationaux bruts'!C122))</f>
+        <v/>
+      </c>
+      <c r="D123" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D123),"",IF(ISBLANK('Totaux nationaux bruts'!D122),"",'Totaux nationaux bruts'!D123-'Totaux nationaux bruts'!D122))</f>
+        <v/>
+      </c>
+      <c r="E123" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E123),"",IF(ISBLANK('Totaux nationaux bruts'!E122),"",'Totaux nationaux bruts'!E123-'Totaux nationaux bruts'!E122))</f>
+        <v/>
+      </c>
+      <c r="F123" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F123),"",IF(ISBLANK('Totaux nationaux bruts'!F122),"",'Totaux nationaux bruts'!F123-'Totaux nationaux bruts'!F122))</f>
+        <v/>
+      </c>
+      <c r="G123" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G123),"",IF(ISBLANK('Totaux nationaux bruts'!G122),"",'Totaux nationaux bruts'!G123-'Totaux nationaux bruts'!G122))</f>
+        <v/>
+      </c>
+      <c r="H123" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H123),"",IF(ISBLANK('Totaux nationaux bruts'!H122),"",'Totaux nationaux bruts'!H123-'Totaux nationaux bruts'!H122))</f>
+        <v/>
+      </c>
+      <c r="I123" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I123),"",IF(ISBLANK('Totaux nationaux bruts'!I122),"",'Totaux nationaux bruts'!I123-'Totaux nationaux bruts'!I122))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="12">
+        <f>'Totaux nationaux bruts'!A124</f>
+        <v>43976</v>
+      </c>
+      <c r="B124" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B124),"",IF(ISBLANK('Totaux nationaux bruts'!B123),"",'Totaux nationaux bruts'!B124-'Totaux nationaux bruts'!B123))</f>
+        <v/>
+      </c>
+      <c r="C124" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C124),"",IF(ISBLANK('Totaux nationaux bruts'!C123),"",'Totaux nationaux bruts'!C124-'Totaux nationaux bruts'!C123))</f>
+        <v/>
+      </c>
+      <c r="D124" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D124),"",IF(ISBLANK('Totaux nationaux bruts'!D123),"",'Totaux nationaux bruts'!D124-'Totaux nationaux bruts'!D123))</f>
+        <v/>
+      </c>
+      <c r="E124" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E124),"",IF(ISBLANK('Totaux nationaux bruts'!E123),"",'Totaux nationaux bruts'!E124-'Totaux nationaux bruts'!E123))</f>
+        <v/>
+      </c>
+      <c r="F124" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F124),"",IF(ISBLANK('Totaux nationaux bruts'!F123),"",'Totaux nationaux bruts'!F124-'Totaux nationaux bruts'!F123))</f>
+        <v/>
+      </c>
+      <c r="G124" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G124),"",IF(ISBLANK('Totaux nationaux bruts'!G123),"",'Totaux nationaux bruts'!G124-'Totaux nationaux bruts'!G123))</f>
+        <v/>
+      </c>
+      <c r="H124" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H124),"",IF(ISBLANK('Totaux nationaux bruts'!H123),"",'Totaux nationaux bruts'!H124-'Totaux nationaux bruts'!H123))</f>
+        <v/>
+      </c>
+      <c r="I124" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I124),"",IF(ISBLANK('Totaux nationaux bruts'!I123),"",'Totaux nationaux bruts'!I124-'Totaux nationaux bruts'!I123))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="12">
+        <f>'Totaux nationaux bruts'!A125</f>
+        <v>43977</v>
+      </c>
+      <c r="B125" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B125),"",IF(ISBLANK('Totaux nationaux bruts'!B124),"",'Totaux nationaux bruts'!B125-'Totaux nationaux bruts'!B124))</f>
+        <v/>
+      </c>
+      <c r="C125" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C125),"",IF(ISBLANK('Totaux nationaux bruts'!C124),"",'Totaux nationaux bruts'!C125-'Totaux nationaux bruts'!C124))</f>
+        <v/>
+      </c>
+      <c r="D125" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D125),"",IF(ISBLANK('Totaux nationaux bruts'!D124),"",'Totaux nationaux bruts'!D125-'Totaux nationaux bruts'!D124))</f>
+        <v/>
+      </c>
+      <c r="E125" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E125),"",IF(ISBLANK('Totaux nationaux bruts'!E124),"",'Totaux nationaux bruts'!E125-'Totaux nationaux bruts'!E124))</f>
+        <v/>
+      </c>
+      <c r="F125" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F125),"",IF(ISBLANK('Totaux nationaux bruts'!F124),"",'Totaux nationaux bruts'!F125-'Totaux nationaux bruts'!F124))</f>
+        <v/>
+      </c>
+      <c r="G125" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G125),"",IF(ISBLANK('Totaux nationaux bruts'!G124),"",'Totaux nationaux bruts'!G125-'Totaux nationaux bruts'!G124))</f>
+        <v/>
+      </c>
+      <c r="H125" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H125),"",IF(ISBLANK('Totaux nationaux bruts'!H124),"",'Totaux nationaux bruts'!H125-'Totaux nationaux bruts'!H124))</f>
+        <v/>
+      </c>
+      <c r="I125" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I125),"",IF(ISBLANK('Totaux nationaux bruts'!I124),"",'Totaux nationaux bruts'!I125-'Totaux nationaux bruts'!I124))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="12">
+        <f>'Totaux nationaux bruts'!A126</f>
+        <v>43978</v>
+      </c>
+      <c r="B126" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B126),"",IF(ISBLANK('Totaux nationaux bruts'!B125),"",'Totaux nationaux bruts'!B126-'Totaux nationaux bruts'!B125))</f>
+        <v/>
+      </c>
+      <c r="C126" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C126),"",IF(ISBLANK('Totaux nationaux bruts'!C125),"",'Totaux nationaux bruts'!C126-'Totaux nationaux bruts'!C125))</f>
+        <v/>
+      </c>
+      <c r="D126" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D126),"",IF(ISBLANK('Totaux nationaux bruts'!D125),"",'Totaux nationaux bruts'!D126-'Totaux nationaux bruts'!D125))</f>
+        <v/>
+      </c>
+      <c r="E126" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E126),"",IF(ISBLANK('Totaux nationaux bruts'!E125),"",'Totaux nationaux bruts'!E126-'Totaux nationaux bruts'!E125))</f>
+        <v/>
+      </c>
+      <c r="F126" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F126),"",IF(ISBLANK('Totaux nationaux bruts'!F125),"",'Totaux nationaux bruts'!F126-'Totaux nationaux bruts'!F125))</f>
+        <v/>
+      </c>
+      <c r="G126" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G126),"",IF(ISBLANK('Totaux nationaux bruts'!G125),"",'Totaux nationaux bruts'!G126-'Totaux nationaux bruts'!G125))</f>
+        <v/>
+      </c>
+      <c r="H126" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H126),"",IF(ISBLANK('Totaux nationaux bruts'!H125),"",'Totaux nationaux bruts'!H126-'Totaux nationaux bruts'!H125))</f>
+        <v/>
+      </c>
+      <c r="I126" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I126),"",IF(ISBLANK('Totaux nationaux bruts'!I125),"",'Totaux nationaux bruts'!I126-'Totaux nationaux bruts'!I125))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="12">
+        <f>'Totaux nationaux bruts'!A127</f>
+        <v>43979</v>
+      </c>
+      <c r="B127" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B127),"",IF(ISBLANK('Totaux nationaux bruts'!B126),"",'Totaux nationaux bruts'!B127-'Totaux nationaux bruts'!B126))</f>
+        <v/>
+      </c>
+      <c r="C127" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C127),"",IF(ISBLANK('Totaux nationaux bruts'!C126),"",'Totaux nationaux bruts'!C127-'Totaux nationaux bruts'!C126))</f>
+        <v/>
+      </c>
+      <c r="D127" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D127),"",IF(ISBLANK('Totaux nationaux bruts'!D126),"",'Totaux nationaux bruts'!D127-'Totaux nationaux bruts'!D126))</f>
+        <v/>
+      </c>
+      <c r="E127" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E127),"",IF(ISBLANK('Totaux nationaux bruts'!E126),"",'Totaux nationaux bruts'!E127-'Totaux nationaux bruts'!E126))</f>
+        <v/>
+      </c>
+      <c r="F127" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F127),"",IF(ISBLANK('Totaux nationaux bruts'!F126),"",'Totaux nationaux bruts'!F127-'Totaux nationaux bruts'!F126))</f>
+        <v/>
+      </c>
+      <c r="G127" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G127),"",IF(ISBLANK('Totaux nationaux bruts'!G126),"",'Totaux nationaux bruts'!G127-'Totaux nationaux bruts'!G126))</f>
+        <v/>
+      </c>
+      <c r="H127" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H127),"",IF(ISBLANK('Totaux nationaux bruts'!H126),"",'Totaux nationaux bruts'!H127-'Totaux nationaux bruts'!H126))</f>
+        <v/>
+      </c>
+      <c r="I127" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I127),"",IF(ISBLANK('Totaux nationaux bruts'!I126),"",'Totaux nationaux bruts'!I127-'Totaux nationaux bruts'!I126))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="12">
+        <f>'Totaux nationaux bruts'!A128</f>
+        <v>43980</v>
+      </c>
+      <c r="B128" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B128),"",IF(ISBLANK('Totaux nationaux bruts'!B127),"",'Totaux nationaux bruts'!B128-'Totaux nationaux bruts'!B127))</f>
+        <v/>
+      </c>
+      <c r="C128" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C128),"",IF(ISBLANK('Totaux nationaux bruts'!C127),"",'Totaux nationaux bruts'!C128-'Totaux nationaux bruts'!C127))</f>
+        <v/>
+      </c>
+      <c r="D128" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D128),"",IF(ISBLANK('Totaux nationaux bruts'!D127),"",'Totaux nationaux bruts'!D128-'Totaux nationaux bruts'!D127))</f>
+        <v/>
+      </c>
+      <c r="E128" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E128),"",IF(ISBLANK('Totaux nationaux bruts'!E127),"",'Totaux nationaux bruts'!E128-'Totaux nationaux bruts'!E127))</f>
+        <v/>
+      </c>
+      <c r="F128" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F128),"",IF(ISBLANK('Totaux nationaux bruts'!F127),"",'Totaux nationaux bruts'!F128-'Totaux nationaux bruts'!F127))</f>
+        <v/>
+      </c>
+      <c r="G128" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G128),"",IF(ISBLANK('Totaux nationaux bruts'!G127),"",'Totaux nationaux bruts'!G128-'Totaux nationaux bruts'!G127))</f>
+        <v/>
+      </c>
+      <c r="H128" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H128),"",IF(ISBLANK('Totaux nationaux bruts'!H127),"",'Totaux nationaux bruts'!H128-'Totaux nationaux bruts'!H127))</f>
+        <v/>
+      </c>
+      <c r="I128" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I128),"",IF(ISBLANK('Totaux nationaux bruts'!I127),"",'Totaux nationaux bruts'!I128-'Totaux nationaux bruts'!I127))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="12">
+        <f>'Totaux nationaux bruts'!A129</f>
+        <v>43981</v>
+      </c>
+      <c r="B129" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B129),"",IF(ISBLANK('Totaux nationaux bruts'!B128),"",'Totaux nationaux bruts'!B129-'Totaux nationaux bruts'!B128))</f>
+        <v/>
+      </c>
+      <c r="C129" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C129),"",IF(ISBLANK('Totaux nationaux bruts'!C128),"",'Totaux nationaux bruts'!C129-'Totaux nationaux bruts'!C128))</f>
+        <v/>
+      </c>
+      <c r="D129" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D129),"",IF(ISBLANK('Totaux nationaux bruts'!D128),"",'Totaux nationaux bruts'!D129-'Totaux nationaux bruts'!D128))</f>
+        <v/>
+      </c>
+      <c r="E129" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E129),"",IF(ISBLANK('Totaux nationaux bruts'!E128),"",'Totaux nationaux bruts'!E129-'Totaux nationaux bruts'!E128))</f>
+        <v/>
+      </c>
+      <c r="F129" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F129),"",IF(ISBLANK('Totaux nationaux bruts'!F128),"",'Totaux nationaux bruts'!F129-'Totaux nationaux bruts'!F128))</f>
+        <v/>
+      </c>
+      <c r="G129" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G129),"",IF(ISBLANK('Totaux nationaux bruts'!G128),"",'Totaux nationaux bruts'!G129-'Totaux nationaux bruts'!G128))</f>
+        <v/>
+      </c>
+      <c r="H129" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H129),"",IF(ISBLANK('Totaux nationaux bruts'!H128),"",'Totaux nationaux bruts'!H129-'Totaux nationaux bruts'!H128))</f>
+        <v/>
+      </c>
+      <c r="I129" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I129),"",IF(ISBLANK('Totaux nationaux bruts'!I128),"",'Totaux nationaux bruts'!I129-'Totaux nationaux bruts'!I128))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="12">
+        <f>'Totaux nationaux bruts'!A130</f>
+        <v>43982</v>
+      </c>
+      <c r="B130" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B130),"",IF(ISBLANK('Totaux nationaux bruts'!B129),"",'Totaux nationaux bruts'!B130-'Totaux nationaux bruts'!B129))</f>
+        <v/>
+      </c>
+      <c r="C130" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C130),"",IF(ISBLANK('Totaux nationaux bruts'!C129),"",'Totaux nationaux bruts'!C130-'Totaux nationaux bruts'!C129))</f>
+        <v/>
+      </c>
+      <c r="D130" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D130),"",IF(ISBLANK('Totaux nationaux bruts'!D129),"",'Totaux nationaux bruts'!D130-'Totaux nationaux bruts'!D129))</f>
+        <v/>
+      </c>
+      <c r="E130" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E130),"",IF(ISBLANK('Totaux nationaux bruts'!E129),"",'Totaux nationaux bruts'!E130-'Totaux nationaux bruts'!E129))</f>
+        <v/>
+      </c>
+      <c r="F130" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F130),"",IF(ISBLANK('Totaux nationaux bruts'!F129),"",'Totaux nationaux bruts'!F130-'Totaux nationaux bruts'!F129))</f>
+        <v/>
+      </c>
+      <c r="G130" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G130),"",IF(ISBLANK('Totaux nationaux bruts'!G129),"",'Totaux nationaux bruts'!G130-'Totaux nationaux bruts'!G129))</f>
+        <v/>
+      </c>
+      <c r="H130" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H130),"",IF(ISBLANK('Totaux nationaux bruts'!H129),"",'Totaux nationaux bruts'!H130-'Totaux nationaux bruts'!H129))</f>
+        <v/>
+      </c>
+      <c r="I130" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I130),"",IF(ISBLANK('Totaux nationaux bruts'!I129),"",'Totaux nationaux bruts'!I130-'Totaux nationaux bruts'!I129))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="12">
+        <f>'Totaux nationaux bruts'!A131</f>
+        <v>43983</v>
+      </c>
+      <c r="B131" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B131),"",IF(ISBLANK('Totaux nationaux bruts'!B130),"",'Totaux nationaux bruts'!B131-'Totaux nationaux bruts'!B130))</f>
+        <v/>
+      </c>
+      <c r="C131" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C131),"",IF(ISBLANK('Totaux nationaux bruts'!C130),"",'Totaux nationaux bruts'!C131-'Totaux nationaux bruts'!C130))</f>
+        <v/>
+      </c>
+      <c r="D131" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D131),"",IF(ISBLANK('Totaux nationaux bruts'!D130),"",'Totaux nationaux bruts'!D131-'Totaux nationaux bruts'!D130))</f>
+        <v/>
+      </c>
+      <c r="E131" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E131),"",IF(ISBLANK('Totaux nationaux bruts'!E130),"",'Totaux nationaux bruts'!E131-'Totaux nationaux bruts'!E130))</f>
+        <v/>
+      </c>
+      <c r="F131" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F131),"",IF(ISBLANK('Totaux nationaux bruts'!F130),"",'Totaux nationaux bruts'!F131-'Totaux nationaux bruts'!F130))</f>
+        <v/>
+      </c>
+      <c r="G131" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G131),"",IF(ISBLANK('Totaux nationaux bruts'!G130),"",'Totaux nationaux bruts'!G131-'Totaux nationaux bruts'!G130))</f>
+        <v/>
+      </c>
+      <c r="H131" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H131),"",IF(ISBLANK('Totaux nationaux bruts'!H130),"",'Totaux nationaux bruts'!H131-'Totaux nationaux bruts'!H130))</f>
+        <v/>
+      </c>
+      <c r="I131" s="54" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!I131),"",IF(ISBLANK('Totaux nationaux bruts'!I130),"",'Totaux nationaux bruts'!I131-'Totaux nationaux bruts'!I130))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC74F3AE-06E0-459F-BD77-43DA6E0E691A}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F80" sqref="F75:F80"/>
@@ -4135,23 +9137,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" s="62" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:7" s="57" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="56" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4163,9 +9165,9 @@
         <f>'Totaux nationaux bruts'!B39-'Totaux nationaux bruts'!B38</f>
         <v>30</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="52">
         <f>'Totaux nationaux bruts'!F38-'Totaux nationaux bruts'!F37</f>
         <v>0</v>
@@ -4179,9 +9181,9 @@
         <f>'Totaux nationaux bruts'!B40-'Totaux nationaux bruts'!B39</f>
         <v>61</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="52">
         <f>'Totaux nationaux bruts'!F39-'Totaux nationaux bruts'!F38</f>
         <v>0</v>
@@ -4195,9 +9197,9 @@
         <f>'Totaux nationaux bruts'!B41-'Totaux nationaux bruts'!B40</f>
         <v>21</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="52">
         <f>'Totaux nationaux bruts'!F40-'Totaux nationaux bruts'!F39</f>
         <v>1</v>
@@ -4211,9 +9213,9 @@
         <f>'Totaux nationaux bruts'!B41-'Totaux nationaux bruts'!B40</f>
         <v>21</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="52">
         <f>'Totaux nationaux bruts'!F41-'Totaux nationaux bruts'!F40</f>
         <v>1</v>
@@ -4227,9 +9229,9 @@
         <f>'Totaux nationaux bruts'!B42-'Totaux nationaux bruts'!B41</f>
         <v>73</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="52">
         <f>'Totaux nationaux bruts'!F42-'Totaux nationaux bruts'!F41</f>
         <v>0</v>
@@ -4243,8 +9245,8 @@
         <f>'Totaux nationaux bruts'!B43-'Totaux nationaux bruts'!B42</f>
         <v>138</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="52">
         <f>'Totaux nationaux bruts'!E43-'Totaux nationaux bruts'!E42</f>
         <v>8</v>
@@ -4263,8 +9265,8 @@
         <f>'Totaux nationaux bruts'!B44-'Totaux nationaux bruts'!B43</f>
         <v>190</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="52">
         <f>'Totaux nationaux bruts'!E44-'Totaux nationaux bruts'!E43</f>
         <v>16</v>
@@ -4283,8 +9285,8 @@
         <f>'Totaux nationaux bruts'!B45-'Totaux nationaux bruts'!B44</f>
         <v>336</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="52">
         <f>'Totaux nationaux bruts'!E45-'Totaux nationaux bruts'!E44</f>
         <v>6</v>
@@ -4303,9 +9305,9 @@
         <f>'Totaux nationaux bruts'!B46-'Totaux nationaux bruts'!B45</f>
         <v>177</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="52">
         <f>'Totaux nationaux bruts'!F46-'Totaux nationaux bruts'!F45</f>
         <v>3</v>
@@ -4320,9 +9322,9 @@
         <f>'Totaux nationaux bruts'!B47-'Totaux nationaux bruts'!B46</f>
         <v>286</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="52">
         <f>'Totaux nationaux bruts'!F47-'Totaux nationaux bruts'!F46</f>
         <v>6</v>
@@ -4337,8 +9339,8 @@
         <f>'Totaux nationaux bruts'!B48-'Totaux nationaux bruts'!B47</f>
         <v>372</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="52">
         <f>'Totaux nationaux bruts'!E48-'Totaux nationaux bruts'!E47</f>
         <v>20</v>
@@ -4357,8 +9359,8 @@
         <f>'Totaux nationaux bruts'!B49-'Totaux nationaux bruts'!B48</f>
         <v>497</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="52">
         <f>'Totaux nationaux bruts'!E49-'Totaux nationaux bruts'!E48</f>
         <v>19</v>
@@ -4377,8 +9379,8 @@
         <f>'Totaux nationaux bruts'!B50-'Totaux nationaux bruts'!B49</f>
         <v>595</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="52">
         <f>'Totaux nationaux bruts'!E50-'Totaux nationaux bruts'!E49</f>
         <v>24</v>
@@ -4397,8 +9399,8 @@
         <f>'Totaux nationaux bruts'!B51-'Totaux nationaux bruts'!B50</f>
         <v>785</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="52">
         <f>'Totaux nationaux bruts'!E51-'Totaux nationaux bruts'!E50</f>
         <v>25</v>
@@ -4417,8 +9419,8 @@
         <f>'Totaux nationaux bruts'!B52-'Totaux nationaux bruts'!B51</f>
         <v>839</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="52">
         <f>'Totaux nationaux bruts'!E52-'Totaux nationaux bruts'!E51</f>
         <v>146</v>
@@ -4437,9 +9439,9 @@
         <f>'Totaux nationaux bruts'!B53-'Totaux nationaux bruts'!B52</f>
         <v>1878</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="52">
         <f>'Totaux nationaux bruts'!F53-'Totaux nationaux bruts'!F52</f>
         <v>70</v>
@@ -4454,9 +9456,9 @@
         <f>'Totaux nationaux bruts'!B54-'Totaux nationaux bruts'!B53</f>
         <v>255</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="52">
         <f>'Totaux nationaux bruts'!F54-'Totaux nationaux bruts'!F53</f>
         <v>-13</v>
@@ -4471,9 +9473,9 @@
         <f>'Totaux nationaux bruts'!B55-'Totaux nationaux bruts'!B54</f>
         <v>1097</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="52">
         <f>'Totaux nationaux bruts'!F55-'Totaux nationaux bruts'!F54</f>
         <v>27</v>
@@ -6038,7 +11040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8032E94F-9021-4785-A39C-11BC62354E37}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -6225,30 +11227,30 @@
       <c r="A4" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
     </row>
     <row r="5" spans="1:19" s="30" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
@@ -7575,7 +12577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE53C0BE-53CB-49E7-8A55-14E526C66755}">
   <dimension ref="A1:U70"/>
   <sheetViews>
@@ -9842,7 +14844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD85BC7-17C2-467C-884E-310A1CB4B63E}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -9972,7 +14974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9564AD74-C2A2-3B4B-8333-27252587B4DC}">
   <dimension ref="A1:B70"/>
   <sheetViews>
